--- a/20-11-23_Statusbericht/20-11-20_Barometer.xlsx
+++ b/20-11-23_Statusbericht/20-11-20_Barometer.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Philipp\Documents\GitHub\bachelorprojekt2020\20-11-23_Statusbericht\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{A155A758-25A0-4B6F-9541-3E18E83E3721}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{FA0EEF39-8B6E-41C9-BFBC-2E66C0FC2450}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="25440" windowHeight="15390" xr2:uid="{BDADFF32-FBD9-4DE5-B950-468D92E439C4}"/>
   </bookViews>
@@ -34,7 +34,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="21" uniqueCount="7">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="24" uniqueCount="12">
   <si>
     <t>Marc</t>
   </si>
@@ -48,13 +48,28 @@
     <t>Philipp</t>
   </si>
   <si>
-    <t>Gesamt:</t>
-  </si>
-  <si>
     <t>Motivation:</t>
   </si>
   <si>
-    <t>GesamtMotivation:</t>
+    <t>Teammotivation</t>
+  </si>
+  <si>
+    <t>Zielausrichtung</t>
+  </si>
+  <si>
+    <t>AG-Einbindung</t>
+  </si>
+  <si>
+    <t>Arbeitsfortschritt</t>
+  </si>
+  <si>
+    <t>Zielausrichtung:</t>
+  </si>
+  <si>
+    <t>Arbeitgebereinbindung:</t>
+  </si>
+  <si>
+    <t>Fortschritt:</t>
   </si>
 </sst>
 </file>
@@ -84,7 +99,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="10">
+  <borders count="4">
     <border>
       <left/>
       <right/>
@@ -93,55 +108,10 @@
       <diagonal/>
     </border>
     <border>
-      <left style="thin">
-        <color indexed="64"/>
-      </left>
-      <right style="thin">
-        <color indexed="64"/>
-      </right>
-      <top style="thin">
-        <color indexed="64"/>
-      </top>
-      <bottom style="thin">
-        <color indexed="64"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
       <left style="medium">
         <color indexed="64"/>
       </left>
       <right style="thin">
-        <color indexed="64"/>
-      </right>
-      <top style="medium">
-        <color indexed="64"/>
-      </top>
-      <bottom style="thin">
-        <color indexed="64"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color indexed="64"/>
-      </left>
-      <right style="thin">
-        <color indexed="64"/>
-      </right>
-      <top style="medium">
-        <color indexed="64"/>
-      </top>
-      <bottom style="thin">
-        <color indexed="64"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color indexed="64"/>
-      </left>
-      <right style="medium">
         <color indexed="64"/>
       </right>
       <top style="medium">
@@ -168,21 +138,6 @@
       <diagonal/>
     </border>
     <border>
-      <left style="thin">
-        <color indexed="64"/>
-      </left>
-      <right style="medium">
-        <color indexed="64"/>
-      </right>
-      <top style="thin">
-        <color indexed="64"/>
-      </top>
-      <bottom style="thin">
-        <color indexed="64"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
       <left style="medium">
         <color indexed="64"/>
       </left>
@@ -197,53 +152,17 @@
       </bottom>
       <diagonal/>
     </border>
-    <border>
-      <left style="thin">
-        <color indexed="64"/>
-      </left>
-      <right style="thin">
-        <color indexed="64"/>
-      </right>
-      <top style="thin">
-        <color indexed="64"/>
-      </top>
-      <bottom style="medium">
-        <color indexed="64"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color indexed="64"/>
-      </left>
-      <right style="medium">
-        <color indexed="64"/>
-      </right>
-      <top style="thin">
-        <color indexed="64"/>
-      </top>
-      <bottom style="medium">
-        <color indexed="64"/>
-      </bottom>
-      <diagonal/>
-    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="12">
+  <cellXfs count="6">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="16" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="2" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="3" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="4" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="5" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="6" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="7" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="8" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="9" xfId="0" applyFill="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Standard" xfId="0" builtinId="0"/>
@@ -276,6 +195,31 @@
   </mc:AlternateContent>
   <c:chart>
     <c:title>
+      <c:tx>
+        <c:rich>
+          <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:r>
+              <a:rPr lang="de-DE"/>
+              <a:t>Team-Barograph</a:t>
+            </a:r>
+          </a:p>
+        </c:rich>
+      </c:tx>
       <c:overlay val="0"/>
       <c:spPr>
         <a:noFill/>
@@ -320,7 +264,7 @@
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
-                  <c:v>GesamtMotivation:</c:v>
+                  <c:v>Teammotivation</c:v>
                 </c:pt>
               </c:strCache>
             </c:strRef>
@@ -425,70 +369,70 @@
                   <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>40</c:v>
+                  <c:v>10</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>40</c:v>
+                  <c:v>10</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>40</c:v>
+                  <c:v>10</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>40</c:v>
+                  <c:v>10</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>40</c:v>
+                  <c:v>10</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>40</c:v>
+                  <c:v>10</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>40</c:v>
+                  <c:v>10</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>40</c:v>
+                  <c:v>10</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>40</c:v>
+                  <c:v>10</c:v>
                 </c:pt>
                 <c:pt idx="10">
-                  <c:v>40</c:v>
+                  <c:v>10</c:v>
                 </c:pt>
                 <c:pt idx="11">
-                  <c:v>40</c:v>
+                  <c:v>10</c:v>
                 </c:pt>
                 <c:pt idx="12">
-                  <c:v>40</c:v>
+                  <c:v>10</c:v>
                 </c:pt>
                 <c:pt idx="13">
-                  <c:v>40</c:v>
+                  <c:v>10</c:v>
                 </c:pt>
                 <c:pt idx="14">
-                  <c:v>40</c:v>
+                  <c:v>10</c:v>
                 </c:pt>
                 <c:pt idx="15">
-                  <c:v>40</c:v>
+                  <c:v>10</c:v>
                 </c:pt>
                 <c:pt idx="16">
-                  <c:v>40</c:v>
+                  <c:v>10</c:v>
                 </c:pt>
                 <c:pt idx="17">
-                  <c:v>40</c:v>
+                  <c:v>10</c:v>
                 </c:pt>
                 <c:pt idx="18">
-                  <c:v>40</c:v>
+                  <c:v>10</c:v>
                 </c:pt>
                 <c:pt idx="19">
-                  <c:v>40</c:v>
+                  <c:v>10</c:v>
                 </c:pt>
                 <c:pt idx="20">
-                  <c:v>40</c:v>
+                  <c:v>10</c:v>
                 </c:pt>
                 <c:pt idx="21">
-                  <c:v>40</c:v>
+                  <c:v>10</c:v>
                 </c:pt>
                 <c:pt idx="22">
-                  <c:v>40</c:v>
+                  <c:v>10</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -497,6 +441,324 @@
           <c:extLst>
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
               <c16:uniqueId val="{00000000-91DA-4055-AFD3-EFB3E3EB7253}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="1"/>
+          <c:order val="1"/>
+          <c:tx>
+            <c:v>Zielausrichtung</c:v>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="28575" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent2"/>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="none"/>
+          </c:marker>
+          <c:val>
+            <c:numRef>
+              <c:f>Tabelle1!$14:$14</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="16384"/>
+                <c:pt idx="0">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>9</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>9</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>9</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>9</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>9</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>9</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>9</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>9</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>9</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>9</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>9</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>9</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>9</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>9</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>9</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>9</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>9</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>9</c:v>
+                </c:pt>
+                <c:pt idx="19">
+                  <c:v>9</c:v>
+                </c:pt>
+                <c:pt idx="20">
+                  <c:v>9</c:v>
+                </c:pt>
+                <c:pt idx="21">
+                  <c:v>9</c:v>
+                </c:pt>
+                <c:pt idx="22">
+                  <c:v>9</c:v>
+                </c:pt>
+                <c:pt idx="23">
+                  <c:v>9</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000001-38B9-418C-88CF-C745B0775471}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="2"/>
+          <c:order val="2"/>
+          <c:tx>
+            <c:v>AG-Einbindung</c:v>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="28575" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent3"/>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="none"/>
+          </c:marker>
+          <c:val>
+            <c:numRef>
+              <c:f>Tabelle1!$21:$21</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="16384"/>
+                <c:pt idx="0">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>8</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>8</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>8</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>8</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>8</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>8</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>8</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>8</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>8</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>8</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>8</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>8</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>8</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>8</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>8</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>8</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>8</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>8</c:v>
+                </c:pt>
+                <c:pt idx="19">
+                  <c:v>8</c:v>
+                </c:pt>
+                <c:pt idx="20">
+                  <c:v>8</c:v>
+                </c:pt>
+                <c:pt idx="21">
+                  <c:v>8</c:v>
+                </c:pt>
+                <c:pt idx="22">
+                  <c:v>8</c:v>
+                </c:pt>
+                <c:pt idx="23">
+                  <c:v>8</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000002-38B9-418C-88CF-C745B0775471}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="3"/>
+          <c:order val="3"/>
+          <c:tx>
+            <c:v>Arbeitsfortschritt</c:v>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="28575" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent4"/>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="none"/>
+          </c:marker>
+          <c:val>
+            <c:numRef>
+              <c:f>Tabelle1!$28:$28</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="16384"/>
+                <c:pt idx="0">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>7</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>7</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>7</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>7</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>7</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>7</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>7</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>7</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>7</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>7</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>7</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>7</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>7</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>7</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>7</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>7</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>7</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>7</c:v>
+                </c:pt>
+                <c:pt idx="19">
+                  <c:v>7</c:v>
+                </c:pt>
+                <c:pt idx="20">
+                  <c:v>7</c:v>
+                </c:pt>
+                <c:pt idx="21">
+                  <c:v>7</c:v>
+                </c:pt>
+                <c:pt idx="22">
+                  <c:v>7</c:v>
+                </c:pt>
+                <c:pt idx="23">
+                  <c:v>7</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000003-38B9-418C-88CF-C745B0775471}"/>
             </c:ext>
           </c:extLst>
         </c:ser>
@@ -566,6 +828,7 @@
         <c:axId val="949676399"/>
         <c:scaling>
           <c:orientation val="minMax"/>
+          <c:min val="0"/>
         </c:scaling>
         <c:delete val="0"/>
         <c:axPos val="l"/>
@@ -626,6 +889,37 @@
         <a:effectLst/>
       </c:spPr>
     </c:plotArea>
+    <c:legend>
+      <c:legendPos val="b"/>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="de-DE"/>
+        </a:p>
+      </c:txPr>
+    </c:legend>
     <c:plotVisOnly val="1"/>
     <c:dispBlanksAs val="gap"/>
     <c:extLst>
@@ -1230,16 +1524,16 @@
 <xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>5</xdr:col>
-      <xdr:colOff>218514</xdr:colOff>
-      <xdr:row>28</xdr:row>
-      <xdr:rowOff>158002</xdr:rowOff>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>39219</xdr:colOff>
+      <xdr:row>29</xdr:row>
+      <xdr:rowOff>57149</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>11</xdr:col>
-      <xdr:colOff>218514</xdr:colOff>
-      <xdr:row>43</xdr:row>
-      <xdr:rowOff>43702</xdr:rowOff>
+      <xdr:col>10</xdr:col>
+      <xdr:colOff>717176</xdr:colOff>
+      <xdr:row>48</xdr:row>
+      <xdr:rowOff>100852</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame macro="">
       <xdr:nvGraphicFramePr>
@@ -1566,8 +1860,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{85923DA2-2FD1-4856-AB9C-336BEA5CAFF2}">
   <dimension ref="A1:X28"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
-      <selection activeCell="W41" sqref="W41"/>
+    <sheetView tabSelected="1" topLeftCell="A13" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="P43" sqref="P43"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1648,7 +1942,7 @@
     </row>
     <row r="2" spans="1:24" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A2" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
     </row>
     <row r="3" spans="1:24" x14ac:dyDescent="0.25">
@@ -1729,73 +2023,73 @@
       <c r="A4" t="s">
         <v>1</v>
       </c>
-      <c r="B4" s="6">
-        <v>10</v>
-      </c>
-      <c r="C4" s="6">
-        <v>10</v>
-      </c>
-      <c r="D4" s="6">
-        <v>10</v>
-      </c>
-      <c r="E4" s="6">
-        <v>10</v>
-      </c>
-      <c r="F4" s="6">
-        <v>10</v>
-      </c>
-      <c r="G4" s="6">
-        <v>10</v>
-      </c>
-      <c r="H4" s="6">
-        <v>10</v>
-      </c>
-      <c r="I4" s="6">
-        <v>10</v>
-      </c>
-      <c r="J4" s="6">
-        <v>10</v>
-      </c>
-      <c r="K4" s="6">
-        <v>10</v>
-      </c>
-      <c r="L4" s="6">
-        <v>10</v>
-      </c>
-      <c r="M4" s="6">
-        <v>10</v>
-      </c>
-      <c r="N4" s="6">
-        <v>10</v>
-      </c>
-      <c r="O4" s="6">
-        <v>10</v>
-      </c>
-      <c r="P4" s="6">
-        <v>10</v>
-      </c>
-      <c r="Q4" s="6">
-        <v>10</v>
-      </c>
-      <c r="R4" s="6">
-        <v>10</v>
-      </c>
-      <c r="S4" s="6">
-        <v>10</v>
-      </c>
-      <c r="T4" s="6">
-        <v>10</v>
-      </c>
-      <c r="U4" s="6">
-        <v>10</v>
-      </c>
-      <c r="V4" s="6">
-        <v>10</v>
-      </c>
-      <c r="W4" s="6">
-        <v>10</v>
-      </c>
-      <c r="X4" s="6">
+      <c r="B4" s="4">
+        <v>10</v>
+      </c>
+      <c r="C4" s="4">
+        <v>10</v>
+      </c>
+      <c r="D4" s="4">
+        <v>10</v>
+      </c>
+      <c r="E4" s="4">
+        <v>10</v>
+      </c>
+      <c r="F4" s="4">
+        <v>10</v>
+      </c>
+      <c r="G4" s="4">
+        <v>10</v>
+      </c>
+      <c r="H4" s="4">
+        <v>10</v>
+      </c>
+      <c r="I4" s="4">
+        <v>10</v>
+      </c>
+      <c r="J4" s="4">
+        <v>10</v>
+      </c>
+      <c r="K4" s="4">
+        <v>10</v>
+      </c>
+      <c r="L4" s="4">
+        <v>10</v>
+      </c>
+      <c r="M4" s="4">
+        <v>10</v>
+      </c>
+      <c r="N4" s="4">
+        <v>10</v>
+      </c>
+      <c r="O4" s="4">
+        <v>10</v>
+      </c>
+      <c r="P4" s="4">
+        <v>10</v>
+      </c>
+      <c r="Q4" s="4">
+        <v>10</v>
+      </c>
+      <c r="R4" s="4">
+        <v>10</v>
+      </c>
+      <c r="S4" s="4">
+        <v>10</v>
+      </c>
+      <c r="T4" s="4">
+        <v>10</v>
+      </c>
+      <c r="U4" s="4">
+        <v>10</v>
+      </c>
+      <c r="V4" s="4">
+        <v>10</v>
+      </c>
+      <c r="W4" s="4">
+        <v>10</v>
+      </c>
+      <c r="X4" s="4">
         <v>10</v>
       </c>
     </row>
@@ -1803,73 +2097,73 @@
       <c r="A5" t="s">
         <v>2</v>
       </c>
-      <c r="B5" s="6">
-        <v>10</v>
-      </c>
-      <c r="C5" s="6">
-        <v>10</v>
-      </c>
-      <c r="D5" s="6">
-        <v>10</v>
-      </c>
-      <c r="E5" s="6">
-        <v>10</v>
-      </c>
-      <c r="F5" s="6">
-        <v>10</v>
-      </c>
-      <c r="G5" s="6">
-        <v>10</v>
-      </c>
-      <c r="H5" s="6">
-        <v>10</v>
-      </c>
-      <c r="I5" s="6">
-        <v>10</v>
-      </c>
-      <c r="J5" s="6">
-        <v>10</v>
-      </c>
-      <c r="K5" s="6">
-        <v>10</v>
-      </c>
-      <c r="L5" s="6">
-        <v>10</v>
-      </c>
-      <c r="M5" s="6">
-        <v>10</v>
-      </c>
-      <c r="N5" s="6">
-        <v>10</v>
-      </c>
-      <c r="O5" s="6">
-        <v>10</v>
-      </c>
-      <c r="P5" s="6">
-        <v>10</v>
-      </c>
-      <c r="Q5" s="6">
-        <v>10</v>
-      </c>
-      <c r="R5" s="6">
-        <v>10</v>
-      </c>
-      <c r="S5" s="6">
-        <v>10</v>
-      </c>
-      <c r="T5" s="6">
-        <v>10</v>
-      </c>
-      <c r="U5" s="6">
-        <v>10</v>
-      </c>
-      <c r="V5" s="6">
-        <v>10</v>
-      </c>
-      <c r="W5" s="6">
-        <v>10</v>
-      </c>
-      <c r="X5" s="6">
+      <c r="B5" s="4">
+        <v>10</v>
+      </c>
+      <c r="C5" s="4">
+        <v>10</v>
+      </c>
+      <c r="D5" s="4">
+        <v>10</v>
+      </c>
+      <c r="E5" s="4">
+        <v>10</v>
+      </c>
+      <c r="F5" s="4">
+        <v>10</v>
+      </c>
+      <c r="G5" s="4">
+        <v>10</v>
+      </c>
+      <c r="H5" s="4">
+        <v>10</v>
+      </c>
+      <c r="I5" s="4">
+        <v>10</v>
+      </c>
+      <c r="J5" s="4">
+        <v>10</v>
+      </c>
+      <c r="K5" s="4">
+        <v>10</v>
+      </c>
+      <c r="L5" s="4">
+        <v>10</v>
+      </c>
+      <c r="M5" s="4">
+        <v>10</v>
+      </c>
+      <c r="N5" s="4">
+        <v>10</v>
+      </c>
+      <c r="O5" s="4">
+        <v>10</v>
+      </c>
+      <c r="P5" s="4">
+        <v>10</v>
+      </c>
+      <c r="Q5" s="4">
+        <v>10</v>
+      </c>
+      <c r="R5" s="4">
+        <v>10</v>
+      </c>
+      <c r="S5" s="4">
+        <v>10</v>
+      </c>
+      <c r="T5" s="4">
+        <v>10</v>
+      </c>
+      <c r="U5" s="4">
+        <v>10</v>
+      </c>
+      <c r="V5" s="4">
+        <v>10</v>
+      </c>
+      <c r="W5" s="4">
+        <v>10</v>
+      </c>
+      <c r="X5" s="4">
         <v>10</v>
       </c>
     </row>
@@ -1877,171 +2171,171 @@
       <c r="A6" t="s">
         <v>3</v>
       </c>
-      <c r="B6" s="6">
-        <v>10</v>
-      </c>
-      <c r="C6" s="6">
-        <v>10</v>
-      </c>
-      <c r="D6" s="6">
-        <v>10</v>
-      </c>
-      <c r="E6" s="6">
-        <v>10</v>
-      </c>
-      <c r="F6" s="6">
-        <v>10</v>
-      </c>
-      <c r="G6" s="6">
-        <v>10</v>
-      </c>
-      <c r="H6" s="6">
-        <v>10</v>
-      </c>
-      <c r="I6" s="6">
-        <v>10</v>
-      </c>
-      <c r="J6" s="6">
-        <v>10</v>
-      </c>
-      <c r="K6" s="6">
-        <v>10</v>
-      </c>
-      <c r="L6" s="6">
-        <v>10</v>
-      </c>
-      <c r="M6" s="6">
-        <v>10</v>
-      </c>
-      <c r="N6" s="6">
-        <v>10</v>
-      </c>
-      <c r="O6" s="6">
-        <v>10</v>
-      </c>
-      <c r="P6" s="6">
-        <v>10</v>
-      </c>
-      <c r="Q6" s="6">
-        <v>10</v>
-      </c>
-      <c r="R6" s="6">
-        <v>10</v>
-      </c>
-      <c r="S6" s="6">
-        <v>10</v>
-      </c>
-      <c r="T6" s="6">
-        <v>10</v>
-      </c>
-      <c r="U6" s="6">
-        <v>10</v>
-      </c>
-      <c r="V6" s="6">
-        <v>10</v>
-      </c>
-      <c r="W6" s="6">
-        <v>10</v>
-      </c>
-      <c r="X6" s="6">
+      <c r="B6" s="4">
+        <v>10</v>
+      </c>
+      <c r="C6" s="4">
+        <v>10</v>
+      </c>
+      <c r="D6" s="4">
+        <v>10</v>
+      </c>
+      <c r="E6" s="4">
+        <v>10</v>
+      </c>
+      <c r="F6" s="4">
+        <v>10</v>
+      </c>
+      <c r="G6" s="4">
+        <v>10</v>
+      </c>
+      <c r="H6" s="4">
+        <v>10</v>
+      </c>
+      <c r="I6" s="4">
+        <v>10</v>
+      </c>
+      <c r="J6" s="4">
+        <v>10</v>
+      </c>
+      <c r="K6" s="4">
+        <v>10</v>
+      </c>
+      <c r="L6" s="4">
+        <v>10</v>
+      </c>
+      <c r="M6" s="4">
+        <v>10</v>
+      </c>
+      <c r="N6" s="4">
+        <v>10</v>
+      </c>
+      <c r="O6" s="4">
+        <v>10</v>
+      </c>
+      <c r="P6" s="4">
+        <v>10</v>
+      </c>
+      <c r="Q6" s="4">
+        <v>10</v>
+      </c>
+      <c r="R6" s="4">
+        <v>10</v>
+      </c>
+      <c r="S6" s="4">
+        <v>10</v>
+      </c>
+      <c r="T6" s="4">
+        <v>10</v>
+      </c>
+      <c r="U6" s="4">
+        <v>10</v>
+      </c>
+      <c r="V6" s="4">
+        <v>10</v>
+      </c>
+      <c r="W6" s="4">
+        <v>10</v>
+      </c>
+      <c r="X6" s="4">
         <v>10</v>
       </c>
     </row>
     <row r="7" spans="1:24" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A7" t="s">
-        <v>6</v>
-      </c>
-      <c r="B7" s="9">
-        <f>SUM(B3:B6)</f>
-        <v>40</v>
-      </c>
-      <c r="C7" s="10">
-        <f t="shared" ref="C7:X7" si="0">SUM(C3:C6)</f>
-        <v>40</v>
-      </c>
-      <c r="D7" s="10">
+        <v>5</v>
+      </c>
+      <c r="B7" s="5">
+        <f>AVERAGE(B3:B6)</f>
+        <v>10</v>
+      </c>
+      <c r="C7" s="5">
+        <f t="shared" ref="C7:X7" si="0">AVERAGE(C3:C6)</f>
+        <v>10</v>
+      </c>
+      <c r="D7" s="5">
         <f t="shared" si="0"/>
-        <v>40</v>
-      </c>
-      <c r="E7" s="10">
+        <v>10</v>
+      </c>
+      <c r="E7" s="5">
         <f t="shared" si="0"/>
-        <v>40</v>
-      </c>
-      <c r="F7" s="10">
+        <v>10</v>
+      </c>
+      <c r="F7" s="5">
         <f t="shared" si="0"/>
-        <v>40</v>
-      </c>
-      <c r="G7" s="10">
+        <v>10</v>
+      </c>
+      <c r="G7" s="5">
         <f t="shared" si="0"/>
-        <v>40</v>
-      </c>
-      <c r="H7" s="10">
+        <v>10</v>
+      </c>
+      <c r="H7" s="5">
         <f t="shared" si="0"/>
-        <v>40</v>
-      </c>
-      <c r="I7" s="10">
+        <v>10</v>
+      </c>
+      <c r="I7" s="5">
         <f t="shared" si="0"/>
-        <v>40</v>
-      </c>
-      <c r="J7" s="10">
+        <v>10</v>
+      </c>
+      <c r="J7" s="5">
         <f t="shared" si="0"/>
-        <v>40</v>
-      </c>
-      <c r="K7" s="10">
+        <v>10</v>
+      </c>
+      <c r="K7" s="5">
         <f t="shared" si="0"/>
-        <v>40</v>
-      </c>
-      <c r="L7" s="10">
+        <v>10</v>
+      </c>
+      <c r="L7" s="5">
         <f t="shared" si="0"/>
-        <v>40</v>
-      </c>
-      <c r="M7" s="10">
+        <v>10</v>
+      </c>
+      <c r="M7" s="5">
         <f t="shared" si="0"/>
-        <v>40</v>
-      </c>
-      <c r="N7" s="10">
+        <v>10</v>
+      </c>
+      <c r="N7" s="5">
         <f t="shared" si="0"/>
-        <v>40</v>
-      </c>
-      <c r="O7" s="10">
+        <v>10</v>
+      </c>
+      <c r="O7" s="5">
         <f t="shared" si="0"/>
-        <v>40</v>
-      </c>
-      <c r="P7" s="10">
+        <v>10</v>
+      </c>
+      <c r="P7" s="5">
         <f t="shared" si="0"/>
-        <v>40</v>
-      </c>
-      <c r="Q7" s="10">
+        <v>10</v>
+      </c>
+      <c r="Q7" s="5">
         <f t="shared" si="0"/>
-        <v>40</v>
-      </c>
-      <c r="R7" s="10">
+        <v>10</v>
+      </c>
+      <c r="R7" s="5">
         <f t="shared" si="0"/>
-        <v>40</v>
-      </c>
-      <c r="S7" s="10">
+        <v>10</v>
+      </c>
+      <c r="S7" s="5">
         <f t="shared" si="0"/>
-        <v>40</v>
-      </c>
-      <c r="T7" s="10">
+        <v>10</v>
+      </c>
+      <c r="T7" s="5">
         <f t="shared" si="0"/>
-        <v>40</v>
-      </c>
-      <c r="U7" s="10">
+        <v>10</v>
+      </c>
+      <c r="U7" s="5">
         <f t="shared" si="0"/>
-        <v>40</v>
-      </c>
-      <c r="V7" s="10">
+        <v>10</v>
+      </c>
+      <c r="V7" s="5">
         <f t="shared" si="0"/>
-        <v>40</v>
-      </c>
-      <c r="W7" s="10">
+        <v>10</v>
+      </c>
+      <c r="W7" s="5">
         <f t="shared" si="0"/>
-        <v>40</v>
-      </c>
-      <c r="X7" s="11">
+        <v>10</v>
+      </c>
+      <c r="X7" s="5">
         <f t="shared" si="0"/>
-        <v>40</v>
+        <v>10</v>
       </c>
     </row>
     <row r="8" spans="1:24" x14ac:dyDescent="0.25">
@@ -2070,6 +2364,9 @@
       <c r="X8" s="2"/>
     </row>
     <row r="9" spans="1:24" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A9" t="s">
+        <v>9</v>
+      </c>
       <c r="B9" s="2"/>
       <c r="C9" s="2"/>
       <c r="D9" s="2"/>
@@ -2094,213 +2391,397 @@
       <c r="W9" s="2"/>
       <c r="X9" s="2"/>
     </row>
-    <row r="10" spans="1:24" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:24" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A10" t="s">
         <v>0</v>
       </c>
-      <c r="B10" s="3"/>
-      <c r="C10" s="4"/>
-      <c r="D10" s="4"/>
-      <c r="E10" s="4"/>
-      <c r="F10" s="4"/>
-      <c r="G10" s="4"/>
-      <c r="H10" s="4"/>
-      <c r="I10" s="4"/>
-      <c r="J10" s="4"/>
-      <c r="K10" s="4"/>
-      <c r="L10" s="4"/>
-      <c r="M10" s="4"/>
-      <c r="N10" s="4"/>
-      <c r="O10" s="4"/>
-      <c r="P10" s="4"/>
-      <c r="Q10" s="4"/>
-      <c r="R10" s="4"/>
-      <c r="S10" s="4"/>
-      <c r="T10" s="4"/>
-      <c r="U10" s="4"/>
-      <c r="V10" s="4"/>
-      <c r="W10" s="4"/>
-      <c r="X10" s="5"/>
+      <c r="B10" s="3">
+        <v>9</v>
+      </c>
+      <c r="C10" s="3">
+        <v>9</v>
+      </c>
+      <c r="D10" s="3">
+        <v>9</v>
+      </c>
+      <c r="E10" s="3">
+        <v>9</v>
+      </c>
+      <c r="F10" s="3">
+        <v>9</v>
+      </c>
+      <c r="G10" s="3">
+        <v>9</v>
+      </c>
+      <c r="H10" s="3">
+        <v>9</v>
+      </c>
+      <c r="I10" s="3">
+        <v>9</v>
+      </c>
+      <c r="J10" s="3">
+        <v>9</v>
+      </c>
+      <c r="K10" s="3">
+        <v>9</v>
+      </c>
+      <c r="L10" s="3">
+        <v>9</v>
+      </c>
+      <c r="M10" s="3">
+        <v>9</v>
+      </c>
+      <c r="N10" s="3">
+        <v>9</v>
+      </c>
+      <c r="O10" s="3">
+        <v>9</v>
+      </c>
+      <c r="P10" s="3">
+        <v>9</v>
+      </c>
+      <c r="Q10" s="3">
+        <v>9</v>
+      </c>
+      <c r="R10" s="3">
+        <v>9</v>
+      </c>
+      <c r="S10" s="3">
+        <v>9</v>
+      </c>
+      <c r="T10" s="3">
+        <v>9</v>
+      </c>
+      <c r="U10" s="3">
+        <v>9</v>
+      </c>
+      <c r="V10" s="3">
+        <v>9</v>
+      </c>
+      <c r="W10" s="3">
+        <v>9</v>
+      </c>
+      <c r="X10" s="3">
+        <v>9</v>
+      </c>
     </row>
-    <row r="11" spans="1:24" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:24" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A11" t="s">
         <v>1</v>
       </c>
-      <c r="B11" s="6"/>
-      <c r="C11" s="7"/>
-      <c r="D11" s="7"/>
-      <c r="E11" s="7"/>
-      <c r="F11" s="7"/>
-      <c r="G11" s="7"/>
-      <c r="H11" s="7"/>
-      <c r="I11" s="7"/>
-      <c r="J11" s="7"/>
-      <c r="K11" s="7"/>
-      <c r="L11" s="7"/>
-      <c r="M11" s="7"/>
-      <c r="N11" s="7"/>
-      <c r="O11" s="7"/>
-      <c r="P11" s="7"/>
-      <c r="Q11" s="7"/>
-      <c r="R11" s="7"/>
-      <c r="S11" s="7"/>
-      <c r="T11" s="7"/>
-      <c r="U11" s="7"/>
-      <c r="V11" s="7"/>
-      <c r="W11" s="7"/>
-      <c r="X11" s="8"/>
+      <c r="B11" s="3">
+        <v>9</v>
+      </c>
+      <c r="C11" s="3">
+        <v>9</v>
+      </c>
+      <c r="D11" s="3">
+        <v>9</v>
+      </c>
+      <c r="E11" s="3">
+        <v>9</v>
+      </c>
+      <c r="F11" s="3">
+        <v>9</v>
+      </c>
+      <c r="G11" s="3">
+        <v>9</v>
+      </c>
+      <c r="H11" s="3">
+        <v>9</v>
+      </c>
+      <c r="I11" s="3">
+        <v>9</v>
+      </c>
+      <c r="J11" s="3">
+        <v>9</v>
+      </c>
+      <c r="K11" s="3">
+        <v>9</v>
+      </c>
+      <c r="L11" s="3">
+        <v>9</v>
+      </c>
+      <c r="M11" s="3">
+        <v>9</v>
+      </c>
+      <c r="N11" s="3">
+        <v>9</v>
+      </c>
+      <c r="O11" s="3">
+        <v>9</v>
+      </c>
+      <c r="P11" s="3">
+        <v>9</v>
+      </c>
+      <c r="Q11" s="3">
+        <v>9</v>
+      </c>
+      <c r="R11" s="3">
+        <v>9</v>
+      </c>
+      <c r="S11" s="3">
+        <v>9</v>
+      </c>
+      <c r="T11" s="3">
+        <v>9</v>
+      </c>
+      <c r="U11" s="3">
+        <v>9</v>
+      </c>
+      <c r="V11" s="3">
+        <v>9</v>
+      </c>
+      <c r="W11" s="3">
+        <v>9</v>
+      </c>
+      <c r="X11" s="3">
+        <v>9</v>
+      </c>
     </row>
-    <row r="12" spans="1:24" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:24" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A12" t="s">
         <v>2</v>
       </c>
-      <c r="B12" s="6"/>
-      <c r="C12" s="7"/>
-      <c r="D12" s="7"/>
-      <c r="E12" s="7"/>
-      <c r="F12" s="7"/>
-      <c r="G12" s="7"/>
-      <c r="H12" s="7"/>
-      <c r="I12" s="7"/>
-      <c r="J12" s="7"/>
-      <c r="K12" s="7"/>
-      <c r="L12" s="7"/>
-      <c r="M12" s="7"/>
-      <c r="N12" s="7"/>
-      <c r="O12" s="7"/>
-      <c r="P12" s="7"/>
-      <c r="Q12" s="7"/>
-      <c r="R12" s="7"/>
-      <c r="S12" s="7"/>
-      <c r="T12" s="7"/>
-      <c r="U12" s="7"/>
-      <c r="V12" s="7"/>
-      <c r="W12" s="7"/>
-      <c r="X12" s="8"/>
+      <c r="B12" s="3">
+        <v>9</v>
+      </c>
+      <c r="C12" s="3">
+        <v>9</v>
+      </c>
+      <c r="D12" s="3">
+        <v>9</v>
+      </c>
+      <c r="E12" s="3">
+        <v>9</v>
+      </c>
+      <c r="F12" s="3">
+        <v>9</v>
+      </c>
+      <c r="G12" s="3">
+        <v>9</v>
+      </c>
+      <c r="H12" s="3">
+        <v>9</v>
+      </c>
+      <c r="I12" s="3">
+        <v>9</v>
+      </c>
+      <c r="J12" s="3">
+        <v>9</v>
+      </c>
+      <c r="K12" s="3">
+        <v>9</v>
+      </c>
+      <c r="L12" s="3">
+        <v>9</v>
+      </c>
+      <c r="M12" s="3">
+        <v>9</v>
+      </c>
+      <c r="N12" s="3">
+        <v>9</v>
+      </c>
+      <c r="O12" s="3">
+        <v>9</v>
+      </c>
+      <c r="P12" s="3">
+        <v>9</v>
+      </c>
+      <c r="Q12" s="3">
+        <v>9</v>
+      </c>
+      <c r="R12" s="3">
+        <v>9</v>
+      </c>
+      <c r="S12" s="3">
+        <v>9</v>
+      </c>
+      <c r="T12" s="3">
+        <v>9</v>
+      </c>
+      <c r="U12" s="3">
+        <v>9</v>
+      </c>
+      <c r="V12" s="3">
+        <v>9</v>
+      </c>
+      <c r="W12" s="3">
+        <v>9</v>
+      </c>
+      <c r="X12" s="3">
+        <v>9</v>
+      </c>
     </row>
     <row r="13" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A13" t="s">
         <v>3</v>
       </c>
-      <c r="B13" s="6"/>
-      <c r="C13" s="7"/>
-      <c r="D13" s="7"/>
-      <c r="E13" s="7"/>
-      <c r="F13" s="7"/>
-      <c r="G13" s="7"/>
-      <c r="H13" s="7"/>
-      <c r="I13" s="7"/>
-      <c r="J13" s="7"/>
-      <c r="K13" s="7"/>
-      <c r="L13" s="7"/>
-      <c r="M13" s="7"/>
-      <c r="N13" s="7"/>
-      <c r="O13" s="7"/>
-      <c r="P13" s="7"/>
-      <c r="Q13" s="7"/>
-      <c r="R13" s="7"/>
-      <c r="S13" s="7"/>
-      <c r="T13" s="7"/>
-      <c r="U13" s="7"/>
-      <c r="V13" s="7"/>
-      <c r="W13" s="7"/>
-      <c r="X13" s="8"/>
+      <c r="B13" s="3">
+        <v>9</v>
+      </c>
+      <c r="C13" s="3">
+        <v>9</v>
+      </c>
+      <c r="D13" s="3">
+        <v>9</v>
+      </c>
+      <c r="E13" s="3">
+        <v>9</v>
+      </c>
+      <c r="F13" s="3">
+        <v>9</v>
+      </c>
+      <c r="G13" s="3">
+        <v>9</v>
+      </c>
+      <c r="H13" s="3">
+        <v>9</v>
+      </c>
+      <c r="I13" s="3">
+        <v>9</v>
+      </c>
+      <c r="J13" s="3">
+        <v>9</v>
+      </c>
+      <c r="K13" s="3">
+        <v>9</v>
+      </c>
+      <c r="L13" s="3">
+        <v>9</v>
+      </c>
+      <c r="M13" s="3">
+        <v>9</v>
+      </c>
+      <c r="N13" s="3">
+        <v>9</v>
+      </c>
+      <c r="O13" s="3">
+        <v>9</v>
+      </c>
+      <c r="P13" s="3">
+        <v>9</v>
+      </c>
+      <c r="Q13" s="3">
+        <v>9</v>
+      </c>
+      <c r="R13" s="3">
+        <v>9</v>
+      </c>
+      <c r="S13" s="3">
+        <v>9</v>
+      </c>
+      <c r="T13" s="3">
+        <v>9</v>
+      </c>
+      <c r="U13" s="3">
+        <v>9</v>
+      </c>
+      <c r="V13" s="3">
+        <v>9</v>
+      </c>
+      <c r="W13" s="3">
+        <v>9</v>
+      </c>
+      <c r="X13" s="3">
+        <v>9</v>
+      </c>
     </row>
     <row r="14" spans="1:24" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A14" t="s">
-        <v>4</v>
-      </c>
-      <c r="B14" s="9">
-        <f>SUM(B10:B13)</f>
-        <v>0</v>
-      </c>
-      <c r="C14" s="10">
-        <f t="shared" ref="C14:X14" si="1">SUM(C10:C13)</f>
-        <v>0</v>
-      </c>
-      <c r="D14" s="10">
+        <v>6</v>
+      </c>
+      <c r="B14" s="5">
+        <f>AVERAGE(B10:B13)</f>
+        <v>9</v>
+      </c>
+      <c r="C14" s="5">
+        <f t="shared" ref="C14:X14" si="1">AVERAGE(C10:C13)</f>
+        <v>9</v>
+      </c>
+      <c r="D14" s="5">
         <f t="shared" si="1"/>
-        <v>0</v>
-      </c>
-      <c r="E14" s="10">
+        <v>9</v>
+      </c>
+      <c r="E14" s="5">
         <f t="shared" si="1"/>
-        <v>0</v>
-      </c>
-      <c r="F14" s="10">
+        <v>9</v>
+      </c>
+      <c r="F14" s="5">
         <f t="shared" si="1"/>
-        <v>0</v>
-      </c>
-      <c r="G14" s="10">
+        <v>9</v>
+      </c>
+      <c r="G14" s="5">
         <f t="shared" si="1"/>
-        <v>0</v>
-      </c>
-      <c r="H14" s="10">
+        <v>9</v>
+      </c>
+      <c r="H14" s="5">
         <f t="shared" si="1"/>
-        <v>0</v>
-      </c>
-      <c r="I14" s="10">
+        <v>9</v>
+      </c>
+      <c r="I14" s="5">
         <f t="shared" si="1"/>
-        <v>0</v>
-      </c>
-      <c r="J14" s="10">
+        <v>9</v>
+      </c>
+      <c r="J14" s="5">
         <f t="shared" si="1"/>
-        <v>0</v>
-      </c>
-      <c r="K14" s="10">
+        <v>9</v>
+      </c>
+      <c r="K14" s="5">
         <f t="shared" si="1"/>
-        <v>0</v>
-      </c>
-      <c r="L14" s="10">
+        <v>9</v>
+      </c>
+      <c r="L14" s="5">
         <f t="shared" si="1"/>
-        <v>0</v>
-      </c>
-      <c r="M14" s="10">
+        <v>9</v>
+      </c>
+      <c r="M14" s="5">
         <f t="shared" si="1"/>
-        <v>0</v>
-      </c>
-      <c r="N14" s="10">
+        <v>9</v>
+      </c>
+      <c r="N14" s="5">
         <f t="shared" si="1"/>
-        <v>0</v>
-      </c>
-      <c r="O14" s="10">
+        <v>9</v>
+      </c>
+      <c r="O14" s="5">
         <f t="shared" si="1"/>
-        <v>0</v>
-      </c>
-      <c r="P14" s="10">
+        <v>9</v>
+      </c>
+      <c r="P14" s="5">
         <f t="shared" si="1"/>
-        <v>0</v>
-      </c>
-      <c r="Q14" s="10">
+        <v>9</v>
+      </c>
+      <c r="Q14" s="5">
         <f t="shared" si="1"/>
-        <v>0</v>
-      </c>
-      <c r="R14" s="10">
+        <v>9</v>
+      </c>
+      <c r="R14" s="5">
         <f t="shared" si="1"/>
-        <v>0</v>
-      </c>
-      <c r="S14" s="10">
+        <v>9</v>
+      </c>
+      <c r="S14" s="5">
         <f t="shared" si="1"/>
-        <v>0</v>
-      </c>
-      <c r="T14" s="10">
+        <v>9</v>
+      </c>
+      <c r="T14" s="5">
         <f t="shared" si="1"/>
-        <v>0</v>
-      </c>
-      <c r="U14" s="10">
+        <v>9</v>
+      </c>
+      <c r="U14" s="5">
         <f t="shared" si="1"/>
-        <v>0</v>
-      </c>
-      <c r="V14" s="10">
+        <v>9</v>
+      </c>
+      <c r="V14" s="5">
         <f t="shared" si="1"/>
-        <v>0</v>
-      </c>
-      <c r="W14" s="10">
+        <v>9</v>
+      </c>
+      <c r="W14" s="5">
         <f t="shared" si="1"/>
-        <v>0</v>
-      </c>
-      <c r="X14" s="11">
+        <v>9</v>
+      </c>
+      <c r="X14" s="5">
         <f t="shared" si="1"/>
-        <v>0</v>
+        <v>9</v>
       </c>
     </row>
     <row r="15" spans="1:24" x14ac:dyDescent="0.25">
@@ -2329,6 +2810,9 @@
       <c r="X15" s="2"/>
     </row>
     <row r="16" spans="1:24" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A16" t="s">
+        <v>10</v>
+      </c>
       <c r="B16" s="2"/>
       <c r="C16" s="2"/>
       <c r="D16" s="2"/>
@@ -2353,213 +2837,397 @@
       <c r="W16" s="2"/>
       <c r="X16" s="2"/>
     </row>
-    <row r="17" spans="1:24" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:24" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A17" t="s">
         <v>0</v>
       </c>
-      <c r="B17" s="3"/>
-      <c r="C17" s="4"/>
-      <c r="D17" s="4"/>
-      <c r="E17" s="4"/>
-      <c r="F17" s="4"/>
-      <c r="G17" s="4"/>
-      <c r="H17" s="4"/>
-      <c r="I17" s="4"/>
-      <c r="J17" s="4"/>
-      <c r="K17" s="4"/>
-      <c r="L17" s="4"/>
-      <c r="M17" s="4"/>
-      <c r="N17" s="4"/>
-      <c r="O17" s="4"/>
-      <c r="P17" s="4"/>
-      <c r="Q17" s="4"/>
-      <c r="R17" s="4"/>
-      <c r="S17" s="4"/>
-      <c r="T17" s="4"/>
-      <c r="U17" s="4"/>
-      <c r="V17" s="4"/>
-      <c r="W17" s="4"/>
-      <c r="X17" s="5"/>
+      <c r="B17" s="3">
+        <v>8</v>
+      </c>
+      <c r="C17" s="3">
+        <v>8</v>
+      </c>
+      <c r="D17" s="3">
+        <v>8</v>
+      </c>
+      <c r="E17" s="3">
+        <v>8</v>
+      </c>
+      <c r="F17" s="3">
+        <v>8</v>
+      </c>
+      <c r="G17" s="3">
+        <v>8</v>
+      </c>
+      <c r="H17" s="3">
+        <v>8</v>
+      </c>
+      <c r="I17" s="3">
+        <v>8</v>
+      </c>
+      <c r="J17" s="3">
+        <v>8</v>
+      </c>
+      <c r="K17" s="3">
+        <v>8</v>
+      </c>
+      <c r="L17" s="3">
+        <v>8</v>
+      </c>
+      <c r="M17" s="3">
+        <v>8</v>
+      </c>
+      <c r="N17" s="3">
+        <v>8</v>
+      </c>
+      <c r="O17" s="3">
+        <v>8</v>
+      </c>
+      <c r="P17" s="3">
+        <v>8</v>
+      </c>
+      <c r="Q17" s="3">
+        <v>8</v>
+      </c>
+      <c r="R17" s="3">
+        <v>8</v>
+      </c>
+      <c r="S17" s="3">
+        <v>8</v>
+      </c>
+      <c r="T17" s="3">
+        <v>8</v>
+      </c>
+      <c r="U17" s="3">
+        <v>8</v>
+      </c>
+      <c r="V17" s="3">
+        <v>8</v>
+      </c>
+      <c r="W17" s="3">
+        <v>8</v>
+      </c>
+      <c r="X17" s="3">
+        <v>8</v>
+      </c>
     </row>
-    <row r="18" spans="1:24" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:24" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A18" t="s">
         <v>1</v>
       </c>
-      <c r="B18" s="6"/>
-      <c r="C18" s="7"/>
-      <c r="D18" s="7"/>
-      <c r="E18" s="7"/>
-      <c r="F18" s="7"/>
-      <c r="G18" s="7"/>
-      <c r="H18" s="7"/>
-      <c r="I18" s="7"/>
-      <c r="J18" s="7"/>
-      <c r="K18" s="7"/>
-      <c r="L18" s="7"/>
-      <c r="M18" s="7"/>
-      <c r="N18" s="7"/>
-      <c r="O18" s="7"/>
-      <c r="P18" s="7"/>
-      <c r="Q18" s="7"/>
-      <c r="R18" s="7"/>
-      <c r="S18" s="7"/>
-      <c r="T18" s="7"/>
-      <c r="U18" s="7"/>
-      <c r="V18" s="7"/>
-      <c r="W18" s="7"/>
-      <c r="X18" s="8"/>
+      <c r="B18" s="3">
+        <v>8</v>
+      </c>
+      <c r="C18" s="3">
+        <v>8</v>
+      </c>
+      <c r="D18" s="3">
+        <v>8</v>
+      </c>
+      <c r="E18" s="3">
+        <v>8</v>
+      </c>
+      <c r="F18" s="3">
+        <v>8</v>
+      </c>
+      <c r="G18" s="3">
+        <v>8</v>
+      </c>
+      <c r="H18" s="3">
+        <v>8</v>
+      </c>
+      <c r="I18" s="3">
+        <v>8</v>
+      </c>
+      <c r="J18" s="3">
+        <v>8</v>
+      </c>
+      <c r="K18" s="3">
+        <v>8</v>
+      </c>
+      <c r="L18" s="3">
+        <v>8</v>
+      </c>
+      <c r="M18" s="3">
+        <v>8</v>
+      </c>
+      <c r="N18" s="3">
+        <v>8</v>
+      </c>
+      <c r="O18" s="3">
+        <v>8</v>
+      </c>
+      <c r="P18" s="3">
+        <v>8</v>
+      </c>
+      <c r="Q18" s="3">
+        <v>8</v>
+      </c>
+      <c r="R18" s="3">
+        <v>8</v>
+      </c>
+      <c r="S18" s="3">
+        <v>8</v>
+      </c>
+      <c r="T18" s="3">
+        <v>8</v>
+      </c>
+      <c r="U18" s="3">
+        <v>8</v>
+      </c>
+      <c r="V18" s="3">
+        <v>8</v>
+      </c>
+      <c r="W18" s="3">
+        <v>8</v>
+      </c>
+      <c r="X18" s="3">
+        <v>8</v>
+      </c>
     </row>
-    <row r="19" spans="1:24" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:24" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A19" t="s">
         <v>2</v>
       </c>
-      <c r="B19" s="6"/>
-      <c r="C19" s="7"/>
-      <c r="D19" s="7"/>
-      <c r="E19" s="7"/>
-      <c r="F19" s="7"/>
-      <c r="G19" s="7"/>
-      <c r="H19" s="7"/>
-      <c r="I19" s="7"/>
-      <c r="J19" s="7"/>
-      <c r="K19" s="7"/>
-      <c r="L19" s="7"/>
-      <c r="M19" s="7"/>
-      <c r="N19" s="7"/>
-      <c r="O19" s="7"/>
-      <c r="P19" s="7"/>
-      <c r="Q19" s="7"/>
-      <c r="R19" s="7"/>
-      <c r="S19" s="7"/>
-      <c r="T19" s="7"/>
-      <c r="U19" s="7"/>
-      <c r="V19" s="7"/>
-      <c r="W19" s="7"/>
-      <c r="X19" s="8"/>
+      <c r="B19" s="3">
+        <v>8</v>
+      </c>
+      <c r="C19" s="3">
+        <v>8</v>
+      </c>
+      <c r="D19" s="3">
+        <v>8</v>
+      </c>
+      <c r="E19" s="3">
+        <v>8</v>
+      </c>
+      <c r="F19" s="3">
+        <v>8</v>
+      </c>
+      <c r="G19" s="3">
+        <v>8</v>
+      </c>
+      <c r="H19" s="3">
+        <v>8</v>
+      </c>
+      <c r="I19" s="3">
+        <v>8</v>
+      </c>
+      <c r="J19" s="3">
+        <v>8</v>
+      </c>
+      <c r="K19" s="3">
+        <v>8</v>
+      </c>
+      <c r="L19" s="3">
+        <v>8</v>
+      </c>
+      <c r="M19" s="3">
+        <v>8</v>
+      </c>
+      <c r="N19" s="3">
+        <v>8</v>
+      </c>
+      <c r="O19" s="3">
+        <v>8</v>
+      </c>
+      <c r="P19" s="3">
+        <v>8</v>
+      </c>
+      <c r="Q19" s="3">
+        <v>8</v>
+      </c>
+      <c r="R19" s="3">
+        <v>8</v>
+      </c>
+      <c r="S19" s="3">
+        <v>8</v>
+      </c>
+      <c r="T19" s="3">
+        <v>8</v>
+      </c>
+      <c r="U19" s="3">
+        <v>8</v>
+      </c>
+      <c r="V19" s="3">
+        <v>8</v>
+      </c>
+      <c r="W19" s="3">
+        <v>8</v>
+      </c>
+      <c r="X19" s="3">
+        <v>8</v>
+      </c>
     </row>
     <row r="20" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A20" t="s">
         <v>3</v>
       </c>
-      <c r="B20" s="6"/>
-      <c r="C20" s="7"/>
-      <c r="D20" s="7"/>
-      <c r="E20" s="7"/>
-      <c r="F20" s="7"/>
-      <c r="G20" s="7"/>
-      <c r="H20" s="7"/>
-      <c r="I20" s="7"/>
-      <c r="J20" s="7"/>
-      <c r="K20" s="7"/>
-      <c r="L20" s="7"/>
-      <c r="M20" s="7"/>
-      <c r="N20" s="7"/>
-      <c r="O20" s="7"/>
-      <c r="P20" s="7"/>
-      <c r="Q20" s="7"/>
-      <c r="R20" s="7"/>
-      <c r="S20" s="7"/>
-      <c r="T20" s="7"/>
-      <c r="U20" s="7"/>
-      <c r="V20" s="7"/>
-      <c r="W20" s="7"/>
-      <c r="X20" s="8"/>
+      <c r="B20" s="3">
+        <v>8</v>
+      </c>
+      <c r="C20" s="3">
+        <v>8</v>
+      </c>
+      <c r="D20" s="3">
+        <v>8</v>
+      </c>
+      <c r="E20" s="3">
+        <v>8</v>
+      </c>
+      <c r="F20" s="3">
+        <v>8</v>
+      </c>
+      <c r="G20" s="3">
+        <v>8</v>
+      </c>
+      <c r="H20" s="3">
+        <v>8</v>
+      </c>
+      <c r="I20" s="3">
+        <v>8</v>
+      </c>
+      <c r="J20" s="3">
+        <v>8</v>
+      </c>
+      <c r="K20" s="3">
+        <v>8</v>
+      </c>
+      <c r="L20" s="3">
+        <v>8</v>
+      </c>
+      <c r="M20" s="3">
+        <v>8</v>
+      </c>
+      <c r="N20" s="3">
+        <v>8</v>
+      </c>
+      <c r="O20" s="3">
+        <v>8</v>
+      </c>
+      <c r="P20" s="3">
+        <v>8</v>
+      </c>
+      <c r="Q20" s="3">
+        <v>8</v>
+      </c>
+      <c r="R20" s="3">
+        <v>8</v>
+      </c>
+      <c r="S20" s="3">
+        <v>8</v>
+      </c>
+      <c r="T20" s="3">
+        <v>8</v>
+      </c>
+      <c r="U20" s="3">
+        <v>8</v>
+      </c>
+      <c r="V20" s="3">
+        <v>8</v>
+      </c>
+      <c r="W20" s="3">
+        <v>8</v>
+      </c>
+      <c r="X20" s="3">
+        <v>8</v>
+      </c>
     </row>
     <row r="21" spans="1:24" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A21" t="s">
-        <v>4</v>
-      </c>
-      <c r="B21" s="9">
-        <f>SUM(B17:B20)</f>
-        <v>0</v>
-      </c>
-      <c r="C21" s="10">
-        <f t="shared" ref="C21:X21" si="2">SUM(C17:C20)</f>
-        <v>0</v>
-      </c>
-      <c r="D21" s="10">
+        <v>7</v>
+      </c>
+      <c r="B21" s="5">
+        <f>AVERAGE(B17:B20)</f>
+        <v>8</v>
+      </c>
+      <c r="C21" s="5">
+        <f t="shared" ref="C21:X21" si="2">AVERAGE(C17:C20)</f>
+        <v>8</v>
+      </c>
+      <c r="D21" s="5">
         <f t="shared" si="2"/>
-        <v>0</v>
-      </c>
-      <c r="E21" s="10">
+        <v>8</v>
+      </c>
+      <c r="E21" s="5">
         <f t="shared" si="2"/>
-        <v>0</v>
-      </c>
-      <c r="F21" s="10">
+        <v>8</v>
+      </c>
+      <c r="F21" s="5">
         <f t="shared" si="2"/>
-        <v>0</v>
-      </c>
-      <c r="G21" s="10">
+        <v>8</v>
+      </c>
+      <c r="G21" s="5">
         <f t="shared" si="2"/>
-        <v>0</v>
-      </c>
-      <c r="H21" s="10">
+        <v>8</v>
+      </c>
+      <c r="H21" s="5">
         <f t="shared" si="2"/>
-        <v>0</v>
-      </c>
-      <c r="I21" s="10">
+        <v>8</v>
+      </c>
+      <c r="I21" s="5">
         <f t="shared" si="2"/>
-        <v>0</v>
-      </c>
-      <c r="J21" s="10">
+        <v>8</v>
+      </c>
+      <c r="J21" s="5">
         <f t="shared" si="2"/>
-        <v>0</v>
-      </c>
-      <c r="K21" s="10">
+        <v>8</v>
+      </c>
+      <c r="K21" s="5">
         <f t="shared" si="2"/>
-        <v>0</v>
-      </c>
-      <c r="L21" s="10">
+        <v>8</v>
+      </c>
+      <c r="L21" s="5">
         <f t="shared" si="2"/>
-        <v>0</v>
-      </c>
-      <c r="M21" s="10">
+        <v>8</v>
+      </c>
+      <c r="M21" s="5">
         <f t="shared" si="2"/>
-        <v>0</v>
-      </c>
-      <c r="N21" s="10">
+        <v>8</v>
+      </c>
+      <c r="N21" s="5">
         <f t="shared" si="2"/>
-        <v>0</v>
-      </c>
-      <c r="O21" s="10">
+        <v>8</v>
+      </c>
+      <c r="O21" s="5">
         <f t="shared" si="2"/>
-        <v>0</v>
-      </c>
-      <c r="P21" s="10">
+        <v>8</v>
+      </c>
+      <c r="P21" s="5">
         <f t="shared" si="2"/>
-        <v>0</v>
-      </c>
-      <c r="Q21" s="10">
+        <v>8</v>
+      </c>
+      <c r="Q21" s="5">
         <f t="shared" si="2"/>
-        <v>0</v>
-      </c>
-      <c r="R21" s="10">
+        <v>8</v>
+      </c>
+      <c r="R21" s="5">
         <f t="shared" si="2"/>
-        <v>0</v>
-      </c>
-      <c r="S21" s="10">
+        <v>8</v>
+      </c>
+      <c r="S21" s="5">
         <f t="shared" si="2"/>
-        <v>0</v>
-      </c>
-      <c r="T21" s="10">
+        <v>8</v>
+      </c>
+      <c r="T21" s="5">
         <f t="shared" si="2"/>
-        <v>0</v>
-      </c>
-      <c r="U21" s="10">
+        <v>8</v>
+      </c>
+      <c r="U21" s="5">
         <f t="shared" si="2"/>
-        <v>0</v>
-      </c>
-      <c r="V21" s="10">
+        <v>8</v>
+      </c>
+      <c r="V21" s="5">
         <f t="shared" si="2"/>
-        <v>0</v>
-      </c>
-      <c r="W21" s="10">
+        <v>8</v>
+      </c>
+      <c r="W21" s="5">
         <f t="shared" si="2"/>
-        <v>0</v>
-      </c>
-      <c r="X21" s="11">
+        <v>8</v>
+      </c>
+      <c r="X21" s="5">
         <f t="shared" si="2"/>
-        <v>0</v>
+        <v>8</v>
       </c>
     </row>
     <row r="22" spans="1:24" x14ac:dyDescent="0.25">
@@ -2588,6 +3256,9 @@
       <c r="X22" s="2"/>
     </row>
     <row r="23" spans="1:24" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A23" t="s">
+        <v>11</v>
+      </c>
       <c r="B23" s="2"/>
       <c r="C23" s="2"/>
       <c r="D23" s="2"/>
@@ -2612,213 +3283,397 @@
       <c r="W23" s="2"/>
       <c r="X23" s="2"/>
     </row>
-    <row r="24" spans="1:24" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:24" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A24" t="s">
         <v>0</v>
       </c>
-      <c r="B24" s="3"/>
-      <c r="C24" s="4"/>
-      <c r="D24" s="4"/>
-      <c r="E24" s="4"/>
-      <c r="F24" s="4"/>
-      <c r="G24" s="4"/>
-      <c r="H24" s="4"/>
-      <c r="I24" s="4"/>
-      <c r="J24" s="4"/>
-      <c r="K24" s="4"/>
-      <c r="L24" s="4"/>
-      <c r="M24" s="4"/>
-      <c r="N24" s="4"/>
-      <c r="O24" s="4"/>
-      <c r="P24" s="4"/>
-      <c r="Q24" s="4"/>
-      <c r="R24" s="4"/>
-      <c r="S24" s="4"/>
-      <c r="T24" s="4"/>
-      <c r="U24" s="4"/>
-      <c r="V24" s="4"/>
-      <c r="W24" s="4"/>
-      <c r="X24" s="5"/>
+      <c r="B24" s="3">
+        <v>7</v>
+      </c>
+      <c r="C24" s="3">
+        <v>7</v>
+      </c>
+      <c r="D24" s="3">
+        <v>7</v>
+      </c>
+      <c r="E24" s="3">
+        <v>7</v>
+      </c>
+      <c r="F24" s="3">
+        <v>7</v>
+      </c>
+      <c r="G24" s="3">
+        <v>7</v>
+      </c>
+      <c r="H24" s="3">
+        <v>7</v>
+      </c>
+      <c r="I24" s="3">
+        <v>7</v>
+      </c>
+      <c r="J24" s="3">
+        <v>7</v>
+      </c>
+      <c r="K24" s="3">
+        <v>7</v>
+      </c>
+      <c r="L24" s="3">
+        <v>7</v>
+      </c>
+      <c r="M24" s="3">
+        <v>7</v>
+      </c>
+      <c r="N24" s="3">
+        <v>7</v>
+      </c>
+      <c r="O24" s="3">
+        <v>7</v>
+      </c>
+      <c r="P24" s="3">
+        <v>7</v>
+      </c>
+      <c r="Q24" s="3">
+        <v>7</v>
+      </c>
+      <c r="R24" s="3">
+        <v>7</v>
+      </c>
+      <c r="S24" s="3">
+        <v>7</v>
+      </c>
+      <c r="T24" s="3">
+        <v>7</v>
+      </c>
+      <c r="U24" s="3">
+        <v>7</v>
+      </c>
+      <c r="V24" s="3">
+        <v>7</v>
+      </c>
+      <c r="W24" s="3">
+        <v>7</v>
+      </c>
+      <c r="X24" s="3">
+        <v>7</v>
+      </c>
     </row>
-    <row r="25" spans="1:24" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:24" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A25" t="s">
         <v>1</v>
       </c>
-      <c r="B25" s="6"/>
-      <c r="C25" s="7"/>
-      <c r="D25" s="7"/>
-      <c r="E25" s="7"/>
-      <c r="F25" s="7"/>
-      <c r="G25" s="7"/>
-      <c r="H25" s="7"/>
-      <c r="I25" s="7"/>
-      <c r="J25" s="7"/>
-      <c r="K25" s="7"/>
-      <c r="L25" s="7"/>
-      <c r="M25" s="7"/>
-      <c r="N25" s="7"/>
-      <c r="O25" s="7"/>
-      <c r="P25" s="7"/>
-      <c r="Q25" s="7"/>
-      <c r="R25" s="7"/>
-      <c r="S25" s="7"/>
-      <c r="T25" s="7"/>
-      <c r="U25" s="7"/>
-      <c r="V25" s="7"/>
-      <c r="W25" s="7"/>
-      <c r="X25" s="8"/>
+      <c r="B25" s="3">
+        <v>7</v>
+      </c>
+      <c r="C25" s="3">
+        <v>7</v>
+      </c>
+      <c r="D25" s="3">
+        <v>7</v>
+      </c>
+      <c r="E25" s="3">
+        <v>7</v>
+      </c>
+      <c r="F25" s="3">
+        <v>7</v>
+      </c>
+      <c r="G25" s="3">
+        <v>7</v>
+      </c>
+      <c r="H25" s="3">
+        <v>7</v>
+      </c>
+      <c r="I25" s="3">
+        <v>7</v>
+      </c>
+      <c r="J25" s="3">
+        <v>7</v>
+      </c>
+      <c r="K25" s="3">
+        <v>7</v>
+      </c>
+      <c r="L25" s="3">
+        <v>7</v>
+      </c>
+      <c r="M25" s="3">
+        <v>7</v>
+      </c>
+      <c r="N25" s="3">
+        <v>7</v>
+      </c>
+      <c r="O25" s="3">
+        <v>7</v>
+      </c>
+      <c r="P25" s="3">
+        <v>7</v>
+      </c>
+      <c r="Q25" s="3">
+        <v>7</v>
+      </c>
+      <c r="R25" s="3">
+        <v>7</v>
+      </c>
+      <c r="S25" s="3">
+        <v>7</v>
+      </c>
+      <c r="T25" s="3">
+        <v>7</v>
+      </c>
+      <c r="U25" s="3">
+        <v>7</v>
+      </c>
+      <c r="V25" s="3">
+        <v>7</v>
+      </c>
+      <c r="W25" s="3">
+        <v>7</v>
+      </c>
+      <c r="X25" s="3">
+        <v>7</v>
+      </c>
     </row>
-    <row r="26" spans="1:24" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:24" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A26" t="s">
         <v>2</v>
       </c>
-      <c r="B26" s="6"/>
-      <c r="C26" s="7"/>
-      <c r="D26" s="7"/>
-      <c r="E26" s="7"/>
-      <c r="F26" s="7"/>
-      <c r="G26" s="7"/>
-      <c r="H26" s="7"/>
-      <c r="I26" s="7"/>
-      <c r="J26" s="7"/>
-      <c r="K26" s="7"/>
-      <c r="L26" s="7"/>
-      <c r="M26" s="7"/>
-      <c r="N26" s="7"/>
-      <c r="O26" s="7"/>
-      <c r="P26" s="7"/>
-      <c r="Q26" s="7"/>
-      <c r="R26" s="7"/>
-      <c r="S26" s="7"/>
-      <c r="T26" s="7"/>
-      <c r="U26" s="7"/>
-      <c r="V26" s="7"/>
-      <c r="W26" s="7"/>
-      <c r="X26" s="8"/>
+      <c r="B26" s="3">
+        <v>7</v>
+      </c>
+      <c r="C26" s="3">
+        <v>7</v>
+      </c>
+      <c r="D26" s="3">
+        <v>7</v>
+      </c>
+      <c r="E26" s="3">
+        <v>7</v>
+      </c>
+      <c r="F26" s="3">
+        <v>7</v>
+      </c>
+      <c r="G26" s="3">
+        <v>7</v>
+      </c>
+      <c r="H26" s="3">
+        <v>7</v>
+      </c>
+      <c r="I26" s="3">
+        <v>7</v>
+      </c>
+      <c r="J26" s="3">
+        <v>7</v>
+      </c>
+      <c r="K26" s="3">
+        <v>7</v>
+      </c>
+      <c r="L26" s="3">
+        <v>7</v>
+      </c>
+      <c r="M26" s="3">
+        <v>7</v>
+      </c>
+      <c r="N26" s="3">
+        <v>7</v>
+      </c>
+      <c r="O26" s="3">
+        <v>7</v>
+      </c>
+      <c r="P26" s="3">
+        <v>7</v>
+      </c>
+      <c r="Q26" s="3">
+        <v>7</v>
+      </c>
+      <c r="R26" s="3">
+        <v>7</v>
+      </c>
+      <c r="S26" s="3">
+        <v>7</v>
+      </c>
+      <c r="T26" s="3">
+        <v>7</v>
+      </c>
+      <c r="U26" s="3">
+        <v>7</v>
+      </c>
+      <c r="V26" s="3">
+        <v>7</v>
+      </c>
+      <c r="W26" s="3">
+        <v>7</v>
+      </c>
+      <c r="X26" s="3">
+        <v>7</v>
+      </c>
     </row>
     <row r="27" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A27" t="s">
         <v>3</v>
       </c>
-      <c r="B27" s="6"/>
-      <c r="C27" s="7"/>
-      <c r="D27" s="7"/>
-      <c r="E27" s="7"/>
-      <c r="F27" s="7"/>
-      <c r="G27" s="7"/>
-      <c r="H27" s="7"/>
-      <c r="I27" s="7"/>
-      <c r="J27" s="7"/>
-      <c r="K27" s="7"/>
-      <c r="L27" s="7"/>
-      <c r="M27" s="7"/>
-      <c r="N27" s="7"/>
-      <c r="O27" s="7"/>
-      <c r="P27" s="7"/>
-      <c r="Q27" s="7"/>
-      <c r="R27" s="7"/>
-      <c r="S27" s="7"/>
-      <c r="T27" s="7"/>
-      <c r="U27" s="7"/>
-      <c r="V27" s="7"/>
-      <c r="W27" s="7"/>
-      <c r="X27" s="8"/>
+      <c r="B27" s="3">
+        <v>7</v>
+      </c>
+      <c r="C27" s="3">
+        <v>7</v>
+      </c>
+      <c r="D27" s="3">
+        <v>7</v>
+      </c>
+      <c r="E27" s="3">
+        <v>7</v>
+      </c>
+      <c r="F27" s="3">
+        <v>7</v>
+      </c>
+      <c r="G27" s="3">
+        <v>7</v>
+      </c>
+      <c r="H27" s="3">
+        <v>7</v>
+      </c>
+      <c r="I27" s="3">
+        <v>7</v>
+      </c>
+      <c r="J27" s="3">
+        <v>7</v>
+      </c>
+      <c r="K27" s="3">
+        <v>7</v>
+      </c>
+      <c r="L27" s="3">
+        <v>7</v>
+      </c>
+      <c r="M27" s="3">
+        <v>7</v>
+      </c>
+      <c r="N27" s="3">
+        <v>7</v>
+      </c>
+      <c r="O27" s="3">
+        <v>7</v>
+      </c>
+      <c r="P27" s="3">
+        <v>7</v>
+      </c>
+      <c r="Q27" s="3">
+        <v>7</v>
+      </c>
+      <c r="R27" s="3">
+        <v>7</v>
+      </c>
+      <c r="S27" s="3">
+        <v>7</v>
+      </c>
+      <c r="T27" s="3">
+        <v>7</v>
+      </c>
+      <c r="U27" s="3">
+        <v>7</v>
+      </c>
+      <c r="V27" s="3">
+        <v>7</v>
+      </c>
+      <c r="W27" s="3">
+        <v>7</v>
+      </c>
+      <c r="X27" s="3">
+        <v>7</v>
+      </c>
     </row>
     <row r="28" spans="1:24" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A28" t="s">
-        <v>4</v>
-      </c>
-      <c r="B28" s="9">
-        <f>SUM(B24:B27)</f>
-        <v>0</v>
-      </c>
-      <c r="C28" s="10">
-        <f t="shared" ref="C28:X28" si="3">SUM(C24:C27)</f>
-        <v>0</v>
-      </c>
-      <c r="D28" s="10">
+        <v>8</v>
+      </c>
+      <c r="B28" s="5">
+        <f>AVERAGE(B24:B27)</f>
+        <v>7</v>
+      </c>
+      <c r="C28" s="5">
+        <f t="shared" ref="C28:X28" si="3">AVERAGE(C24:C27)</f>
+        <v>7</v>
+      </c>
+      <c r="D28" s="5">
         <f t="shared" si="3"/>
-        <v>0</v>
-      </c>
-      <c r="E28" s="10">
+        <v>7</v>
+      </c>
+      <c r="E28" s="5">
         <f t="shared" si="3"/>
-        <v>0</v>
-      </c>
-      <c r="F28" s="10">
+        <v>7</v>
+      </c>
+      <c r="F28" s="5">
         <f t="shared" si="3"/>
-        <v>0</v>
-      </c>
-      <c r="G28" s="10">
+        <v>7</v>
+      </c>
+      <c r="G28" s="5">
         <f t="shared" si="3"/>
-        <v>0</v>
-      </c>
-      <c r="H28" s="10">
+        <v>7</v>
+      </c>
+      <c r="H28" s="5">
         <f t="shared" si="3"/>
-        <v>0</v>
-      </c>
-      <c r="I28" s="10">
+        <v>7</v>
+      </c>
+      <c r="I28" s="5">
         <f t="shared" si="3"/>
-        <v>0</v>
-      </c>
-      <c r="J28" s="10">
+        <v>7</v>
+      </c>
+      <c r="J28" s="5">
         <f t="shared" si="3"/>
-        <v>0</v>
-      </c>
-      <c r="K28" s="10">
+        <v>7</v>
+      </c>
+      <c r="K28" s="5">
         <f t="shared" si="3"/>
-        <v>0</v>
-      </c>
-      <c r="L28" s="10">
+        <v>7</v>
+      </c>
+      <c r="L28" s="5">
         <f t="shared" si="3"/>
-        <v>0</v>
-      </c>
-      <c r="M28" s="10">
+        <v>7</v>
+      </c>
+      <c r="M28" s="5">
         <f t="shared" si="3"/>
-        <v>0</v>
-      </c>
-      <c r="N28" s="10">
+        <v>7</v>
+      </c>
+      <c r="N28" s="5">
         <f t="shared" si="3"/>
-        <v>0</v>
-      </c>
-      <c r="O28" s="10">
+        <v>7</v>
+      </c>
+      <c r="O28" s="5">
         <f t="shared" si="3"/>
-        <v>0</v>
-      </c>
-      <c r="P28" s="10">
+        <v>7</v>
+      </c>
+      <c r="P28" s="5">
         <f t="shared" si="3"/>
-        <v>0</v>
-      </c>
-      <c r="Q28" s="10">
+        <v>7</v>
+      </c>
+      <c r="Q28" s="5">
         <f t="shared" si="3"/>
-        <v>0</v>
-      </c>
-      <c r="R28" s="10">
+        <v>7</v>
+      </c>
+      <c r="R28" s="5">
         <f t="shared" si="3"/>
-        <v>0</v>
-      </c>
-      <c r="S28" s="10">
+        <v>7</v>
+      </c>
+      <c r="S28" s="5">
         <f t="shared" si="3"/>
-        <v>0</v>
-      </c>
-      <c r="T28" s="10">
+        <v>7</v>
+      </c>
+      <c r="T28" s="5">
         <f t="shared" si="3"/>
-        <v>0</v>
-      </c>
-      <c r="U28" s="10">
+        <v>7</v>
+      </c>
+      <c r="U28" s="5">
         <f t="shared" si="3"/>
-        <v>0</v>
-      </c>
-      <c r="V28" s="10">
+        <v>7</v>
+      </c>
+      <c r="V28" s="5">
         <f t="shared" si="3"/>
-        <v>0</v>
-      </c>
-      <c r="W28" s="10">
+        <v>7</v>
+      </c>
+      <c r="W28" s="5">
         <f t="shared" si="3"/>
-        <v>0</v>
-      </c>
-      <c r="X28" s="11">
+        <v>7</v>
+      </c>
+      <c r="X28" s="5">
         <f t="shared" si="3"/>
-        <v>0</v>
+        <v>7</v>
       </c>
     </row>
   </sheetData>

--- a/20-11-23_Statusbericht/20-11-20_Barometer.xlsx
+++ b/20-11-23_Statusbericht/20-11-20_Barometer.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Philipp\Documents\GitHub\bachelorprojekt2020\20-11-23_Statusbericht\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{FA0EEF39-8B6E-41C9-BFBC-2E66C0FC2450}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{EF924649-FDE6-45A6-8A5F-BDB7EB33E358}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="25440" windowHeight="15390" xr2:uid="{BDADFF32-FBD9-4DE5-B950-468D92E439C4}"/>
   </bookViews>
@@ -34,7 +34,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="24" uniqueCount="12">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="20" uniqueCount="8">
   <si>
     <t>Marc</t>
   </si>
@@ -49,18 +49,6 @@
   </si>
   <si>
     <t>Motivation:</t>
-  </si>
-  <si>
-    <t>Teammotivation</t>
-  </si>
-  <si>
-    <t>Zielausrichtung</t>
-  </si>
-  <si>
-    <t>AG-Einbindung</t>
-  </si>
-  <si>
-    <t>Arbeitsfortschritt</t>
   </si>
   <si>
     <t>Zielausrichtung:</t>
@@ -85,7 +73,7 @@
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="3">
+  <fills count="8">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -98,8 +86,38 @@
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.79998168889431442"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.59999389629810485"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.39997558519241921"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.39997558519241921"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.59999389629810485"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
   </fills>
-  <borders count="4">
+  <borders count="11">
     <border>
       <left/>
       <right/>
@@ -152,17 +170,128 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left style="medium">
+        <color indexed="64"/>
+      </left>
+      <right style="medium">
+        <color indexed="64"/>
+      </right>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color indexed="64"/>
+      </left>
+      <right style="medium">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color indexed="64"/>
+      </left>
+      <right style="medium">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="6">
+  <cellXfs count="18">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="16" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="2" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="3" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="4" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="6" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="3" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="5" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="8" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="9" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="10" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="7" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="7" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="7" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="7" borderId="7" xfId="0" applyFill="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Standard" xfId="0" builtinId="0"/>
@@ -259,15 +388,7 @@
           <c:idx val="0"/>
           <c:order val="0"/>
           <c:tx>
-            <c:strRef>
-              <c:f>Tabelle1!$A$7</c:f>
-              <c:strCache>
-                <c:ptCount val="1"/>
-                <c:pt idx="0">
-                  <c:v>Teammotivation</c:v>
-                </c:pt>
-              </c:strCache>
-            </c:strRef>
+            <c:v>Motivation</c:v>
           </c:tx>
           <c:spPr>
             <a:ln w="28575" cap="rnd">
@@ -283,10 +404,17 @@
           </c:marker>
           <c:cat>
             <c:numRef>
-              <c:f>Tabelle1!$B$1:$X$1</c:f>
+              <c:extLst>
+                <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{02D57815-91ED-43cb-92C2-25804820EDAC}">
+                  <c15:fullRef>
+                    <c15:sqref>Tabelle1!$1:$1</c15:sqref>
+                  </c15:fullRef>
+                </c:ext>
+              </c:extLst>
+              <c:f>Tabelle1!$B$1:$XFD$1</c:f>
               <c:numCache>
                 <c:formatCode>d\-mmm</c:formatCode>
-                <c:ptCount val="23"/>
+                <c:ptCount val="16381"/>
                 <c:pt idx="0">
                   <c:v>44126</c:v>
                 </c:pt>
@@ -361,12 +489,19 @@
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>Tabelle1!$A$7:$W$7</c:f>
+              <c:extLst>
+                <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{02D57815-91ED-43cb-92C2-25804820EDAC}">
+                  <c15:fullRef>
+                    <c15:sqref>Tabelle1!$7:$7</c15:sqref>
+                  </c15:fullRef>
+                </c:ext>
+              </c:extLst>
+              <c:f>Tabelle1!$B$7:$XFD$7</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
-                <c:ptCount val="23"/>
+                <c:ptCount val="16381"/>
                 <c:pt idx="0">
-                  <c:v>0</c:v>
+                  <c:v>10</c:v>
                 </c:pt>
                 <c:pt idx="1">
                   <c:v>10</c:v>
@@ -462,14 +597,106 @@
           <c:marker>
             <c:symbol val="none"/>
           </c:marker>
+          <c:cat>
+            <c:numRef>
+              <c:extLst>
+                <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{02D57815-91ED-43cb-92C2-25804820EDAC}">
+                  <c15:fullRef>
+                    <c15:sqref>Tabelle1!$1:$1</c15:sqref>
+                  </c15:fullRef>
+                </c:ext>
+              </c:extLst>
+              <c:f>Tabelle1!$B$1:$XFD$1</c:f>
+              <c:numCache>
+                <c:formatCode>d\-mmm</c:formatCode>
+                <c:ptCount val="16381"/>
+                <c:pt idx="0">
+                  <c:v>44126</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>44133</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>44140</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>44147</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>44154</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>44161</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>44168</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>44175</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>44182</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>44189</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>44196</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>44203</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>44210</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>44217</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>44224</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>44231</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>44238</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>44245</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>44252</c:v>
+                </c:pt>
+                <c:pt idx="19">
+                  <c:v>44259</c:v>
+                </c:pt>
+                <c:pt idx="20">
+                  <c:v>44266</c:v>
+                </c:pt>
+                <c:pt idx="21">
+                  <c:v>44273</c:v>
+                </c:pt>
+                <c:pt idx="22">
+                  <c:v>44280</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>Tabelle1!$14:$14</c:f>
+              <c:extLst>
+                <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{02D57815-91ED-43cb-92C2-25804820EDAC}">
+                  <c15:fullRef>
+                    <c15:sqref>Tabelle1!$14:$14</c15:sqref>
+                  </c15:fullRef>
+                </c:ext>
+              </c:extLst>
+              <c:f>Tabelle1!$B$14:$XFD$14</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
-                <c:ptCount val="16384"/>
+                <c:ptCount val="16381"/>
                 <c:pt idx="0">
-                  <c:v>0</c:v>
+                  <c:v>9</c:v>
                 </c:pt>
                 <c:pt idx="1">
                   <c:v>9</c:v>
@@ -535,9 +762,6 @@
                   <c:v>9</c:v>
                 </c:pt>
                 <c:pt idx="22">
-                  <c:v>9</c:v>
-                </c:pt>
-                <c:pt idx="23">
                   <c:v>9</c:v>
                 </c:pt>
               </c:numCache>
@@ -568,14 +792,106 @@
           <c:marker>
             <c:symbol val="none"/>
           </c:marker>
+          <c:cat>
+            <c:numRef>
+              <c:extLst>
+                <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{02D57815-91ED-43cb-92C2-25804820EDAC}">
+                  <c15:fullRef>
+                    <c15:sqref>Tabelle1!$1:$1</c15:sqref>
+                  </c15:fullRef>
+                </c:ext>
+              </c:extLst>
+              <c:f>Tabelle1!$B$1:$XFD$1</c:f>
+              <c:numCache>
+                <c:formatCode>d\-mmm</c:formatCode>
+                <c:ptCount val="16381"/>
+                <c:pt idx="0">
+                  <c:v>44126</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>44133</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>44140</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>44147</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>44154</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>44161</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>44168</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>44175</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>44182</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>44189</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>44196</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>44203</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>44210</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>44217</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>44224</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>44231</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>44238</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>44245</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>44252</c:v>
+                </c:pt>
+                <c:pt idx="19">
+                  <c:v>44259</c:v>
+                </c:pt>
+                <c:pt idx="20">
+                  <c:v>44266</c:v>
+                </c:pt>
+                <c:pt idx="21">
+                  <c:v>44273</c:v>
+                </c:pt>
+                <c:pt idx="22">
+                  <c:v>44280</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>Tabelle1!$21:$21</c:f>
+              <c:extLst>
+                <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{02D57815-91ED-43cb-92C2-25804820EDAC}">
+                  <c15:fullRef>
+                    <c15:sqref>Tabelle1!$21:$21</c15:sqref>
+                  </c15:fullRef>
+                </c:ext>
+              </c:extLst>
+              <c:f>Tabelle1!$B$21:$XFD$21</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
-                <c:ptCount val="16384"/>
+                <c:ptCount val="16381"/>
                 <c:pt idx="0">
-                  <c:v>0</c:v>
+                  <c:v>8</c:v>
                 </c:pt>
                 <c:pt idx="1">
                   <c:v>8</c:v>
@@ -641,9 +957,6 @@
                   <c:v>8</c:v>
                 </c:pt>
                 <c:pt idx="22">
-                  <c:v>8</c:v>
-                </c:pt>
-                <c:pt idx="23">
                   <c:v>8</c:v>
                 </c:pt>
               </c:numCache>
@@ -674,14 +987,106 @@
           <c:marker>
             <c:symbol val="none"/>
           </c:marker>
+          <c:cat>
+            <c:numRef>
+              <c:extLst>
+                <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{02D57815-91ED-43cb-92C2-25804820EDAC}">
+                  <c15:fullRef>
+                    <c15:sqref>Tabelle1!$1:$1</c15:sqref>
+                  </c15:fullRef>
+                </c:ext>
+              </c:extLst>
+              <c:f>Tabelle1!$B$1:$XFD$1</c:f>
+              <c:numCache>
+                <c:formatCode>d\-mmm</c:formatCode>
+                <c:ptCount val="16381"/>
+                <c:pt idx="0">
+                  <c:v>44126</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>44133</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>44140</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>44147</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>44154</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>44161</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>44168</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>44175</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>44182</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>44189</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>44196</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>44203</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>44210</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>44217</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>44224</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>44231</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>44238</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>44245</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>44252</c:v>
+                </c:pt>
+                <c:pt idx="19">
+                  <c:v>44259</c:v>
+                </c:pt>
+                <c:pt idx="20">
+                  <c:v>44266</c:v>
+                </c:pt>
+                <c:pt idx="21">
+                  <c:v>44273</c:v>
+                </c:pt>
+                <c:pt idx="22">
+                  <c:v>44280</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>Tabelle1!$28:$28</c:f>
+              <c:extLst>
+                <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{02D57815-91ED-43cb-92C2-25804820EDAC}">
+                  <c15:fullRef>
+                    <c15:sqref>Tabelle1!$28:$28</c15:sqref>
+                  </c15:fullRef>
+                </c:ext>
+              </c:extLst>
+              <c:f>Tabelle1!$B$28:$XFD$28</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
-                <c:ptCount val="16384"/>
+                <c:ptCount val="16381"/>
                 <c:pt idx="0">
-                  <c:v>0</c:v>
+                  <c:v>7</c:v>
                 </c:pt>
                 <c:pt idx="1">
                   <c:v>7</c:v>
@@ -747,9 +1152,6 @@
                   <c:v>7</c:v>
                 </c:pt>
                 <c:pt idx="22">
-                  <c:v>7</c:v>
-                </c:pt>
-                <c:pt idx="23">
                   <c:v>7</c:v>
                 </c:pt>
               </c:numCache>
@@ -778,6 +1180,7 @@
         <c:axId val="988454719"/>
         <c:scaling>
           <c:orientation val="minMax"/>
+          <c:min val="44126"/>
         </c:scaling>
         <c:delete val="0"/>
         <c:axPos val="b"/>
@@ -1525,15 +1928,15 @@
   <xdr:twoCellAnchor>
     <xdr:from>
       <xdr:col>1</xdr:col>
-      <xdr:colOff>39219</xdr:colOff>
+      <xdr:colOff>0</xdr:colOff>
       <xdr:row>29</xdr:row>
       <xdr:rowOff>57149</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>10</xdr:col>
-      <xdr:colOff>717176</xdr:colOff>
-      <xdr:row>48</xdr:row>
-      <xdr:rowOff>100852</xdr:rowOff>
+      <xdr:col>17</xdr:col>
+      <xdr:colOff>593912</xdr:colOff>
+      <xdr:row>49</xdr:row>
+      <xdr:rowOff>100853</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame macro="">
       <xdr:nvGraphicFramePr>
@@ -1858,98 +2261,106 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{85923DA2-2FD1-4856-AB9C-336BEA5CAFF2}">
-  <dimension ref="A1:X28"/>
+  <dimension ref="A1:Z28"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A13" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="P43" sqref="P43"/>
+    <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="T40" sqref="T40"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="22.28515625" customWidth="1"/>
+    <col min="2" max="3" width="0" hidden="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:24" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:26" x14ac:dyDescent="0.25">
+      <c r="A1" s="13"/>
       <c r="B1" s="1">
+        <v>44112</v>
+      </c>
+      <c r="C1" s="1">
+        <v>44119</v>
+      </c>
+      <c r="D1" s="1">
         <v>44126</v>
       </c>
-      <c r="C1" s="1">
+      <c r="E1" s="1">
         <v>44133</v>
       </c>
-      <c r="D1" s="1">
+      <c r="F1" s="1">
         <v>44140</v>
       </c>
-      <c r="E1" s="1">
+      <c r="G1" s="1">
         <v>44147</v>
       </c>
-      <c r="F1" s="1">
+      <c r="H1" s="1">
         <v>44154</v>
       </c>
-      <c r="G1" s="1">
+      <c r="I1" s="1">
         <v>44161</v>
       </c>
-      <c r="H1" s="1">
+      <c r="J1" s="1">
         <v>44168</v>
       </c>
-      <c r="I1" s="1">
+      <c r="K1" s="1">
         <v>44175</v>
       </c>
-      <c r="J1" s="1">
+      <c r="L1" s="1">
         <v>44182</v>
       </c>
-      <c r="K1" s="1">
+      <c r="M1" s="1">
         <v>44189</v>
       </c>
-      <c r="L1" s="1">
+      <c r="N1" s="1">
         <v>44196</v>
       </c>
-      <c r="M1" s="1">
+      <c r="O1" s="1">
         <v>44203</v>
       </c>
-      <c r="N1" s="1">
+      <c r="P1" s="1">
         <v>44210</v>
       </c>
-      <c r="O1" s="1">
+      <c r="Q1" s="1">
         <v>44217</v>
       </c>
-      <c r="P1" s="1">
+      <c r="R1" s="1">
         <v>44224</v>
       </c>
-      <c r="Q1" s="1">
+      <c r="S1" s="1">
         <v>44231</v>
       </c>
-      <c r="R1" s="1">
+      <c r="T1" s="1">
         <v>44238</v>
       </c>
-      <c r="S1" s="1">
+      <c r="U1" s="1">
         <v>44245</v>
       </c>
-      <c r="T1" s="1">
+      <c r="V1" s="1">
         <v>44252</v>
       </c>
-      <c r="U1" s="1">
+      <c r="W1" s="1">
         <v>44259</v>
       </c>
-      <c r="V1" s="1">
+      <c r="X1" s="1">
         <v>44266</v>
       </c>
-      <c r="W1" s="1">
+      <c r="Y1" s="1">
         <v>44273</v>
       </c>
-      <c r="X1" s="1">
+      <c r="Z1" s="1">
         <v>44280</v>
       </c>
     </row>
-    <row r="2" spans="1:24" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A2" t="s">
+    <row r="2" spans="1:26" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A2" s="14" t="s">
         <v>4</v>
       </c>
     </row>
-    <row r="3" spans="1:24" x14ac:dyDescent="0.25">
-      <c r="A3" t="s">
+    <row r="3" spans="1:26" x14ac:dyDescent="0.25">
+      <c r="A3" s="13" t="s">
         <v>0</v>
       </c>
-      <c r="B3" s="3">
+      <c r="B3" s="10">
         <v>10</v>
       </c>
       <c r="C3" s="3">
@@ -2018,12 +2429,18 @@
       <c r="X3" s="3">
         <v>10</v>
       </c>
+      <c r="Y3" s="3">
+        <v>10</v>
+      </c>
+      <c r="Z3" s="6">
+        <v>10</v>
+      </c>
     </row>
-    <row r="4" spans="1:24" x14ac:dyDescent="0.25">
-      <c r="A4" t="s">
+    <row r="4" spans="1:26" x14ac:dyDescent="0.25">
+      <c r="A4" s="13" t="s">
         <v>1</v>
       </c>
-      <c r="B4" s="4">
+      <c r="B4" s="11">
         <v>10</v>
       </c>
       <c r="C4" s="4">
@@ -2092,12 +2509,18 @@
       <c r="X4" s="4">
         <v>10</v>
       </c>
+      <c r="Y4" s="4">
+        <v>10</v>
+      </c>
+      <c r="Z4" s="7">
+        <v>10</v>
+      </c>
     </row>
-    <row r="5" spans="1:24" x14ac:dyDescent="0.25">
-      <c r="A5" t="s">
+    <row r="5" spans="1:26" x14ac:dyDescent="0.25">
+      <c r="A5" s="13" t="s">
         <v>2</v>
       </c>
-      <c r="B5" s="4">
+      <c r="B5" s="11">
         <v>10</v>
       </c>
       <c r="C5" s="4">
@@ -2166,12 +2589,18 @@
       <c r="X5" s="4">
         <v>10</v>
       </c>
+      <c r="Y5" s="4">
+        <v>10</v>
+      </c>
+      <c r="Z5" s="7">
+        <v>10</v>
+      </c>
     </row>
-    <row r="6" spans="1:24" x14ac:dyDescent="0.25">
-      <c r="A6" t="s">
+    <row r="6" spans="1:26" x14ac:dyDescent="0.25">
+      <c r="A6" s="13" t="s">
         <v>3</v>
       </c>
-      <c r="B6" s="4">
+      <c r="B6" s="11">
         <v>10</v>
       </c>
       <c r="C6" s="4">
@@ -2240,105 +2669,118 @@
       <c r="X6" s="4">
         <v>10</v>
       </c>
+      <c r="Y6" s="4">
+        <v>10</v>
+      </c>
+      <c r="Z6" s="7">
+        <v>10</v>
+      </c>
     </row>
-    <row r="7" spans="1:24" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A7" t="s">
-        <v>5</v>
-      </c>
-      <c r="B7" s="5">
+    <row r="7" spans="1:26" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A7" s="13"/>
+      <c r="B7" s="12">
         <f>AVERAGE(B3:B6)</f>
         <v>10</v>
       </c>
       <c r="C7" s="5">
-        <f t="shared" ref="C7:X7" si="0">AVERAGE(C3:C6)</f>
-        <v>10</v>
-      </c>
-      <c r="D7" s="5">
+        <f>AVERAGE(C3:C6)</f>
+        <v>10</v>
+      </c>
+      <c r="D7" s="8">
+        <f>AVERAGE(D3:D6)</f>
+        <v>10</v>
+      </c>
+      <c r="E7" s="8">
+        <f t="shared" ref="E7:Z7" si="0">AVERAGE(E3:E6)</f>
+        <v>10</v>
+      </c>
+      <c r="F7" s="8">
         <f t="shared" si="0"/>
         <v>10</v>
       </c>
-      <c r="E7" s="5">
+      <c r="G7" s="8">
         <f t="shared" si="0"/>
         <v>10</v>
       </c>
-      <c r="F7" s="5">
+      <c r="H7" s="8">
         <f t="shared" si="0"/>
         <v>10</v>
       </c>
-      <c r="G7" s="5">
+      <c r="I7" s="8">
         <f t="shared" si="0"/>
         <v>10</v>
       </c>
-      <c r="H7" s="5">
+      <c r="J7" s="8">
         <f t="shared" si="0"/>
         <v>10</v>
       </c>
-      <c r="I7" s="5">
+      <c r="K7" s="8">
         <f t="shared" si="0"/>
         <v>10</v>
       </c>
-      <c r="J7" s="5">
+      <c r="L7" s="8">
         <f t="shared" si="0"/>
         <v>10</v>
       </c>
-      <c r="K7" s="5">
+      <c r="M7" s="8">
         <f t="shared" si="0"/>
         <v>10</v>
       </c>
-      <c r="L7" s="5">
+      <c r="N7" s="8">
         <f t="shared" si="0"/>
         <v>10</v>
       </c>
-      <c r="M7" s="5">
+      <c r="O7" s="8">
         <f t="shared" si="0"/>
         <v>10</v>
       </c>
-      <c r="N7" s="5">
+      <c r="P7" s="8">
         <f t="shared" si="0"/>
         <v>10</v>
       </c>
-      <c r="O7" s="5">
+      <c r="Q7" s="8">
         <f t="shared" si="0"/>
         <v>10</v>
       </c>
-      <c r="P7" s="5">
+      <c r="R7" s="8">
         <f t="shared" si="0"/>
         <v>10</v>
       </c>
-      <c r="Q7" s="5">
+      <c r="S7" s="8">
         <f t="shared" si="0"/>
         <v>10</v>
       </c>
-      <c r="R7" s="5">
+      <c r="T7" s="8">
         <f t="shared" si="0"/>
         <v>10</v>
       </c>
-      <c r="S7" s="5">
+      <c r="U7" s="8">
         <f t="shared" si="0"/>
         <v>10</v>
       </c>
-      <c r="T7" s="5">
+      <c r="V7" s="8">
         <f t="shared" si="0"/>
         <v>10</v>
       </c>
-      <c r="U7" s="5">
+      <c r="W7" s="8">
         <f t="shared" si="0"/>
         <v>10</v>
       </c>
-      <c r="V7" s="5">
+      <c r="X7" s="8">
         <f t="shared" si="0"/>
         <v>10</v>
       </c>
-      <c r="W7" s="5">
+      <c r="Y7" s="8">
         <f t="shared" si="0"/>
         <v>10</v>
       </c>
-      <c r="X7" s="5">
+      <c r="Z7" s="9">
         <f t="shared" si="0"/>
         <v>10</v>
       </c>
     </row>
-    <row r="8" spans="1:24" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:26" x14ac:dyDescent="0.25">
+      <c r="A8" s="13"/>
       <c r="B8" s="2"/>
       <c r="C8" s="2"/>
       <c r="D8" s="2"/>
@@ -2362,10 +2804,12 @@
       <c r="V8" s="2"/>
       <c r="W8" s="2"/>
       <c r="X8" s="2"/>
+      <c r="Y8" s="2"/>
+      <c r="Z8" s="2"/>
     </row>
-    <row r="9" spans="1:24" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A9" t="s">
-        <v>9</v>
+    <row r="9" spans="1:26" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A9" s="15" t="s">
+        <v>5</v>
       </c>
       <c r="B9" s="2"/>
       <c r="C9" s="2"/>
@@ -2390,12 +2834,14 @@
       <c r="V9" s="2"/>
       <c r="W9" s="2"/>
       <c r="X9" s="2"/>
+      <c r="Y9" s="2"/>
+      <c r="Z9" s="2"/>
     </row>
-    <row r="10" spans="1:24" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A10" t="s">
+    <row r="10" spans="1:26" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A10" s="13" t="s">
         <v>0</v>
       </c>
-      <c r="B10" s="3">
+      <c r="B10" s="10">
         <v>9</v>
       </c>
       <c r="C10" s="3">
@@ -2464,12 +2910,18 @@
       <c r="X10" s="3">
         <v>9</v>
       </c>
+      <c r="Y10" s="3">
+        <v>9</v>
+      </c>
+      <c r="Z10" s="6">
+        <v>9</v>
+      </c>
     </row>
-    <row r="11" spans="1:24" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A11" t="s">
+    <row r="11" spans="1:26" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A11" s="13" t="s">
         <v>1</v>
       </c>
-      <c r="B11" s="3">
+      <c r="B11" s="10">
         <v>9</v>
       </c>
       <c r="C11" s="3">
@@ -2538,12 +2990,18 @@
       <c r="X11" s="3">
         <v>9</v>
       </c>
+      <c r="Y11" s="3">
+        <v>9</v>
+      </c>
+      <c r="Z11" s="6">
+        <v>9</v>
+      </c>
     </row>
-    <row r="12" spans="1:24" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A12" t="s">
+    <row r="12" spans="1:26" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A12" s="13" t="s">
         <v>2</v>
       </c>
-      <c r="B12" s="3">
+      <c r="B12" s="10">
         <v>9</v>
       </c>
       <c r="C12" s="3">
@@ -2612,12 +3070,18 @@
       <c r="X12" s="3">
         <v>9</v>
       </c>
+      <c r="Y12" s="3">
+        <v>9</v>
+      </c>
+      <c r="Z12" s="6">
+        <v>9</v>
+      </c>
     </row>
-    <row r="13" spans="1:24" x14ac:dyDescent="0.25">
-      <c r="A13" t="s">
+    <row r="13" spans="1:26" x14ac:dyDescent="0.25">
+      <c r="A13" s="13" t="s">
         <v>3</v>
       </c>
-      <c r="B13" s="3">
+      <c r="B13" s="10">
         <v>9</v>
       </c>
       <c r="C13" s="3">
@@ -2686,105 +3150,118 @@
       <c r="X13" s="3">
         <v>9</v>
       </c>
+      <c r="Y13" s="3">
+        <v>9</v>
+      </c>
+      <c r="Z13" s="6">
+        <v>9</v>
+      </c>
     </row>
-    <row r="14" spans="1:24" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A14" t="s">
-        <v>6</v>
-      </c>
-      <c r="B14" s="5">
+    <row r="14" spans="1:26" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A14" s="13"/>
+      <c r="B14" s="12">
         <f>AVERAGE(B10:B13)</f>
         <v>9</v>
       </c>
       <c r="C14" s="5">
-        <f t="shared" ref="C14:X14" si="1">AVERAGE(C10:C13)</f>
-        <v>9</v>
-      </c>
-      <c r="D14" s="5">
+        <f>AVERAGE(C10:C13)</f>
+        <v>9</v>
+      </c>
+      <c r="D14" s="8">
+        <f>AVERAGE(D10:D13)</f>
+        <v>9</v>
+      </c>
+      <c r="E14" s="8">
+        <f t="shared" ref="E14:Z14" si="1">AVERAGE(E10:E13)</f>
+        <v>9</v>
+      </c>
+      <c r="F14" s="8">
         <f t="shared" si="1"/>
         <v>9</v>
       </c>
-      <c r="E14" s="5">
+      <c r="G14" s="8">
         <f t="shared" si="1"/>
         <v>9</v>
       </c>
-      <c r="F14" s="5">
+      <c r="H14" s="8">
         <f t="shared" si="1"/>
         <v>9</v>
       </c>
-      <c r="G14" s="5">
+      <c r="I14" s="8">
         <f t="shared" si="1"/>
         <v>9</v>
       </c>
-      <c r="H14" s="5">
+      <c r="J14" s="8">
         <f t="shared" si="1"/>
         <v>9</v>
       </c>
-      <c r="I14" s="5">
+      <c r="K14" s="8">
         <f t="shared" si="1"/>
         <v>9</v>
       </c>
-      <c r="J14" s="5">
+      <c r="L14" s="8">
         <f t="shared" si="1"/>
         <v>9</v>
       </c>
-      <c r="K14" s="5">
+      <c r="M14" s="8">
         <f t="shared" si="1"/>
         <v>9</v>
       </c>
-      <c r="L14" s="5">
+      <c r="N14" s="8">
         <f t="shared" si="1"/>
         <v>9</v>
       </c>
-      <c r="M14" s="5">
+      <c r="O14" s="8">
         <f t="shared" si="1"/>
         <v>9</v>
       </c>
-      <c r="N14" s="5">
+      <c r="P14" s="8">
         <f t="shared" si="1"/>
         <v>9</v>
       </c>
-      <c r="O14" s="5">
+      <c r="Q14" s="8">
         <f t="shared" si="1"/>
         <v>9</v>
       </c>
-      <c r="P14" s="5">
+      <c r="R14" s="8">
         <f t="shared" si="1"/>
         <v>9</v>
       </c>
-      <c r="Q14" s="5">
+      <c r="S14" s="8">
         <f t="shared" si="1"/>
         <v>9</v>
       </c>
-      <c r="R14" s="5">
+      <c r="T14" s="8">
         <f t="shared" si="1"/>
         <v>9</v>
       </c>
-      <c r="S14" s="5">
+      <c r="U14" s="8">
         <f t="shared" si="1"/>
         <v>9</v>
       </c>
-      <c r="T14" s="5">
+      <c r="V14" s="8">
         <f t="shared" si="1"/>
         <v>9</v>
       </c>
-      <c r="U14" s="5">
+      <c r="W14" s="8">
         <f t="shared" si="1"/>
         <v>9</v>
       </c>
-      <c r="V14" s="5">
+      <c r="X14" s="8">
         <f t="shared" si="1"/>
         <v>9</v>
       </c>
-      <c r="W14" s="5">
+      <c r="Y14" s="8">
         <f t="shared" si="1"/>
         <v>9</v>
       </c>
-      <c r="X14" s="5">
+      <c r="Z14" s="9">
         <f t="shared" si="1"/>
         <v>9</v>
       </c>
     </row>
-    <row r="15" spans="1:24" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:26" x14ac:dyDescent="0.25">
+      <c r="A15" s="13"/>
       <c r="B15" s="2"/>
       <c r="C15" s="2"/>
       <c r="D15" s="2"/>
@@ -2808,10 +3285,12 @@
       <c r="V15" s="2"/>
       <c r="W15" s="2"/>
       <c r="X15" s="2"/>
+      <c r="Y15" s="2"/>
+      <c r="Z15" s="2"/>
     </row>
-    <row r="16" spans="1:24" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A16" t="s">
-        <v>10</v>
+    <row r="16" spans="1:26" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A16" s="16" t="s">
+        <v>6</v>
       </c>
       <c r="B16" s="2"/>
       <c r="C16" s="2"/>
@@ -2836,12 +3315,14 @@
       <c r="V16" s="2"/>
       <c r="W16" s="2"/>
       <c r="X16" s="2"/>
+      <c r="Y16" s="2"/>
+      <c r="Z16" s="2"/>
     </row>
-    <row r="17" spans="1:24" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A17" t="s">
+    <row r="17" spans="1:26" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A17" s="13" t="s">
         <v>0</v>
       </c>
-      <c r="B17" s="3">
+      <c r="B17" s="10">
         <v>8</v>
       </c>
       <c r="C17" s="3">
@@ -2910,12 +3391,18 @@
       <c r="X17" s="3">
         <v>8</v>
       </c>
+      <c r="Y17" s="3">
+        <v>8</v>
+      </c>
+      <c r="Z17" s="6">
+        <v>8</v>
+      </c>
     </row>
-    <row r="18" spans="1:24" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A18" t="s">
+    <row r="18" spans="1:26" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A18" s="13" t="s">
         <v>1</v>
       </c>
-      <c r="B18" s="3">
+      <c r="B18" s="10">
         <v>8</v>
       </c>
       <c r="C18" s="3">
@@ -2984,12 +3471,18 @@
       <c r="X18" s="3">
         <v>8</v>
       </c>
+      <c r="Y18" s="3">
+        <v>8</v>
+      </c>
+      <c r="Z18" s="6">
+        <v>8</v>
+      </c>
     </row>
-    <row r="19" spans="1:24" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A19" t="s">
+    <row r="19" spans="1:26" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A19" s="13" t="s">
         <v>2</v>
       </c>
-      <c r="B19" s="3">
+      <c r="B19" s="10">
         <v>8</v>
       </c>
       <c r="C19" s="3">
@@ -3058,12 +3551,18 @@
       <c r="X19" s="3">
         <v>8</v>
       </c>
+      <c r="Y19" s="3">
+        <v>8</v>
+      </c>
+      <c r="Z19" s="6">
+        <v>8</v>
+      </c>
     </row>
-    <row r="20" spans="1:24" x14ac:dyDescent="0.25">
-      <c r="A20" t="s">
+    <row r="20" spans="1:26" x14ac:dyDescent="0.25">
+      <c r="A20" s="13" t="s">
         <v>3</v>
       </c>
-      <c r="B20" s="3">
+      <c r="B20" s="10">
         <v>8</v>
       </c>
       <c r="C20" s="3">
@@ -3132,105 +3631,118 @@
       <c r="X20" s="3">
         <v>8</v>
       </c>
+      <c r="Y20" s="3">
+        <v>8</v>
+      </c>
+      <c r="Z20" s="6">
+        <v>8</v>
+      </c>
     </row>
-    <row r="21" spans="1:24" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A21" t="s">
-        <v>7</v>
-      </c>
-      <c r="B21" s="5">
+    <row r="21" spans="1:26" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A21" s="13"/>
+      <c r="B21" s="12">
         <f>AVERAGE(B17:B20)</f>
         <v>8</v>
       </c>
       <c r="C21" s="5">
-        <f t="shared" ref="C21:X21" si="2">AVERAGE(C17:C20)</f>
-        <v>8</v>
-      </c>
-      <c r="D21" s="5">
+        <f>AVERAGE(C17:C20)</f>
+        <v>8</v>
+      </c>
+      <c r="D21" s="8">
+        <f>AVERAGE(D17:D20)</f>
+        <v>8</v>
+      </c>
+      <c r="E21" s="8">
+        <f t="shared" ref="E21:Z21" si="2">AVERAGE(E17:E20)</f>
+        <v>8</v>
+      </c>
+      <c r="F21" s="8">
         <f t="shared" si="2"/>
         <v>8</v>
       </c>
-      <c r="E21" s="5">
+      <c r="G21" s="8">
         <f t="shared" si="2"/>
         <v>8</v>
       </c>
-      <c r="F21" s="5">
+      <c r="H21" s="8">
         <f t="shared" si="2"/>
         <v>8</v>
       </c>
-      <c r="G21" s="5">
+      <c r="I21" s="8">
         <f t="shared" si="2"/>
         <v>8</v>
       </c>
-      <c r="H21" s="5">
+      <c r="J21" s="8">
         <f t="shared" si="2"/>
         <v>8</v>
       </c>
-      <c r="I21" s="5">
+      <c r="K21" s="8">
         <f t="shared" si="2"/>
         <v>8</v>
       </c>
-      <c r="J21" s="5">
+      <c r="L21" s="8">
         <f t="shared" si="2"/>
         <v>8</v>
       </c>
-      <c r="K21" s="5">
+      <c r="M21" s="8">
         <f t="shared" si="2"/>
         <v>8</v>
       </c>
-      <c r="L21" s="5">
+      <c r="N21" s="8">
         <f t="shared" si="2"/>
         <v>8</v>
       </c>
-      <c r="M21" s="5">
+      <c r="O21" s="8">
         <f t="shared" si="2"/>
         <v>8</v>
       </c>
-      <c r="N21" s="5">
+      <c r="P21" s="8">
         <f t="shared" si="2"/>
         <v>8</v>
       </c>
-      <c r="O21" s="5">
+      <c r="Q21" s="8">
         <f t="shared" si="2"/>
         <v>8</v>
       </c>
-      <c r="P21" s="5">
+      <c r="R21" s="8">
         <f t="shared" si="2"/>
         <v>8</v>
       </c>
-      <c r="Q21" s="5">
+      <c r="S21" s="8">
         <f t="shared" si="2"/>
         <v>8</v>
       </c>
-      <c r="R21" s="5">
+      <c r="T21" s="8">
         <f t="shared" si="2"/>
         <v>8</v>
       </c>
-      <c r="S21" s="5">
+      <c r="U21" s="8">
         <f t="shared" si="2"/>
         <v>8</v>
       </c>
-      <c r="T21" s="5">
+      <c r="V21" s="8">
         <f t="shared" si="2"/>
         <v>8</v>
       </c>
-      <c r="U21" s="5">
+      <c r="W21" s="8">
         <f t="shared" si="2"/>
         <v>8</v>
       </c>
-      <c r="V21" s="5">
+      <c r="X21" s="8">
         <f t="shared" si="2"/>
         <v>8</v>
       </c>
-      <c r="W21" s="5">
+      <c r="Y21" s="8">
         <f t="shared" si="2"/>
         <v>8</v>
       </c>
-      <c r="X21" s="5">
+      <c r="Z21" s="9">
         <f t="shared" si="2"/>
         <v>8</v>
       </c>
     </row>
-    <row r="22" spans="1:24" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:26" x14ac:dyDescent="0.25">
+      <c r="A22" s="13"/>
       <c r="B22" s="2"/>
       <c r="C22" s="2"/>
       <c r="D22" s="2"/>
@@ -3254,10 +3766,12 @@
       <c r="V22" s="2"/>
       <c r="W22" s="2"/>
       <c r="X22" s="2"/>
+      <c r="Y22" s="2"/>
+      <c r="Z22" s="2"/>
     </row>
-    <row r="23" spans="1:24" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A23" t="s">
-        <v>11</v>
+    <row r="23" spans="1:26" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A23" s="17" t="s">
+        <v>7</v>
       </c>
       <c r="B23" s="2"/>
       <c r="C23" s="2"/>
@@ -3282,12 +3796,14 @@
       <c r="V23" s="2"/>
       <c r="W23" s="2"/>
       <c r="X23" s="2"/>
+      <c r="Y23" s="2"/>
+      <c r="Z23" s="2"/>
     </row>
-    <row r="24" spans="1:24" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A24" t="s">
+    <row r="24" spans="1:26" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A24" s="13" t="s">
         <v>0</v>
       </c>
-      <c r="B24" s="3">
+      <c r="B24" s="10">
         <v>7</v>
       </c>
       <c r="C24" s="3">
@@ -3356,12 +3872,18 @@
       <c r="X24" s="3">
         <v>7</v>
       </c>
+      <c r="Y24" s="3">
+        <v>7</v>
+      </c>
+      <c r="Z24" s="6">
+        <v>7</v>
+      </c>
     </row>
-    <row r="25" spans="1:24" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A25" t="s">
+    <row r="25" spans="1:26" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A25" s="13" t="s">
         <v>1</v>
       </c>
-      <c r="B25" s="3">
+      <c r="B25" s="10">
         <v>7</v>
       </c>
       <c r="C25" s="3">
@@ -3430,12 +3952,18 @@
       <c r="X25" s="3">
         <v>7</v>
       </c>
+      <c r="Y25" s="3">
+        <v>7</v>
+      </c>
+      <c r="Z25" s="6">
+        <v>7</v>
+      </c>
     </row>
-    <row r="26" spans="1:24" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A26" t="s">
+    <row r="26" spans="1:26" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A26" s="13" t="s">
         <v>2</v>
       </c>
-      <c r="B26" s="3">
+      <c r="B26" s="10">
         <v>7</v>
       </c>
       <c r="C26" s="3">
@@ -3504,12 +4032,18 @@
       <c r="X26" s="3">
         <v>7</v>
       </c>
+      <c r="Y26" s="3">
+        <v>7</v>
+      </c>
+      <c r="Z26" s="6">
+        <v>7</v>
+      </c>
     </row>
-    <row r="27" spans="1:24" x14ac:dyDescent="0.25">
-      <c r="A27" t="s">
+    <row r="27" spans="1:26" x14ac:dyDescent="0.25">
+      <c r="A27" s="13" t="s">
         <v>3</v>
       </c>
-      <c r="B27" s="3">
+      <c r="B27" s="10">
         <v>7</v>
       </c>
       <c r="C27" s="3">
@@ -3578,100 +4112,112 @@
       <c r="X27" s="3">
         <v>7</v>
       </c>
+      <c r="Y27" s="3">
+        <v>7</v>
+      </c>
+      <c r="Z27" s="6">
+        <v>7</v>
+      </c>
     </row>
-    <row r="28" spans="1:24" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A28" t="s">
-        <v>8</v>
-      </c>
-      <c r="B28" s="5">
+    <row r="28" spans="1:26" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A28" s="13"/>
+      <c r="B28" s="12">
         <f>AVERAGE(B24:B27)</f>
         <v>7</v>
       </c>
       <c r="C28" s="5">
-        <f t="shared" ref="C28:X28" si="3">AVERAGE(C24:C27)</f>
-        <v>7</v>
-      </c>
-      <c r="D28" s="5">
+        <f>AVERAGE(C24:C27)</f>
+        <v>7</v>
+      </c>
+      <c r="D28" s="8">
+        <f>AVERAGE(D24:D27)</f>
+        <v>7</v>
+      </c>
+      <c r="E28" s="8">
+        <f t="shared" ref="E28:Z28" si="3">AVERAGE(E24:E27)</f>
+        <v>7</v>
+      </c>
+      <c r="F28" s="8">
         <f t="shared" si="3"/>
         <v>7</v>
       </c>
-      <c r="E28" s="5">
+      <c r="G28" s="8">
         <f t="shared" si="3"/>
         <v>7</v>
       </c>
-      <c r="F28" s="5">
+      <c r="H28" s="8">
         <f t="shared" si="3"/>
         <v>7</v>
       </c>
-      <c r="G28" s="5">
+      <c r="I28" s="8">
         <f t="shared" si="3"/>
         <v>7</v>
       </c>
-      <c r="H28" s="5">
+      <c r="J28" s="8">
         <f t="shared" si="3"/>
         <v>7</v>
       </c>
-      <c r="I28" s="5">
+      <c r="K28" s="8">
         <f t="shared" si="3"/>
         <v>7</v>
       </c>
-      <c r="J28" s="5">
+      <c r="L28" s="8">
         <f t="shared" si="3"/>
         <v>7</v>
       </c>
-      <c r="K28" s="5">
+      <c r="M28" s="8">
         <f t="shared" si="3"/>
         <v>7</v>
       </c>
-      <c r="L28" s="5">
+      <c r="N28" s="8">
         <f t="shared" si="3"/>
         <v>7</v>
       </c>
-      <c r="M28" s="5">
+      <c r="O28" s="8">
         <f t="shared" si="3"/>
         <v>7</v>
       </c>
-      <c r="N28" s="5">
+      <c r="P28" s="8">
         <f t="shared" si="3"/>
         <v>7</v>
       </c>
-      <c r="O28" s="5">
+      <c r="Q28" s="8">
         <f t="shared" si="3"/>
         <v>7</v>
       </c>
-      <c r="P28" s="5">
+      <c r="R28" s="8">
         <f t="shared" si="3"/>
         <v>7</v>
       </c>
-      <c r="Q28" s="5">
+      <c r="S28" s="8">
         <f t="shared" si="3"/>
         <v>7</v>
       </c>
-      <c r="R28" s="5">
+      <c r="T28" s="8">
         <f t="shared" si="3"/>
         <v>7</v>
       </c>
-      <c r="S28" s="5">
+      <c r="U28" s="8">
         <f t="shared" si="3"/>
         <v>7</v>
       </c>
-      <c r="T28" s="5">
+      <c r="V28" s="8">
         <f t="shared" si="3"/>
         <v>7</v>
       </c>
-      <c r="U28" s="5">
+      <c r="W28" s="8">
         <f t="shared" si="3"/>
         <v>7</v>
       </c>
-      <c r="V28" s="5">
+      <c r="X28" s="8">
         <f t="shared" si="3"/>
         <v>7</v>
       </c>
-      <c r="W28" s="5">
+      <c r="Y28" s="8">
         <f t="shared" si="3"/>
         <v>7</v>
       </c>
-      <c r="X28" s="5">
+      <c r="Z28" s="9">
         <f t="shared" si="3"/>
         <v>7</v>
       </c>

--- a/20-11-23_Statusbericht/20-11-20_Barometer.xlsx
+++ b/20-11-23_Statusbericht/20-11-20_Barometer.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Philipp\Documents\GitHub\bachelorprojekt2020\20-11-23_Statusbericht\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{EF924649-FDE6-45A6-8A5F-BDB7EB33E358}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D193E7BB-30D7-40EE-8670-9986C60DD2C2}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="25440" windowHeight="15390" xr2:uid="{BDADFF32-FBD9-4DE5-B950-468D92E439C4}"/>
   </bookViews>
@@ -34,7 +34,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="20" uniqueCount="8">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="26" uniqueCount="11">
   <si>
     <t>Marc</t>
   </si>
@@ -54,10 +54,19 @@
     <t>Zielausrichtung:</t>
   </si>
   <si>
-    <t>Arbeitgebereinbindung:</t>
+    <t>Fortschritt:</t>
   </si>
   <si>
-    <t>Fortschritt:</t>
+    <t>Strukturiertheit:</t>
+  </si>
+  <si>
+    <t xml:space="preserve">  </t>
+  </si>
+  <si>
+    <t xml:space="preserve">        </t>
+  </si>
+  <si>
+    <t>Durchschnitt:</t>
   </si>
 </sst>
 </file>
@@ -117,7 +126,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="11">
+  <borders count="13">
     <border>
       <left/>
       <right/>
@@ -201,36 +210,6 @@
       <diagonal/>
     </border>
     <border>
-      <left style="medium">
-        <color indexed="64"/>
-      </left>
-      <right style="medium">
-        <color indexed="64"/>
-      </right>
-      <top style="thin">
-        <color indexed="64"/>
-      </top>
-      <bottom style="thin">
-        <color indexed="64"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color indexed="64"/>
-      </left>
-      <right style="thin">
-        <color indexed="64"/>
-      </right>
-      <top style="thin">
-        <color indexed="64"/>
-      </top>
-      <bottom style="thin">
-        <color indexed="64"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
       <left/>
       <right style="thin">
         <color indexed="64"/>
@@ -269,29 +248,81 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="medium">
+        <color indexed="64"/>
+      </right>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="medium">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="18">
+  <cellXfs count="22">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="16" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="2" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="3" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="4" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="6" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="3" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="5" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="6" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="7" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="8" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="9" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="10" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="7" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="5" borderId="7" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="6" borderId="7" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="7" borderId="7" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
+    <xf numFmtId="16" fontId="0" fillId="0" borderId="9" xfId="0" applyNumberFormat="1" applyBorder="1"/>
+    <xf numFmtId="16" fontId="0" fillId="0" borderId="10" xfId="0" applyNumberFormat="1" applyBorder="1"/>
+    <xf numFmtId="16" fontId="0" fillId="0" borderId="11" xfId="0" applyNumberFormat="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="2" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="12" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="2" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="2" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="7" borderId="2" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Standard" xfId="0" builtinId="0"/>
@@ -501,73 +532,73 @@
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="16381"/>
                 <c:pt idx="0">
-                  <c:v>10</c:v>
+                  <c:v>9.25</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>10</c:v>
+                  <c:v>9</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>10</c:v>
+                  <c:v>8.75</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>10</c:v>
+                  <c:v>9.25</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>10</c:v>
+                  <c:v>8.5</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>10</c:v>
+                  <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>10</c:v>
+                  <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>10</c:v>
+                  <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>10</c:v>
+                  <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>10</c:v>
+                  <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="10">
-                  <c:v>10</c:v>
+                  <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="11">
-                  <c:v>10</c:v>
+                  <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="12">
-                  <c:v>10</c:v>
+                  <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="13">
-                  <c:v>10</c:v>
+                  <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="14">
-                  <c:v>10</c:v>
+                  <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="15">
-                  <c:v>10</c:v>
+                  <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="16">
-                  <c:v>10</c:v>
+                  <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="17">
-                  <c:v>10</c:v>
+                  <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="18">
-                  <c:v>10</c:v>
+                  <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="19">
-                  <c:v>10</c:v>
+                  <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="20">
-                  <c:v>10</c:v>
+                  <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="21">
-                  <c:v>10</c:v>
+                  <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="22">
-                  <c:v>10</c:v>
+                  <c:v>0</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -696,73 +727,73 @@
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="16381"/>
                 <c:pt idx="0">
-                  <c:v>9</c:v>
+                  <c:v>8.75</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>9</c:v>
+                  <c:v>8.5</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>9</c:v>
+                  <c:v>8.5</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>9</c:v>
+                  <c:v>9.25</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>9</c:v>
+                  <c:v>8.5</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>9</c:v>
+                  <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>9</c:v>
+                  <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>9</c:v>
+                  <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>9</c:v>
+                  <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>9</c:v>
+                  <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="10">
-                  <c:v>9</c:v>
+                  <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="11">
-                  <c:v>9</c:v>
+                  <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="12">
-                  <c:v>9</c:v>
+                  <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="13">
-                  <c:v>9</c:v>
+                  <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="14">
-                  <c:v>9</c:v>
+                  <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="15">
-                  <c:v>9</c:v>
+                  <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="16">
-                  <c:v>9</c:v>
+                  <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="17">
-                  <c:v>9</c:v>
+                  <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="18">
-                  <c:v>9</c:v>
+                  <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="19">
-                  <c:v>9</c:v>
+                  <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="20">
-                  <c:v>9</c:v>
+                  <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="21">
-                  <c:v>9</c:v>
+                  <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="22">
-                  <c:v>9</c:v>
+                  <c:v>0</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -778,7 +809,7 @@
           <c:idx val="2"/>
           <c:order val="2"/>
           <c:tx>
-            <c:v>AG-Einbindung</c:v>
+            <c:v>Strukturiertheit</c:v>
           </c:tx>
           <c:spPr>
             <a:ln w="28575" cap="rnd">
@@ -891,73 +922,73 @@
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="16381"/>
                 <c:pt idx="0">
-                  <c:v>8</c:v>
+                  <c:v>7.75</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>8</c:v>
+                  <c:v>8.75</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>8</c:v>
+                  <c:v>8.25</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>8</c:v>
+                  <c:v>8.5</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>8</c:v>
+                  <c:v>8.5</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>8</c:v>
+                  <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>8</c:v>
+                  <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>8</c:v>
+                  <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>8</c:v>
+                  <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>8</c:v>
+                  <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="10">
-                  <c:v>8</c:v>
+                  <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="11">
-                  <c:v>8</c:v>
+                  <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="12">
-                  <c:v>8</c:v>
+                  <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="13">
-                  <c:v>8</c:v>
+                  <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="14">
-                  <c:v>8</c:v>
+                  <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="15">
-                  <c:v>8</c:v>
+                  <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="16">
-                  <c:v>8</c:v>
+                  <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="17">
-                  <c:v>8</c:v>
+                  <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="18">
-                  <c:v>8</c:v>
+                  <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="19">
-                  <c:v>8</c:v>
+                  <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="20">
-                  <c:v>8</c:v>
+                  <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="21">
-                  <c:v>8</c:v>
+                  <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="22">
-                  <c:v>8</c:v>
+                  <c:v>0</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -1086,73 +1117,73 @@
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="16381"/>
                 <c:pt idx="0">
-                  <c:v>7</c:v>
+                  <c:v>8.5</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>7</c:v>
+                  <c:v>9</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>7</c:v>
+                  <c:v>8.25</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>7</c:v>
+                  <c:v>8.5</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>7</c:v>
+                  <c:v>8.75</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>7</c:v>
+                  <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>7</c:v>
+                  <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>7</c:v>
+                  <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>7</c:v>
+                  <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>7</c:v>
+                  <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="10">
-                  <c:v>7</c:v>
+                  <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="11">
-                  <c:v>7</c:v>
+                  <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="12">
-                  <c:v>7</c:v>
+                  <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="13">
-                  <c:v>7</c:v>
+                  <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="14">
-                  <c:v>7</c:v>
+                  <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="15">
-                  <c:v>7</c:v>
+                  <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="16">
-                  <c:v>7</c:v>
+                  <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="17">
-                  <c:v>7</c:v>
+                  <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="18">
-                  <c:v>7</c:v>
+                  <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="19">
-                  <c:v>7</c:v>
+                  <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="20">
-                  <c:v>7</c:v>
+                  <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="21">
-                  <c:v>7</c:v>
+                  <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="22">
-                  <c:v>7</c:v>
+                  <c:v>0</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -1961,6 +1992,77 @@
     </xdr:graphicFrame>
     <xdr:clientData/>
   </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>6</xdr:col>
+      <xdr:colOff>331237</xdr:colOff>
+      <xdr:row>30</xdr:row>
+      <xdr:rowOff>19915</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>9</xdr:col>
+      <xdr:colOff>219177</xdr:colOff>
+      <xdr:row>34</xdr:row>
+      <xdr:rowOff>42327</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="2" name="Sprechblase: rechteckig 1">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{7D34716B-09CC-44F8-A7DD-0512E7924E6C}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="4107619" y="5959033"/>
+          <a:ext cx="2173940" cy="784412"/>
+        </a:xfrm>
+        <a:prstGeom prst="wedgeRectCallout">
+          <a:avLst>
+            <a:gd name="adj1" fmla="val -154116"/>
+            <a:gd name="adj2" fmla="val -2284"/>
+          </a:avLst>
+        </a:prstGeom>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1">
+            <a:shade val="50000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:r>
+            <a:rPr lang="de-DE" sz="1100"/>
+            <a:t>Beim ersten Meeting herrschte eine hohe</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="de-DE" sz="1100" baseline="0"/>
+            <a:t> Motivation, gleichzeitig aber auch die geringste Strukturiertheit        </a:t>
+          </a:r>
+          <a:endParaRPr lang="de-DE" sz="1100"/>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
 </xdr:wsDr>
 </file>
 
@@ -2261,10 +2363,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{85923DA2-2FD1-4856-AB9C-336BEA5CAFF2}">
-  <dimension ref="A1:Z28"/>
+  <dimension ref="A1:Z36"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="T40" sqref="T40"/>
+    <sheetView tabSelected="1" topLeftCell="A4" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="W39" sqref="W39"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -2274,1952 +2376,1995 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:26" x14ac:dyDescent="0.25">
-      <c r="A1" s="13"/>
-      <c r="B1" s="1">
+      <c r="A1" s="11"/>
+      <c r="B1" s="12">
         <v>44112</v>
       </c>
-      <c r="C1" s="1">
+      <c r="C1" s="12">
         <v>44119</v>
       </c>
-      <c r="D1" s="1">
+      <c r="D1" s="13">
         <v>44126</v>
       </c>
-      <c r="E1" s="1">
+      <c r="E1" s="13">
         <v>44133</v>
       </c>
-      <c r="F1" s="1">
+      <c r="F1" s="13">
         <v>44140</v>
       </c>
-      <c r="G1" s="1">
+      <c r="G1" s="13">
         <v>44147</v>
       </c>
-      <c r="H1" s="1">
+      <c r="H1" s="13">
         <v>44154</v>
       </c>
-      <c r="I1" s="1">
+      <c r="I1" s="13">
         <v>44161</v>
       </c>
-      <c r="J1" s="1">
+      <c r="J1" s="13">
         <v>44168</v>
       </c>
-      <c r="K1" s="1">
+      <c r="K1" s="13">
         <v>44175</v>
       </c>
-      <c r="L1" s="1">
+      <c r="L1" s="13">
         <v>44182</v>
       </c>
-      <c r="M1" s="1">
+      <c r="M1" s="13">
         <v>44189</v>
       </c>
-      <c r="N1" s="1">
+      <c r="N1" s="13">
         <v>44196</v>
       </c>
-      <c r="O1" s="1">
+      <c r="O1" s="13">
         <v>44203</v>
       </c>
-      <c r="P1" s="1">
+      <c r="P1" s="13">
         <v>44210</v>
       </c>
-      <c r="Q1" s="1">
+      <c r="Q1" s="13">
         <v>44217</v>
       </c>
-      <c r="R1" s="1">
+      <c r="R1" s="13">
         <v>44224</v>
       </c>
-      <c r="S1" s="1">
+      <c r="S1" s="13">
         <v>44231</v>
       </c>
-      <c r="T1" s="1">
+      <c r="T1" s="13">
         <v>44238</v>
       </c>
-      <c r="U1" s="1">
+      <c r="U1" s="13">
         <v>44245</v>
       </c>
-      <c r="V1" s="1">
+      <c r="V1" s="13">
         <v>44252</v>
       </c>
-      <c r="W1" s="1">
+      <c r="W1" s="13">
         <v>44259</v>
       </c>
-      <c r="X1" s="1">
+      <c r="X1" s="13">
         <v>44266</v>
       </c>
-      <c r="Y1" s="1">
+      <c r="Y1" s="13">
         <v>44273</v>
       </c>
-      <c r="Z1" s="1">
+      <c r="Z1" s="14">
         <v>44280</v>
       </c>
     </row>
     <row r="2" spans="1:26" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A2" s="14" t="s">
+      <c r="A2" s="15" t="s">
         <v>4</v>
       </c>
+      <c r="B2" s="1"/>
+      <c r="C2" s="1"/>
+      <c r="D2" s="1"/>
+      <c r="E2" s="1"/>
+      <c r="F2" s="1"/>
+      <c r="G2" s="1"/>
+      <c r="H2" s="1"/>
+      <c r="I2" s="1"/>
+      <c r="J2" s="1"/>
+      <c r="K2" s="1"/>
+      <c r="L2" s="1"/>
+      <c r="M2" s="1"/>
+      <c r="N2" s="1"/>
+      <c r="O2" s="1"/>
+      <c r="P2" s="1"/>
+      <c r="Q2" s="1"/>
+      <c r="R2" s="1"/>
+      <c r="S2" s="1"/>
+      <c r="T2" s="1"/>
+      <c r="U2" s="1"/>
+      <c r="V2" s="1"/>
+      <c r="W2" s="1"/>
+      <c r="X2" s="1"/>
+      <c r="Y2" s="1"/>
+      <c r="Z2" s="16"/>
     </row>
-    <row r="3" spans="1:26" x14ac:dyDescent="0.25">
-      <c r="A3" s="13" t="s">
-        <v>0</v>
-      </c>
-      <c r="B3" s="10">
+    <row r="3" spans="1:26" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A3" s="17" t="s">
+        <v>0</v>
+      </c>
+      <c r="B3" s="8">
         <v>10</v>
       </c>
-      <c r="C3" s="3">
+      <c r="C3" s="2">
         <v>10</v>
       </c>
-      <c r="D3" s="3">
+      <c r="D3" s="2">
         <v>10</v>
       </c>
-      <c r="E3" s="3">
+      <c r="E3" s="2">
+        <v>9</v>
+      </c>
+      <c r="F3" s="2">
+        <v>9</v>
+      </c>
+      <c r="G3" s="2">
         <v>10</v>
       </c>
-      <c r="F3" s="3">
+      <c r="H3" s="2">
+        <v>8</v>
+      </c>
+      <c r="I3" s="2">
+        <v>0</v>
+      </c>
+      <c r="J3" s="2">
+        <v>0</v>
+      </c>
+      <c r="K3" s="2">
+        <v>0</v>
+      </c>
+      <c r="L3" s="2">
+        <v>0</v>
+      </c>
+      <c r="M3" s="2">
+        <v>0</v>
+      </c>
+      <c r="N3" s="2">
+        <v>0</v>
+      </c>
+      <c r="O3" s="2">
+        <v>0</v>
+      </c>
+      <c r="P3" s="2">
+        <v>0</v>
+      </c>
+      <c r="Q3" s="2">
+        <v>0</v>
+      </c>
+      <c r="R3" s="2">
+        <v>0</v>
+      </c>
+      <c r="S3" s="2">
+        <v>0</v>
+      </c>
+      <c r="T3" s="2">
+        <v>0</v>
+      </c>
+      <c r="U3" s="2">
+        <v>0</v>
+      </c>
+      <c r="V3" s="2">
+        <v>0</v>
+      </c>
+      <c r="W3" s="2">
+        <v>0</v>
+      </c>
+      <c r="X3" s="2">
+        <v>0</v>
+      </c>
+      <c r="Y3" s="2">
+        <v>0</v>
+      </c>
+      <c r="Z3" s="5">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="4" spans="1:26" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A4" s="17" t="s">
+        <v>1</v>
+      </c>
+      <c r="B4" s="9">
         <v>10</v>
       </c>
-      <c r="G3" s="3">
+      <c r="C4" s="3">
         <v>10</v>
       </c>
-      <c r="H3" s="3">
+      <c r="D4" s="3">
+        <v>8</v>
+      </c>
+      <c r="E4" s="3">
+        <v>9</v>
+      </c>
+      <c r="F4" s="3">
         <v>10</v>
       </c>
-      <c r="I3" s="3">
+      <c r="G4" s="3">
+        <v>8</v>
+      </c>
+      <c r="H4" s="3">
+        <v>7</v>
+      </c>
+      <c r="I4" s="2">
+        <v>0</v>
+      </c>
+      <c r="J4" s="2">
+        <v>0</v>
+      </c>
+      <c r="K4" s="2">
+        <v>0</v>
+      </c>
+      <c r="L4" s="2">
+        <v>0</v>
+      </c>
+      <c r="M4" s="2">
+        <v>0</v>
+      </c>
+      <c r="N4" s="2">
+        <v>0</v>
+      </c>
+      <c r="O4" s="2">
+        <v>0</v>
+      </c>
+      <c r="P4" s="2">
+        <v>0</v>
+      </c>
+      <c r="Q4" s="2">
+        <v>0</v>
+      </c>
+      <c r="R4" s="2">
+        <v>0</v>
+      </c>
+      <c r="S4" s="2">
+        <v>0</v>
+      </c>
+      <c r="T4" s="2">
+        <v>0</v>
+      </c>
+      <c r="U4" s="2">
+        <v>0</v>
+      </c>
+      <c r="V4" s="2">
+        <v>0</v>
+      </c>
+      <c r="W4" s="2">
+        <v>0</v>
+      </c>
+      <c r="X4" s="2">
+        <v>0</v>
+      </c>
+      <c r="Y4" s="2">
+        <v>0</v>
+      </c>
+      <c r="Z4" s="5">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="5" spans="1:26" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A5" s="17" t="s">
+        <v>2</v>
+      </c>
+      <c r="B5" s="9">
         <v>10</v>
       </c>
-      <c r="J3" s="3">
+      <c r="C5" s="3">
         <v>10</v>
       </c>
-      <c r="K3" s="3">
+      <c r="D5" s="3">
+        <v>9</v>
+      </c>
+      <c r="E5" s="3">
         <v>10</v>
       </c>
-      <c r="L3" s="3">
+      <c r="F5" s="3">
+        <v>9</v>
+      </c>
+      <c r="G5" s="3">
+        <v>9</v>
+      </c>
+      <c r="H5" s="3">
         <v>10</v>
       </c>
-      <c r="M3" s="3">
-        <v>10</v>
-      </c>
-      <c r="N3" s="3">
-        <v>10</v>
-      </c>
-      <c r="O3" s="3">
-        <v>10</v>
-      </c>
-      <c r="P3" s="3">
-        <v>10</v>
-      </c>
-      <c r="Q3" s="3">
-        <v>10</v>
-      </c>
-      <c r="R3" s="3">
-        <v>10</v>
-      </c>
-      <c r="S3" s="3">
-        <v>10</v>
-      </c>
-      <c r="T3" s="3">
-        <v>10</v>
-      </c>
-      <c r="U3" s="3">
-        <v>10</v>
-      </c>
-      <c r="V3" s="3">
-        <v>10</v>
-      </c>
-      <c r="W3" s="3">
-        <v>10</v>
-      </c>
-      <c r="X3" s="3">
-        <v>10</v>
-      </c>
-      <c r="Y3" s="3">
-        <v>10</v>
-      </c>
-      <c r="Z3" s="6">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="4" spans="1:26" x14ac:dyDescent="0.25">
-      <c r="A4" s="13" t="s">
-        <v>1</v>
-      </c>
-      <c r="B4" s="11">
-        <v>10</v>
-      </c>
-      <c r="C4" s="4">
-        <v>10</v>
-      </c>
-      <c r="D4" s="4">
-        <v>10</v>
-      </c>
-      <c r="E4" s="4">
-        <v>10</v>
-      </c>
-      <c r="F4" s="4">
-        <v>10</v>
-      </c>
-      <c r="G4" s="4">
-        <v>10</v>
-      </c>
-      <c r="H4" s="4">
-        <v>10</v>
-      </c>
-      <c r="I4" s="4">
-        <v>10</v>
-      </c>
-      <c r="J4" s="4">
-        <v>10</v>
-      </c>
-      <c r="K4" s="4">
-        <v>10</v>
-      </c>
-      <c r="L4" s="4">
-        <v>10</v>
-      </c>
-      <c r="M4" s="4">
-        <v>10</v>
-      </c>
-      <c r="N4" s="4">
-        <v>10</v>
-      </c>
-      <c r="O4" s="4">
-        <v>10</v>
-      </c>
-      <c r="P4" s="4">
-        <v>10</v>
-      </c>
-      <c r="Q4" s="4">
-        <v>10</v>
-      </c>
-      <c r="R4" s="4">
-        <v>10</v>
-      </c>
-      <c r="S4" s="4">
-        <v>10</v>
-      </c>
-      <c r="T4" s="4">
-        <v>10</v>
-      </c>
-      <c r="U4" s="4">
-        <v>10</v>
-      </c>
-      <c r="V4" s="4">
-        <v>10</v>
-      </c>
-      <c r="W4" s="4">
-        <v>10</v>
-      </c>
-      <c r="X4" s="4">
-        <v>10</v>
-      </c>
-      <c r="Y4" s="4">
-        <v>10</v>
-      </c>
-      <c r="Z4" s="7">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="5" spans="1:26" x14ac:dyDescent="0.25">
-      <c r="A5" s="13" t="s">
-        <v>2</v>
-      </c>
-      <c r="B5" s="11">
-        <v>10</v>
-      </c>
-      <c r="C5" s="4">
-        <v>10</v>
-      </c>
-      <c r="D5" s="4">
-        <v>10</v>
-      </c>
-      <c r="E5" s="4">
-        <v>10</v>
-      </c>
-      <c r="F5" s="4">
-        <v>10</v>
-      </c>
-      <c r="G5" s="4">
-        <v>10</v>
-      </c>
-      <c r="H5" s="4">
-        <v>10</v>
-      </c>
-      <c r="I5" s="4">
-        <v>10</v>
-      </c>
-      <c r="J5" s="4">
-        <v>10</v>
-      </c>
-      <c r="K5" s="4">
-        <v>10</v>
-      </c>
-      <c r="L5" s="4">
-        <v>10</v>
-      </c>
-      <c r="M5" s="4">
-        <v>10</v>
-      </c>
-      <c r="N5" s="4">
-        <v>10</v>
-      </c>
-      <c r="O5" s="4">
-        <v>10</v>
-      </c>
-      <c r="P5" s="4">
-        <v>10</v>
-      </c>
-      <c r="Q5" s="4">
-        <v>10</v>
-      </c>
-      <c r="R5" s="4">
-        <v>10</v>
-      </c>
-      <c r="S5" s="4">
-        <v>10</v>
-      </c>
-      <c r="T5" s="4">
-        <v>10</v>
-      </c>
-      <c r="U5" s="4">
-        <v>10</v>
-      </c>
-      <c r="V5" s="4">
-        <v>10</v>
-      </c>
-      <c r="W5" s="4">
-        <v>10</v>
-      </c>
-      <c r="X5" s="4">
-        <v>10</v>
-      </c>
-      <c r="Y5" s="4">
-        <v>10</v>
-      </c>
-      <c r="Z5" s="7">
-        <v>10</v>
+      <c r="I5" s="2">
+        <v>0</v>
+      </c>
+      <c r="J5" s="2">
+        <v>0</v>
+      </c>
+      <c r="K5" s="2">
+        <v>0</v>
+      </c>
+      <c r="L5" s="2">
+        <v>0</v>
+      </c>
+      <c r="M5" s="2">
+        <v>0</v>
+      </c>
+      <c r="N5" s="2">
+        <v>0</v>
+      </c>
+      <c r="O5" s="2">
+        <v>0</v>
+      </c>
+      <c r="P5" s="2">
+        <v>0</v>
+      </c>
+      <c r="Q5" s="2">
+        <v>0</v>
+      </c>
+      <c r="R5" s="2">
+        <v>0</v>
+      </c>
+      <c r="S5" s="2">
+        <v>0</v>
+      </c>
+      <c r="T5" s="2">
+        <v>0</v>
+      </c>
+      <c r="U5" s="2">
+        <v>0</v>
+      </c>
+      <c r="V5" s="2">
+        <v>0</v>
+      </c>
+      <c r="W5" s="2">
+        <v>0</v>
+      </c>
+      <c r="X5" s="2">
+        <v>0</v>
+      </c>
+      <c r="Y5" s="2">
+        <v>0</v>
+      </c>
+      <c r="Z5" s="5">
+        <v>0</v>
       </c>
     </row>
     <row r="6" spans="1:26" x14ac:dyDescent="0.25">
-      <c r="A6" s="13" t="s">
+      <c r="A6" s="17" t="s">
         <v>3</v>
       </c>
-      <c r="B6" s="11">
+      <c r="B6" s="9">
         <v>10</v>
       </c>
-      <c r="C6" s="4">
+      <c r="C6" s="3">
         <v>10</v>
       </c>
-      <c r="D6" s="4">
+      <c r="D6" s="3">
         <v>10</v>
       </c>
-      <c r="E6" s="4">
+      <c r="E6" s="3">
+        <v>8</v>
+      </c>
+      <c r="F6" s="3">
+        <v>7</v>
+      </c>
+      <c r="G6" s="3">
         <v>10</v>
       </c>
-      <c r="F6" s="4">
-        <v>10</v>
-      </c>
-      <c r="G6" s="4">
-        <v>10</v>
-      </c>
-      <c r="H6" s="4">
-        <v>10</v>
-      </c>
-      <c r="I6" s="4">
-        <v>10</v>
-      </c>
-      <c r="J6" s="4">
-        <v>10</v>
-      </c>
-      <c r="K6" s="4">
-        <v>10</v>
-      </c>
-      <c r="L6" s="4">
-        <v>10</v>
-      </c>
-      <c r="M6" s="4">
-        <v>10</v>
-      </c>
-      <c r="N6" s="4">
-        <v>10</v>
-      </c>
-      <c r="O6" s="4">
-        <v>10</v>
-      </c>
-      <c r="P6" s="4">
-        <v>10</v>
-      </c>
-      <c r="Q6" s="4">
-        <v>10</v>
-      </c>
-      <c r="R6" s="4">
-        <v>10</v>
-      </c>
-      <c r="S6" s="4">
-        <v>10</v>
-      </c>
-      <c r="T6" s="4">
-        <v>10</v>
-      </c>
-      <c r="U6" s="4">
-        <v>10</v>
-      </c>
-      <c r="V6" s="4">
-        <v>10</v>
-      </c>
-      <c r="W6" s="4">
-        <v>10</v>
-      </c>
-      <c r="X6" s="4">
-        <v>10</v>
-      </c>
-      <c r="Y6" s="4">
-        <v>10</v>
-      </c>
-      <c r="Z6" s="7">
-        <v>10</v>
+      <c r="H6" s="3">
+        <v>9</v>
+      </c>
+      <c r="I6" s="2">
+        <v>0</v>
+      </c>
+      <c r="J6" s="2">
+        <v>0</v>
+      </c>
+      <c r="K6" s="2">
+        <v>0</v>
+      </c>
+      <c r="L6" s="2">
+        <v>0</v>
+      </c>
+      <c r="M6" s="2">
+        <v>0</v>
+      </c>
+      <c r="N6" s="2">
+        <v>0</v>
+      </c>
+      <c r="O6" s="2">
+        <v>0</v>
+      </c>
+      <c r="P6" s="2">
+        <v>0</v>
+      </c>
+      <c r="Q6" s="2">
+        <v>0</v>
+      </c>
+      <c r="R6" s="2">
+        <v>0</v>
+      </c>
+      <c r="S6" s="2">
+        <v>0</v>
+      </c>
+      <c r="T6" s="2">
+        <v>0</v>
+      </c>
+      <c r="U6" s="2">
+        <v>0</v>
+      </c>
+      <c r="V6" s="2">
+        <v>0</v>
+      </c>
+      <c r="W6" s="2">
+        <v>0</v>
+      </c>
+      <c r="X6" s="2">
+        <v>0</v>
+      </c>
+      <c r="Y6" s="2">
+        <v>0</v>
+      </c>
+      <c r="Z6" s="5">
+        <v>0</v>
       </c>
     </row>
     <row r="7" spans="1:26" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A7" s="13"/>
-      <c r="B7" s="12">
+      <c r="A7" s="17" t="s">
+        <v>10</v>
+      </c>
+      <c r="B7" s="10">
         <f>AVERAGE(B3:B6)</f>
         <v>10</v>
       </c>
-      <c r="C7" s="5">
+      <c r="C7" s="4">
         <f>AVERAGE(C3:C6)</f>
         <v>10</v>
       </c>
-      <c r="D7" s="8">
+      <c r="D7" s="6">
         <f>AVERAGE(D3:D6)</f>
-        <v>10</v>
-      </c>
-      <c r="E7" s="8">
+        <v>9.25</v>
+      </c>
+      <c r="E7" s="6">
         <f t="shared" ref="E7:Z7" si="0">AVERAGE(E3:E6)</f>
-        <v>10</v>
-      </c>
-      <c r="F7" s="8">
+        <v>9</v>
+      </c>
+      <c r="F7" s="6">
         <f t="shared" si="0"/>
-        <v>10</v>
-      </c>
-      <c r="G7" s="8">
+        <v>8.75</v>
+      </c>
+      <c r="G7" s="6">
         <f t="shared" si="0"/>
-        <v>10</v>
-      </c>
-      <c r="H7" s="8">
+        <v>9.25</v>
+      </c>
+      <c r="H7" s="6">
         <f t="shared" si="0"/>
-        <v>10</v>
-      </c>
-      <c r="I7" s="8">
+        <v>8.5</v>
+      </c>
+      <c r="I7" s="6">
         <f t="shared" si="0"/>
-        <v>10</v>
-      </c>
-      <c r="J7" s="8">
+        <v>0</v>
+      </c>
+      <c r="J7" s="6">
         <f t="shared" si="0"/>
-        <v>10</v>
-      </c>
-      <c r="K7" s="8">
+        <v>0</v>
+      </c>
+      <c r="K7" s="6">
         <f t="shared" si="0"/>
-        <v>10</v>
-      </c>
-      <c r="L7" s="8">
+        <v>0</v>
+      </c>
+      <c r="L7" s="6">
         <f t="shared" si="0"/>
-        <v>10</v>
-      </c>
-      <c r="M7" s="8">
+        <v>0</v>
+      </c>
+      <c r="M7" s="6">
         <f t="shared" si="0"/>
-        <v>10</v>
-      </c>
-      <c r="N7" s="8">
+        <v>0</v>
+      </c>
+      <c r="N7" s="6">
         <f t="shared" si="0"/>
-        <v>10</v>
-      </c>
-      <c r="O7" s="8">
+        <v>0</v>
+      </c>
+      <c r="O7" s="6">
         <f t="shared" si="0"/>
-        <v>10</v>
-      </c>
-      <c r="P7" s="8">
+        <v>0</v>
+      </c>
+      <c r="P7" s="6">
         <f t="shared" si="0"/>
-        <v>10</v>
-      </c>
-      <c r="Q7" s="8">
+        <v>0</v>
+      </c>
+      <c r="Q7" s="6">
         <f t="shared" si="0"/>
-        <v>10</v>
-      </c>
-      <c r="R7" s="8">
+        <v>0</v>
+      </c>
+      <c r="R7" s="6">
         <f t="shared" si="0"/>
-        <v>10</v>
-      </c>
-      <c r="S7" s="8">
+        <v>0</v>
+      </c>
+      <c r="S7" s="6">
         <f t="shared" si="0"/>
-        <v>10</v>
-      </c>
-      <c r="T7" s="8">
+        <v>0</v>
+      </c>
+      <c r="T7" s="6">
         <f t="shared" si="0"/>
-        <v>10</v>
-      </c>
-      <c r="U7" s="8">
+        <v>0</v>
+      </c>
+      <c r="U7" s="6">
         <f t="shared" si="0"/>
-        <v>10</v>
-      </c>
-      <c r="V7" s="8">
+        <v>0</v>
+      </c>
+      <c r="V7" s="6">
         <f t="shared" si="0"/>
-        <v>10</v>
-      </c>
-      <c r="W7" s="8">
+        <v>0</v>
+      </c>
+      <c r="W7" s="6">
         <f t="shared" si="0"/>
-        <v>10</v>
-      </c>
-      <c r="X7" s="8">
+        <v>0</v>
+      </c>
+      <c r="X7" s="6">
         <f t="shared" si="0"/>
-        <v>10</v>
-      </c>
-      <c r="Y7" s="8">
+        <v>0</v>
+      </c>
+      <c r="Y7" s="6">
         <f t="shared" si="0"/>
-        <v>10</v>
-      </c>
-      <c r="Z7" s="9">
+        <v>0</v>
+      </c>
+      <c r="Z7" s="7">
         <f t="shared" si="0"/>
-        <v>10</v>
+        <v>0</v>
       </c>
     </row>
     <row r="8" spans="1:26" x14ac:dyDescent="0.25">
-      <c r="A8" s="13"/>
-      <c r="B8" s="2"/>
-      <c r="C8" s="2"/>
-      <c r="D8" s="2"/>
-      <c r="E8" s="2"/>
-      <c r="F8" s="2"/>
-      <c r="G8" s="2"/>
-      <c r="H8" s="2"/>
-      <c r="I8" s="2"/>
-      <c r="J8" s="2"/>
-      <c r="K8" s="2"/>
-      <c r="L8" s="2"/>
-      <c r="M8" s="2"/>
-      <c r="N8" s="2"/>
-      <c r="O8" s="2"/>
-      <c r="P8" s="2"/>
-      <c r="Q8" s="2"/>
-      <c r="R8" s="2"/>
-      <c r="S8" s="2"/>
-      <c r="T8" s="2"/>
-      <c r="U8" s="2"/>
-      <c r="V8" s="2"/>
-      <c r="W8" s="2"/>
-      <c r="X8" s="2"/>
-      <c r="Y8" s="2"/>
-      <c r="Z8" s="2"/>
+      <c r="A8" s="17"/>
+      <c r="B8" s="1"/>
+      <c r="C8" s="1"/>
+      <c r="D8" s="1"/>
+      <c r="E8" s="1"/>
+      <c r="F8" s="1"/>
+      <c r="G8" s="1"/>
+      <c r="H8" s="1"/>
+      <c r="I8" s="1"/>
+      <c r="J8" s="1"/>
+      <c r="K8" s="1"/>
+      <c r="L8" s="1"/>
+      <c r="M8" s="1"/>
+      <c r="N8" s="1"/>
+      <c r="O8" s="1"/>
+      <c r="P8" s="1"/>
+      <c r="Q8" s="1"/>
+      <c r="R8" s="1"/>
+      <c r="S8" s="1"/>
+      <c r="T8" s="1"/>
+      <c r="U8" s="1"/>
+      <c r="V8" s="1"/>
+      <c r="W8" s="1"/>
+      <c r="X8" s="1"/>
+      <c r="Y8" s="1"/>
+      <c r="Z8" s="16"/>
     </row>
     <row r="9" spans="1:26" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A9" s="15" t="s">
+      <c r="A9" s="18" t="s">
         <v>5</v>
       </c>
-      <c r="B9" s="2"/>
-      <c r="C9" s="2"/>
-      <c r="D9" s="2"/>
-      <c r="E9" s="2"/>
-      <c r="F9" s="2"/>
-      <c r="G9" s="2"/>
-      <c r="H9" s="2"/>
-      <c r="I9" s="2"/>
-      <c r="J9" s="2"/>
-      <c r="K9" s="2"/>
-      <c r="L9" s="2"/>
-      <c r="M9" s="2"/>
-      <c r="N9" s="2"/>
-      <c r="O9" s="2"/>
-      <c r="P9" s="2"/>
-      <c r="Q9" s="2"/>
-      <c r="R9" s="2"/>
-      <c r="S9" s="2"/>
-      <c r="T9" s="2"/>
-      <c r="U9" s="2"/>
-      <c r="V9" s="2"/>
-      <c r="W9" s="2"/>
-      <c r="X9" s="2"/>
-      <c r="Y9" s="2"/>
-      <c r="Z9" s="2"/>
+      <c r="B9" s="1"/>
+      <c r="C9" s="1"/>
+      <c r="D9" s="1"/>
+      <c r="E9" s="1"/>
+      <c r="F9" s="1"/>
+      <c r="G9" s="1"/>
+      <c r="H9" s="1"/>
+      <c r="I9" s="1"/>
+      <c r="J9" s="1"/>
+      <c r="K9" s="1"/>
+      <c r="L9" s="1"/>
+      <c r="M9" s="1"/>
+      <c r="N9" s="1"/>
+      <c r="O9" s="1"/>
+      <c r="P9" s="1"/>
+      <c r="Q9" s="1"/>
+      <c r="R9" s="1"/>
+      <c r="S9" s="1"/>
+      <c r="T9" s="1"/>
+      <c r="U9" s="1"/>
+      <c r="V9" s="1"/>
+      <c r="W9" s="1"/>
+      <c r="X9" s="1"/>
+      <c r="Y9" s="1"/>
+      <c r="Z9" s="16"/>
     </row>
     <row r="10" spans="1:26" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A10" s="13" t="s">
-        <v>0</v>
-      </c>
-      <c r="B10" s="10">
+      <c r="A10" s="17" t="s">
+        <v>0</v>
+      </c>
+      <c r="B10" s="8">
         <v>9</v>
       </c>
-      <c r="C10" s="3">
+      <c r="C10" s="2">
         <v>9</v>
       </c>
-      <c r="D10" s="3">
+      <c r="D10" s="2">
         <v>9</v>
       </c>
-      <c r="E10" s="3">
+      <c r="E10" s="2">
         <v>9</v>
       </c>
-      <c r="F10" s="3">
-        <v>9</v>
-      </c>
-      <c r="G10" s="3">
-        <v>9</v>
-      </c>
-      <c r="H10" s="3">
-        <v>9</v>
-      </c>
-      <c r="I10" s="3">
-        <v>9</v>
-      </c>
-      <c r="J10" s="3">
-        <v>9</v>
-      </c>
-      <c r="K10" s="3">
-        <v>9</v>
-      </c>
-      <c r="L10" s="3">
-        <v>9</v>
-      </c>
-      <c r="M10" s="3">
-        <v>9</v>
-      </c>
-      <c r="N10" s="3">
-        <v>9</v>
-      </c>
-      <c r="O10" s="3">
-        <v>9</v>
-      </c>
-      <c r="P10" s="3">
-        <v>9</v>
-      </c>
-      <c r="Q10" s="3">
-        <v>9</v>
-      </c>
-      <c r="R10" s="3">
-        <v>9</v>
-      </c>
-      <c r="S10" s="3">
-        <v>9</v>
-      </c>
-      <c r="T10" s="3">
-        <v>9</v>
-      </c>
-      <c r="U10" s="3">
-        <v>9</v>
-      </c>
-      <c r="V10" s="3">
-        <v>9</v>
-      </c>
-      <c r="W10" s="3">
-        <v>9</v>
-      </c>
-      <c r="X10" s="3">
-        <v>9</v>
-      </c>
-      <c r="Y10" s="3">
-        <v>9</v>
-      </c>
-      <c r="Z10" s="6">
-        <v>9</v>
+      <c r="F10" s="2">
+        <v>7</v>
+      </c>
+      <c r="G10" s="2">
+        <v>10</v>
+      </c>
+      <c r="H10" s="2">
+        <v>8</v>
+      </c>
+      <c r="I10" s="2">
+        <v>0</v>
+      </c>
+      <c r="J10" s="2">
+        <v>0</v>
+      </c>
+      <c r="K10" s="2">
+        <v>0</v>
+      </c>
+      <c r="L10" s="2">
+        <v>0</v>
+      </c>
+      <c r="M10" s="2">
+        <v>0</v>
+      </c>
+      <c r="N10" s="2">
+        <v>0</v>
+      </c>
+      <c r="O10" s="2">
+        <v>0</v>
+      </c>
+      <c r="P10" s="2">
+        <v>0</v>
+      </c>
+      <c r="Q10" s="2">
+        <v>0</v>
+      </c>
+      <c r="R10" s="2">
+        <v>0</v>
+      </c>
+      <c r="S10" s="2">
+        <v>0</v>
+      </c>
+      <c r="T10" s="2">
+        <v>0</v>
+      </c>
+      <c r="U10" s="2">
+        <v>0</v>
+      </c>
+      <c r="V10" s="2">
+        <v>0</v>
+      </c>
+      <c r="W10" s="2">
+        <v>0</v>
+      </c>
+      <c r="X10" s="2">
+        <v>0</v>
+      </c>
+      <c r="Y10" s="2">
+        <v>0</v>
+      </c>
+      <c r="Z10" s="5">
+        <v>0</v>
       </c>
     </row>
     <row r="11" spans="1:26" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A11" s="13" t="s">
+      <c r="A11" s="17" t="s">
         <v>1</v>
       </c>
-      <c r="B11" s="10">
+      <c r="B11" s="8">
         <v>9</v>
       </c>
-      <c r="C11" s="3">
+      <c r="C11" s="2">
         <v>9</v>
       </c>
-      <c r="D11" s="3">
+      <c r="D11" s="2">
+        <v>8</v>
+      </c>
+      <c r="E11" s="2">
+        <v>7</v>
+      </c>
+      <c r="F11" s="2">
+        <v>10</v>
+      </c>
+      <c r="G11" s="2">
         <v>9</v>
       </c>
-      <c r="E11" s="3">
+      <c r="H11" s="2">
         <v>9</v>
       </c>
-      <c r="F11" s="3">
-        <v>9</v>
-      </c>
-      <c r="G11" s="3">
-        <v>9</v>
-      </c>
-      <c r="H11" s="3">
-        <v>9</v>
-      </c>
-      <c r="I11" s="3">
-        <v>9</v>
-      </c>
-      <c r="J11" s="3">
-        <v>9</v>
-      </c>
-      <c r="K11" s="3">
-        <v>9</v>
-      </c>
-      <c r="L11" s="3">
-        <v>9</v>
-      </c>
-      <c r="M11" s="3">
-        <v>9</v>
-      </c>
-      <c r="N11" s="3">
-        <v>9</v>
-      </c>
-      <c r="O11" s="3">
-        <v>9</v>
-      </c>
-      <c r="P11" s="3">
-        <v>9</v>
-      </c>
-      <c r="Q11" s="3">
-        <v>9</v>
-      </c>
-      <c r="R11" s="3">
-        <v>9</v>
-      </c>
-      <c r="S11" s="3">
-        <v>9</v>
-      </c>
-      <c r="T11" s="3">
-        <v>9</v>
-      </c>
-      <c r="U11" s="3">
-        <v>9</v>
-      </c>
-      <c r="V11" s="3">
-        <v>9</v>
-      </c>
-      <c r="W11" s="3">
-        <v>9</v>
-      </c>
-      <c r="X11" s="3">
-        <v>9</v>
-      </c>
-      <c r="Y11" s="3">
-        <v>9</v>
-      </c>
-      <c r="Z11" s="6">
-        <v>9</v>
+      <c r="I11" s="2">
+        <v>0</v>
+      </c>
+      <c r="J11" s="2">
+        <v>0</v>
+      </c>
+      <c r="K11" s="2">
+        <v>0</v>
+      </c>
+      <c r="L11" s="2">
+        <v>0</v>
+      </c>
+      <c r="M11" s="2">
+        <v>0</v>
+      </c>
+      <c r="N11" s="2">
+        <v>0</v>
+      </c>
+      <c r="O11" s="2">
+        <v>0</v>
+      </c>
+      <c r="P11" s="2">
+        <v>0</v>
+      </c>
+      <c r="Q11" s="2">
+        <v>0</v>
+      </c>
+      <c r="R11" s="2">
+        <v>0</v>
+      </c>
+      <c r="S11" s="2">
+        <v>0</v>
+      </c>
+      <c r="T11" s="2">
+        <v>0</v>
+      </c>
+      <c r="U11" s="2">
+        <v>0</v>
+      </c>
+      <c r="V11" s="2">
+        <v>0</v>
+      </c>
+      <c r="W11" s="2">
+        <v>0</v>
+      </c>
+      <c r="X11" s="2">
+        <v>0</v>
+      </c>
+      <c r="Y11" s="2">
+        <v>0</v>
+      </c>
+      <c r="Z11" s="5">
+        <v>0</v>
       </c>
     </row>
     <row r="12" spans="1:26" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A12" s="13" t="s">
+      <c r="A12" s="17" t="s">
         <v>2</v>
       </c>
-      <c r="B12" s="10">
+      <c r="B12" s="8">
         <v>9</v>
       </c>
-      <c r="C12" s="3">
+      <c r="C12" s="2">
         <v>9</v>
       </c>
-      <c r="D12" s="3">
+      <c r="D12" s="2">
+        <v>10</v>
+      </c>
+      <c r="E12" s="2">
+        <v>10</v>
+      </c>
+      <c r="F12" s="2">
         <v>9</v>
       </c>
-      <c r="E12" s="3">
+      <c r="G12" s="2">
         <v>9</v>
       </c>
-      <c r="F12" s="3">
-        <v>9</v>
-      </c>
-      <c r="G12" s="3">
-        <v>9</v>
-      </c>
-      <c r="H12" s="3">
-        <v>9</v>
-      </c>
-      <c r="I12" s="3">
-        <v>9</v>
-      </c>
-      <c r="J12" s="3">
-        <v>9</v>
-      </c>
-      <c r="K12" s="3">
-        <v>9</v>
-      </c>
-      <c r="L12" s="3">
-        <v>9</v>
-      </c>
-      <c r="M12" s="3">
-        <v>9</v>
-      </c>
-      <c r="N12" s="3">
-        <v>9</v>
-      </c>
-      <c r="O12" s="3">
-        <v>9</v>
-      </c>
-      <c r="P12" s="3">
-        <v>9</v>
-      </c>
-      <c r="Q12" s="3">
-        <v>9</v>
-      </c>
-      <c r="R12" s="3">
-        <v>9</v>
-      </c>
-      <c r="S12" s="3">
-        <v>9</v>
-      </c>
-      <c r="T12" s="3">
-        <v>9</v>
-      </c>
-      <c r="U12" s="3">
-        <v>9</v>
-      </c>
-      <c r="V12" s="3">
-        <v>9</v>
-      </c>
-      <c r="W12" s="3">
-        <v>9</v>
-      </c>
-      <c r="X12" s="3">
-        <v>9</v>
-      </c>
-      <c r="Y12" s="3">
-        <v>9</v>
-      </c>
-      <c r="Z12" s="6">
-        <v>9</v>
+      <c r="H12" s="2">
+        <v>7</v>
+      </c>
+      <c r="I12" s="2">
+        <v>0</v>
+      </c>
+      <c r="J12" s="2">
+        <v>0</v>
+      </c>
+      <c r="K12" s="2">
+        <v>0</v>
+      </c>
+      <c r="L12" s="2">
+        <v>0</v>
+      </c>
+      <c r="M12" s="2">
+        <v>0</v>
+      </c>
+      <c r="N12" s="2">
+        <v>0</v>
+      </c>
+      <c r="O12" s="2">
+        <v>0</v>
+      </c>
+      <c r="P12" s="2">
+        <v>0</v>
+      </c>
+      <c r="Q12" s="2">
+        <v>0</v>
+      </c>
+      <c r="R12" s="2">
+        <v>0</v>
+      </c>
+      <c r="S12" s="2">
+        <v>0</v>
+      </c>
+      <c r="T12" s="2">
+        <v>0</v>
+      </c>
+      <c r="U12" s="2">
+        <v>0</v>
+      </c>
+      <c r="V12" s="2">
+        <v>0</v>
+      </c>
+      <c r="W12" s="2">
+        <v>0</v>
+      </c>
+      <c r="X12" s="2">
+        <v>0</v>
+      </c>
+      <c r="Y12" s="2">
+        <v>0</v>
+      </c>
+      <c r="Z12" s="5">
+        <v>0</v>
       </c>
     </row>
     <row r="13" spans="1:26" x14ac:dyDescent="0.25">
-      <c r="A13" s="13" t="s">
+      <c r="A13" s="17" t="s">
         <v>3</v>
       </c>
-      <c r="B13" s="10">
+      <c r="B13" s="8">
         <v>9</v>
       </c>
-      <c r="C13" s="3">
+      <c r="C13" s="2">
         <v>9</v>
       </c>
-      <c r="D13" s="3">
+      <c r="D13" s="2">
+        <v>8</v>
+      </c>
+      <c r="E13" s="2">
+        <v>8</v>
+      </c>
+      <c r="F13" s="2">
+        <v>8</v>
+      </c>
+      <c r="G13" s="2">
         <v>9</v>
       </c>
-      <c r="E13" s="3">
-        <v>9</v>
-      </c>
-      <c r="F13" s="3">
-        <v>9</v>
-      </c>
-      <c r="G13" s="3">
-        <v>9</v>
-      </c>
-      <c r="H13" s="3">
-        <v>9</v>
-      </c>
-      <c r="I13" s="3">
-        <v>9</v>
-      </c>
-      <c r="J13" s="3">
-        <v>9</v>
-      </c>
-      <c r="K13" s="3">
-        <v>9</v>
-      </c>
-      <c r="L13" s="3">
-        <v>9</v>
-      </c>
-      <c r="M13" s="3">
-        <v>9</v>
-      </c>
-      <c r="N13" s="3">
-        <v>9</v>
-      </c>
-      <c r="O13" s="3">
-        <v>9</v>
-      </c>
-      <c r="P13" s="3">
-        <v>9</v>
-      </c>
-      <c r="Q13" s="3">
-        <v>9</v>
-      </c>
-      <c r="R13" s="3">
-        <v>9</v>
-      </c>
-      <c r="S13" s="3">
-        <v>9</v>
-      </c>
-      <c r="T13" s="3">
-        <v>9</v>
-      </c>
-      <c r="U13" s="3">
-        <v>9</v>
-      </c>
-      <c r="V13" s="3">
-        <v>9</v>
-      </c>
-      <c r="W13" s="3">
-        <v>9</v>
-      </c>
-      <c r="X13" s="3">
-        <v>9</v>
-      </c>
-      <c r="Y13" s="3">
-        <v>9</v>
-      </c>
-      <c r="Z13" s="6">
-        <v>9</v>
+      <c r="H13" s="2">
+        <v>10</v>
+      </c>
+      <c r="I13" s="2">
+        <v>0</v>
+      </c>
+      <c r="J13" s="2">
+        <v>0</v>
+      </c>
+      <c r="K13" s="2">
+        <v>0</v>
+      </c>
+      <c r="L13" s="2">
+        <v>0</v>
+      </c>
+      <c r="M13" s="2">
+        <v>0</v>
+      </c>
+      <c r="N13" s="2">
+        <v>0</v>
+      </c>
+      <c r="O13" s="2">
+        <v>0</v>
+      </c>
+      <c r="P13" s="2">
+        <v>0</v>
+      </c>
+      <c r="Q13" s="2">
+        <v>0</v>
+      </c>
+      <c r="R13" s="2">
+        <v>0</v>
+      </c>
+      <c r="S13" s="2">
+        <v>0</v>
+      </c>
+      <c r="T13" s="2">
+        <v>0</v>
+      </c>
+      <c r="U13" s="2">
+        <v>0</v>
+      </c>
+      <c r="V13" s="2">
+        <v>0</v>
+      </c>
+      <c r="W13" s="2">
+        <v>0</v>
+      </c>
+      <c r="X13" s="2">
+        <v>0</v>
+      </c>
+      <c r="Y13" s="2">
+        <v>0</v>
+      </c>
+      <c r="Z13" s="5">
+        <v>0</v>
       </c>
     </row>
     <row r="14" spans="1:26" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A14" s="13"/>
-      <c r="B14" s="12">
+      <c r="A14" s="17" t="s">
+        <v>10</v>
+      </c>
+      <c r="B14" s="10">
         <f>AVERAGE(B10:B13)</f>
         <v>9</v>
       </c>
-      <c r="C14" s="5">
+      <c r="C14" s="4">
         <f>AVERAGE(C10:C13)</f>
         <v>9</v>
       </c>
-      <c r="D14" s="8">
+      <c r="D14" s="6">
         <f>AVERAGE(D10:D13)</f>
-        <v>9</v>
-      </c>
-      <c r="E14" s="8">
+        <v>8.75</v>
+      </c>
+      <c r="E14" s="6">
         <f t="shared" ref="E14:Z14" si="1">AVERAGE(E10:E13)</f>
-        <v>9</v>
-      </c>
-      <c r="F14" s="8">
+        <v>8.5</v>
+      </c>
+      <c r="F14" s="6">
         <f t="shared" si="1"/>
-        <v>9</v>
-      </c>
-      <c r="G14" s="8">
+        <v>8.5</v>
+      </c>
+      <c r="G14" s="6">
         <f t="shared" si="1"/>
-        <v>9</v>
-      </c>
-      <c r="H14" s="8">
+        <v>9.25</v>
+      </c>
+      <c r="H14" s="6">
         <f t="shared" si="1"/>
-        <v>9</v>
-      </c>
-      <c r="I14" s="8">
+        <v>8.5</v>
+      </c>
+      <c r="I14" s="6">
         <f t="shared" si="1"/>
-        <v>9</v>
-      </c>
-      <c r="J14" s="8">
+        <v>0</v>
+      </c>
+      <c r="J14" s="6">
         <f t="shared" si="1"/>
-        <v>9</v>
-      </c>
-      <c r="K14" s="8">
+        <v>0</v>
+      </c>
+      <c r="K14" s="6">
         <f t="shared" si="1"/>
-        <v>9</v>
-      </c>
-      <c r="L14" s="8">
+        <v>0</v>
+      </c>
+      <c r="L14" s="6">
         <f t="shared" si="1"/>
-        <v>9</v>
-      </c>
-      <c r="M14" s="8">
+        <v>0</v>
+      </c>
+      <c r="M14" s="6">
         <f t="shared" si="1"/>
-        <v>9</v>
-      </c>
-      <c r="N14" s="8">
+        <v>0</v>
+      </c>
+      <c r="N14" s="6">
         <f t="shared" si="1"/>
-        <v>9</v>
-      </c>
-      <c r="O14" s="8">
+        <v>0</v>
+      </c>
+      <c r="O14" s="6">
         <f t="shared" si="1"/>
-        <v>9</v>
-      </c>
-      <c r="P14" s="8">
+        <v>0</v>
+      </c>
+      <c r="P14" s="6">
         <f t="shared" si="1"/>
-        <v>9</v>
-      </c>
-      <c r="Q14" s="8">
+        <v>0</v>
+      </c>
+      <c r="Q14" s="6">
         <f t="shared" si="1"/>
-        <v>9</v>
-      </c>
-      <c r="R14" s="8">
+        <v>0</v>
+      </c>
+      <c r="R14" s="6">
         <f t="shared" si="1"/>
-        <v>9</v>
-      </c>
-      <c r="S14" s="8">
+        <v>0</v>
+      </c>
+      <c r="S14" s="6">
         <f t="shared" si="1"/>
-        <v>9</v>
-      </c>
-      <c r="T14" s="8">
+        <v>0</v>
+      </c>
+      <c r="T14" s="6">
         <f t="shared" si="1"/>
-        <v>9</v>
-      </c>
-      <c r="U14" s="8">
+        <v>0</v>
+      </c>
+      <c r="U14" s="6">
         <f t="shared" si="1"/>
-        <v>9</v>
-      </c>
-      <c r="V14" s="8">
+        <v>0</v>
+      </c>
+      <c r="V14" s="6">
         <f t="shared" si="1"/>
-        <v>9</v>
-      </c>
-      <c r="W14" s="8">
+        <v>0</v>
+      </c>
+      <c r="W14" s="6">
         <f t="shared" si="1"/>
-        <v>9</v>
-      </c>
-      <c r="X14" s="8">
+        <v>0</v>
+      </c>
+      <c r="X14" s="6">
         <f t="shared" si="1"/>
-        <v>9</v>
-      </c>
-      <c r="Y14" s="8">
+        <v>0</v>
+      </c>
+      <c r="Y14" s="6">
         <f t="shared" si="1"/>
-        <v>9</v>
-      </c>
-      <c r="Z14" s="9">
+        <v>0</v>
+      </c>
+      <c r="Z14" s="7">
         <f t="shared" si="1"/>
-        <v>9</v>
+        <v>0</v>
       </c>
     </row>
     <row r="15" spans="1:26" x14ac:dyDescent="0.25">
-      <c r="A15" s="13"/>
-      <c r="B15" s="2"/>
-      <c r="C15" s="2"/>
-      <c r="D15" s="2"/>
-      <c r="E15" s="2"/>
-      <c r="F15" s="2"/>
-      <c r="G15" s="2"/>
-      <c r="H15" s="2"/>
-      <c r="I15" s="2"/>
-      <c r="J15" s="2"/>
-      <c r="K15" s="2"/>
-      <c r="L15" s="2"/>
-      <c r="M15" s="2"/>
-      <c r="N15" s="2"/>
-      <c r="O15" s="2"/>
-      <c r="P15" s="2"/>
-      <c r="Q15" s="2"/>
-      <c r="R15" s="2"/>
-      <c r="S15" s="2"/>
-      <c r="T15" s="2"/>
-      <c r="U15" s="2"/>
-      <c r="V15" s="2"/>
-      <c r="W15" s="2"/>
-      <c r="X15" s="2"/>
-      <c r="Y15" s="2"/>
-      <c r="Z15" s="2"/>
+      <c r="A15" s="17"/>
+      <c r="B15" s="1"/>
+      <c r="C15" s="1"/>
+      <c r="D15" s="1"/>
+      <c r="E15" s="1"/>
+      <c r="F15" s="1"/>
+      <c r="G15" s="1"/>
+      <c r="H15" s="1"/>
+      <c r="I15" s="1"/>
+      <c r="J15" s="1"/>
+      <c r="K15" s="1"/>
+      <c r="L15" s="1"/>
+      <c r="M15" s="1"/>
+      <c r="N15" s="1"/>
+      <c r="O15" s="1"/>
+      <c r="P15" s="1"/>
+      <c r="Q15" s="1"/>
+      <c r="R15" s="1"/>
+      <c r="S15" s="1"/>
+      <c r="T15" s="1"/>
+      <c r="U15" s="1"/>
+      <c r="V15" s="1"/>
+      <c r="W15" s="1"/>
+      <c r="X15" s="1"/>
+      <c r="Y15" s="1"/>
+      <c r="Z15" s="16"/>
     </row>
     <row r="16" spans="1:26" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A16" s="16" t="s">
-        <v>6</v>
-      </c>
-      <c r="B16" s="2"/>
-      <c r="C16" s="2"/>
-      <c r="D16" s="2"/>
-      <c r="E16" s="2"/>
-      <c r="F16" s="2"/>
-      <c r="G16" s="2"/>
-      <c r="H16" s="2"/>
-      <c r="I16" s="2"/>
-      <c r="J16" s="2"/>
-      <c r="K16" s="2"/>
-      <c r="L16" s="2"/>
-      <c r="M16" s="2"/>
-      <c r="N16" s="2"/>
-      <c r="O16" s="2"/>
-      <c r="P16" s="2"/>
-      <c r="Q16" s="2"/>
-      <c r="R16" s="2"/>
-      <c r="S16" s="2"/>
-      <c r="T16" s="2"/>
-      <c r="U16" s="2"/>
-      <c r="V16" s="2"/>
-      <c r="W16" s="2"/>
-      <c r="X16" s="2"/>
-      <c r="Y16" s="2"/>
-      <c r="Z16" s="2"/>
+      <c r="A16" s="19" t="s">
+        <v>7</v>
+      </c>
+      <c r="B16" s="1"/>
+      <c r="C16" s="1"/>
+      <c r="D16" s="1"/>
+      <c r="E16" s="1"/>
+      <c r="F16" s="1"/>
+      <c r="G16" s="1"/>
+      <c r="H16" s="1"/>
+      <c r="I16" s="1"/>
+      <c r="J16" s="1"/>
+      <c r="K16" s="1"/>
+      <c r="L16" s="1"/>
+      <c r="M16" s="1"/>
+      <c r="N16" s="1"/>
+      <c r="O16" s="1"/>
+      <c r="P16" s="1"/>
+      <c r="Q16" s="1"/>
+      <c r="R16" s="1"/>
+      <c r="S16" s="1"/>
+      <c r="T16" s="1"/>
+      <c r="U16" s="1"/>
+      <c r="V16" s="1"/>
+      <c r="W16" s="1"/>
+      <c r="X16" s="1"/>
+      <c r="Y16" s="1"/>
+      <c r="Z16" s="16"/>
     </row>
     <row r="17" spans="1:26" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A17" s="13" t="s">
-        <v>0</v>
-      </c>
-      <c r="B17" s="10">
+      <c r="A17" s="17" t="s">
+        <v>0</v>
+      </c>
+      <c r="B17" s="8">
         <v>8</v>
       </c>
-      <c r="C17" s="3">
+      <c r="C17" s="2">
         <v>8</v>
       </c>
-      <c r="D17" s="3">
+      <c r="D17" s="2">
+        <v>7</v>
+      </c>
+      <c r="E17" s="2">
+        <v>10</v>
+      </c>
+      <c r="F17" s="2">
         <v>8</v>
       </c>
-      <c r="E17" s="3">
-        <v>8</v>
-      </c>
-      <c r="F17" s="3">
-        <v>8</v>
-      </c>
-      <c r="G17" s="3">
-        <v>8</v>
-      </c>
-      <c r="H17" s="3">
-        <v>8</v>
-      </c>
-      <c r="I17" s="3">
-        <v>8</v>
-      </c>
-      <c r="J17" s="3">
-        <v>8</v>
-      </c>
-      <c r="K17" s="3">
-        <v>8</v>
-      </c>
-      <c r="L17" s="3">
-        <v>8</v>
-      </c>
-      <c r="M17" s="3">
-        <v>8</v>
-      </c>
-      <c r="N17" s="3">
-        <v>8</v>
-      </c>
-      <c r="O17" s="3">
-        <v>8</v>
-      </c>
-      <c r="P17" s="3">
-        <v>8</v>
-      </c>
-      <c r="Q17" s="3">
-        <v>8</v>
-      </c>
-      <c r="R17" s="3">
-        <v>8</v>
-      </c>
-      <c r="S17" s="3">
-        <v>8</v>
-      </c>
-      <c r="T17" s="3">
-        <v>8</v>
-      </c>
-      <c r="U17" s="3">
-        <v>8</v>
-      </c>
-      <c r="V17" s="3">
-        <v>8</v>
-      </c>
-      <c r="W17" s="3">
-        <v>8</v>
-      </c>
-      <c r="X17" s="3">
-        <v>8</v>
-      </c>
-      <c r="Y17" s="3">
-        <v>8</v>
-      </c>
-      <c r="Z17" s="6">
-        <v>8</v>
+      <c r="G17" s="2">
+        <v>10</v>
+      </c>
+      <c r="H17" s="2">
+        <v>9</v>
+      </c>
+      <c r="I17" s="2">
+        <v>0</v>
+      </c>
+      <c r="J17" s="2">
+        <v>0</v>
+      </c>
+      <c r="K17" s="2">
+        <v>0</v>
+      </c>
+      <c r="L17" s="2">
+        <v>0</v>
+      </c>
+      <c r="M17" s="2">
+        <v>0</v>
+      </c>
+      <c r="N17" s="2">
+        <v>0</v>
+      </c>
+      <c r="O17" s="2">
+        <v>0</v>
+      </c>
+      <c r="P17" s="2">
+        <v>0</v>
+      </c>
+      <c r="Q17" s="2">
+        <v>0</v>
+      </c>
+      <c r="R17" s="2">
+        <v>0</v>
+      </c>
+      <c r="S17" s="2">
+        <v>0</v>
+      </c>
+      <c r="T17" s="2">
+        <v>0</v>
+      </c>
+      <c r="U17" s="2">
+        <v>0</v>
+      </c>
+      <c r="V17" s="2">
+        <v>0</v>
+      </c>
+      <c r="W17" s="2">
+        <v>0</v>
+      </c>
+      <c r="X17" s="2">
+        <v>0</v>
+      </c>
+      <c r="Y17" s="2">
+        <v>0</v>
+      </c>
+      <c r="Z17" s="5">
+        <v>0</v>
       </c>
     </row>
     <row r="18" spans="1:26" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A18" s="13" t="s">
+      <c r="A18" s="17" t="s">
         <v>1</v>
       </c>
-      <c r="B18" s="10">
+      <c r="B18" s="8">
         <v>8</v>
       </c>
-      <c r="C18" s="3">
+      <c r="C18" s="2">
         <v>8</v>
       </c>
-      <c r="D18" s="3">
+      <c r="D18" s="2">
         <v>8</v>
       </c>
-      <c r="E18" s="3">
+      <c r="E18" s="2">
+        <v>9</v>
+      </c>
+      <c r="F18" s="2">
+        <v>7</v>
+      </c>
+      <c r="G18" s="2">
         <v>8</v>
       </c>
-      <c r="F18" s="3">
+      <c r="H18" s="2">
         <v>8</v>
       </c>
-      <c r="G18" s="3">
-        <v>8</v>
-      </c>
-      <c r="H18" s="3">
-        <v>8</v>
-      </c>
-      <c r="I18" s="3">
-        <v>8</v>
-      </c>
-      <c r="J18" s="3">
-        <v>8</v>
-      </c>
-      <c r="K18" s="3">
-        <v>8</v>
-      </c>
-      <c r="L18" s="3">
-        <v>8</v>
-      </c>
-      <c r="M18" s="3">
-        <v>8</v>
-      </c>
-      <c r="N18" s="3">
-        <v>8</v>
-      </c>
-      <c r="O18" s="3">
-        <v>8</v>
-      </c>
-      <c r="P18" s="3">
-        <v>8</v>
-      </c>
-      <c r="Q18" s="3">
-        <v>8</v>
-      </c>
-      <c r="R18" s="3">
-        <v>8</v>
-      </c>
-      <c r="S18" s="3">
-        <v>8</v>
-      </c>
-      <c r="T18" s="3">
-        <v>8</v>
-      </c>
-      <c r="U18" s="3">
-        <v>8</v>
-      </c>
-      <c r="V18" s="3">
-        <v>8</v>
-      </c>
-      <c r="W18" s="3">
-        <v>8</v>
-      </c>
-      <c r="X18" s="3">
-        <v>8</v>
-      </c>
-      <c r="Y18" s="3">
-        <v>8</v>
-      </c>
-      <c r="Z18" s="6">
-        <v>8</v>
+      <c r="I18" s="2">
+        <v>0</v>
+      </c>
+      <c r="J18" s="2">
+        <v>0</v>
+      </c>
+      <c r="K18" s="2">
+        <v>0</v>
+      </c>
+      <c r="L18" s="2">
+        <v>0</v>
+      </c>
+      <c r="M18" s="2">
+        <v>0</v>
+      </c>
+      <c r="N18" s="2">
+        <v>0</v>
+      </c>
+      <c r="O18" s="2">
+        <v>0</v>
+      </c>
+      <c r="P18" s="2">
+        <v>0</v>
+      </c>
+      <c r="Q18" s="2">
+        <v>0</v>
+      </c>
+      <c r="R18" s="2">
+        <v>0</v>
+      </c>
+      <c r="S18" s="2">
+        <v>0</v>
+      </c>
+      <c r="T18" s="2">
+        <v>0</v>
+      </c>
+      <c r="U18" s="2">
+        <v>0</v>
+      </c>
+      <c r="V18" s="2">
+        <v>0</v>
+      </c>
+      <c r="W18" s="2">
+        <v>0</v>
+      </c>
+      <c r="X18" s="2">
+        <v>0</v>
+      </c>
+      <c r="Y18" s="2">
+        <v>0</v>
+      </c>
+      <c r="Z18" s="5">
+        <v>0</v>
       </c>
     </row>
     <row r="19" spans="1:26" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A19" s="13" t="s">
+      <c r="A19" s="17" t="s">
         <v>2</v>
       </c>
-      <c r="B19" s="10">
+      <c r="B19" s="8">
         <v>8</v>
       </c>
-      <c r="C19" s="3">
+      <c r="C19" s="2">
         <v>8</v>
       </c>
-      <c r="D19" s="3">
+      <c r="D19" s="2">
+        <v>9</v>
+      </c>
+      <c r="E19" s="2">
         <v>8</v>
       </c>
-      <c r="E19" s="3">
+      <c r="F19" s="2">
         <v>8</v>
       </c>
-      <c r="F19" s="3">
-        <v>8</v>
-      </c>
-      <c r="G19" s="3">
-        <v>8</v>
-      </c>
-      <c r="H19" s="3">
-        <v>8</v>
-      </c>
-      <c r="I19" s="3">
-        <v>8</v>
-      </c>
-      <c r="J19" s="3">
-        <v>8</v>
-      </c>
-      <c r="K19" s="3">
-        <v>8</v>
-      </c>
-      <c r="L19" s="3">
-        <v>8</v>
-      </c>
-      <c r="M19" s="3">
-        <v>8</v>
-      </c>
-      <c r="N19" s="3">
-        <v>8</v>
-      </c>
-      <c r="O19" s="3">
-        <v>8</v>
-      </c>
-      <c r="P19" s="3">
-        <v>8</v>
-      </c>
-      <c r="Q19" s="3">
-        <v>8</v>
-      </c>
-      <c r="R19" s="3">
-        <v>8</v>
-      </c>
-      <c r="S19" s="3">
-        <v>8</v>
-      </c>
-      <c r="T19" s="3">
-        <v>8</v>
-      </c>
-      <c r="U19" s="3">
-        <v>8</v>
-      </c>
-      <c r="V19" s="3">
-        <v>8</v>
-      </c>
-      <c r="W19" s="3">
-        <v>8</v>
-      </c>
-      <c r="X19" s="3">
-        <v>8</v>
-      </c>
-      <c r="Y19" s="3">
-        <v>8</v>
-      </c>
-      <c r="Z19" s="6">
-        <v>8</v>
+      <c r="G19" s="2">
+        <v>7</v>
+      </c>
+      <c r="H19" s="2">
+        <v>10</v>
+      </c>
+      <c r="I19" s="2">
+        <v>0</v>
+      </c>
+      <c r="J19" s="2">
+        <v>0</v>
+      </c>
+      <c r="K19" s="2">
+        <v>0</v>
+      </c>
+      <c r="L19" s="2">
+        <v>0</v>
+      </c>
+      <c r="M19" s="2">
+        <v>0</v>
+      </c>
+      <c r="N19" s="2">
+        <v>0</v>
+      </c>
+      <c r="O19" s="2">
+        <v>0</v>
+      </c>
+      <c r="P19" s="2">
+        <v>0</v>
+      </c>
+      <c r="Q19" s="2">
+        <v>0</v>
+      </c>
+      <c r="R19" s="2">
+        <v>0</v>
+      </c>
+      <c r="S19" s="2">
+        <v>0</v>
+      </c>
+      <c r="T19" s="2">
+        <v>0</v>
+      </c>
+      <c r="U19" s="2">
+        <v>0</v>
+      </c>
+      <c r="V19" s="2">
+        <v>0</v>
+      </c>
+      <c r="W19" s="2">
+        <v>0</v>
+      </c>
+      <c r="X19" s="2">
+        <v>0</v>
+      </c>
+      <c r="Y19" s="2">
+        <v>0</v>
+      </c>
+      <c r="Z19" s="5">
+        <v>0</v>
       </c>
     </row>
     <row r="20" spans="1:26" x14ac:dyDescent="0.25">
-      <c r="A20" s="13" t="s">
+      <c r="A20" s="17" t="s">
         <v>3</v>
       </c>
-      <c r="B20" s="10">
+      <c r="B20" s="8">
         <v>8</v>
       </c>
-      <c r="C20" s="3">
+      <c r="C20" s="2">
         <v>8</v>
       </c>
-      <c r="D20" s="3">
+      <c r="D20" s="2">
+        <v>7</v>
+      </c>
+      <c r="E20" s="2">
         <v>8</v>
       </c>
-      <c r="E20" s="3">
-        <v>8</v>
-      </c>
-      <c r="F20" s="3">
-        <v>8</v>
-      </c>
-      <c r="G20" s="3">
-        <v>8</v>
-      </c>
-      <c r="H20" s="3">
-        <v>8</v>
-      </c>
-      <c r="I20" s="3">
-        <v>8</v>
-      </c>
-      <c r="J20" s="3">
-        <v>8</v>
-      </c>
-      <c r="K20" s="3">
-        <v>8</v>
-      </c>
-      <c r="L20" s="3">
-        <v>8</v>
-      </c>
-      <c r="M20" s="3">
-        <v>8</v>
-      </c>
-      <c r="N20" s="3">
-        <v>8</v>
-      </c>
-      <c r="O20" s="3">
-        <v>8</v>
-      </c>
-      <c r="P20" s="3">
-        <v>8</v>
-      </c>
-      <c r="Q20" s="3">
-        <v>8</v>
-      </c>
-      <c r="R20" s="3">
-        <v>8</v>
-      </c>
-      <c r="S20" s="3">
-        <v>8</v>
-      </c>
-      <c r="T20" s="3">
-        <v>8</v>
-      </c>
-      <c r="U20" s="3">
-        <v>8</v>
-      </c>
-      <c r="V20" s="3">
-        <v>8</v>
-      </c>
-      <c r="W20" s="3">
-        <v>8</v>
-      </c>
-      <c r="X20" s="3">
-        <v>8</v>
-      </c>
-      <c r="Y20" s="3">
-        <v>8</v>
-      </c>
-      <c r="Z20" s="6">
-        <v>8</v>
+      <c r="F20" s="2">
+        <v>10</v>
+      </c>
+      <c r="G20" s="2">
+        <v>9</v>
+      </c>
+      <c r="H20" s="2">
+        <v>7</v>
+      </c>
+      <c r="I20" s="2">
+        <v>0</v>
+      </c>
+      <c r="J20" s="2">
+        <v>0</v>
+      </c>
+      <c r="K20" s="2">
+        <v>0</v>
+      </c>
+      <c r="L20" s="2">
+        <v>0</v>
+      </c>
+      <c r="M20" s="2">
+        <v>0</v>
+      </c>
+      <c r="N20" s="2">
+        <v>0</v>
+      </c>
+      <c r="O20" s="2">
+        <v>0</v>
+      </c>
+      <c r="P20" s="2">
+        <v>0</v>
+      </c>
+      <c r="Q20" s="2">
+        <v>0</v>
+      </c>
+      <c r="R20" s="2">
+        <v>0</v>
+      </c>
+      <c r="S20" s="2">
+        <v>0</v>
+      </c>
+      <c r="T20" s="2">
+        <v>0</v>
+      </c>
+      <c r="U20" s="2">
+        <v>0</v>
+      </c>
+      <c r="V20" s="2">
+        <v>0</v>
+      </c>
+      <c r="W20" s="2">
+        <v>0</v>
+      </c>
+      <c r="X20" s="2">
+        <v>0</v>
+      </c>
+      <c r="Y20" s="2">
+        <v>0</v>
+      </c>
+      <c r="Z20" s="5">
+        <v>0</v>
       </c>
     </row>
     <row r="21" spans="1:26" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A21" s="13"/>
-      <c r="B21" s="12">
+      <c r="A21" s="17" t="s">
+        <v>10</v>
+      </c>
+      <c r="B21" s="10">
         <f>AVERAGE(B17:B20)</f>
         <v>8</v>
       </c>
-      <c r="C21" s="5">
+      <c r="C21" s="4">
         <f>AVERAGE(C17:C20)</f>
         <v>8</v>
       </c>
-      <c r="D21" s="8">
+      <c r="D21" s="6">
         <f>AVERAGE(D17:D20)</f>
-        <v>8</v>
-      </c>
-      <c r="E21" s="8">
+        <v>7.75</v>
+      </c>
+      <c r="E21" s="6">
         <f t="shared" ref="E21:Z21" si="2">AVERAGE(E17:E20)</f>
-        <v>8</v>
-      </c>
-      <c r="F21" s="8">
+        <v>8.75</v>
+      </c>
+      <c r="F21" s="6">
         <f t="shared" si="2"/>
-        <v>8</v>
-      </c>
-      <c r="G21" s="8">
+        <v>8.25</v>
+      </c>
+      <c r="G21" s="6">
         <f t="shared" si="2"/>
-        <v>8</v>
-      </c>
-      <c r="H21" s="8">
+        <v>8.5</v>
+      </c>
+      <c r="H21" s="6">
         <f t="shared" si="2"/>
-        <v>8</v>
-      </c>
-      <c r="I21" s="8">
+        <v>8.5</v>
+      </c>
+      <c r="I21" s="6">
         <f t="shared" si="2"/>
-        <v>8</v>
-      </c>
-      <c r="J21" s="8">
+        <v>0</v>
+      </c>
+      <c r="J21" s="6">
         <f t="shared" si="2"/>
-        <v>8</v>
-      </c>
-      <c r="K21" s="8">
+        <v>0</v>
+      </c>
+      <c r="K21" s="6">
         <f t="shared" si="2"/>
-        <v>8</v>
-      </c>
-      <c r="L21" s="8">
+        <v>0</v>
+      </c>
+      <c r="L21" s="6">
         <f t="shared" si="2"/>
-        <v>8</v>
-      </c>
-      <c r="M21" s="8">
+        <v>0</v>
+      </c>
+      <c r="M21" s="6">
         <f t="shared" si="2"/>
-        <v>8</v>
-      </c>
-      <c r="N21" s="8">
+        <v>0</v>
+      </c>
+      <c r="N21" s="6">
         <f t="shared" si="2"/>
-        <v>8</v>
-      </c>
-      <c r="O21" s="8">
+        <v>0</v>
+      </c>
+      <c r="O21" s="6">
         <f t="shared" si="2"/>
-        <v>8</v>
-      </c>
-      <c r="P21" s="8">
+        <v>0</v>
+      </c>
+      <c r="P21" s="6">
         <f t="shared" si="2"/>
-        <v>8</v>
-      </c>
-      <c r="Q21" s="8">
+        <v>0</v>
+      </c>
+      <c r="Q21" s="6">
         <f t="shared" si="2"/>
-        <v>8</v>
-      </c>
-      <c r="R21" s="8">
+        <v>0</v>
+      </c>
+      <c r="R21" s="6">
         <f t="shared" si="2"/>
-        <v>8</v>
-      </c>
-      <c r="S21" s="8">
+        <v>0</v>
+      </c>
+      <c r="S21" s="6">
         <f t="shared" si="2"/>
-        <v>8</v>
-      </c>
-      <c r="T21" s="8">
+        <v>0</v>
+      </c>
+      <c r="T21" s="6">
         <f t="shared" si="2"/>
-        <v>8</v>
-      </c>
-      <c r="U21" s="8">
+        <v>0</v>
+      </c>
+      <c r="U21" s="6">
         <f t="shared" si="2"/>
-        <v>8</v>
-      </c>
-      <c r="V21" s="8">
+        <v>0</v>
+      </c>
+      <c r="V21" s="6">
         <f t="shared" si="2"/>
-        <v>8</v>
-      </c>
-      <c r="W21" s="8">
+        <v>0</v>
+      </c>
+      <c r="W21" s="6">
         <f t="shared" si="2"/>
-        <v>8</v>
-      </c>
-      <c r="X21" s="8">
+        <v>0</v>
+      </c>
+      <c r="X21" s="6">
         <f t="shared" si="2"/>
-        <v>8</v>
-      </c>
-      <c r="Y21" s="8">
+        <v>0</v>
+      </c>
+      <c r="Y21" s="6">
         <f t="shared" si="2"/>
-        <v>8</v>
-      </c>
-      <c r="Z21" s="9">
+        <v>0</v>
+      </c>
+      <c r="Z21" s="7">
         <f t="shared" si="2"/>
-        <v>8</v>
+        <v>0</v>
       </c>
     </row>
     <row r="22" spans="1:26" x14ac:dyDescent="0.25">
-      <c r="A22" s="13"/>
-      <c r="B22" s="2"/>
-      <c r="C22" s="2"/>
-      <c r="D22" s="2"/>
-      <c r="E22" s="2"/>
-      <c r="F22" s="2"/>
-      <c r="G22" s="2"/>
-      <c r="H22" s="2"/>
-      <c r="I22" s="2"/>
-      <c r="J22" s="2"/>
-      <c r="K22" s="2"/>
-      <c r="L22" s="2"/>
-      <c r="M22" s="2"/>
-      <c r="N22" s="2"/>
-      <c r="O22" s="2"/>
-      <c r="P22" s="2"/>
-      <c r="Q22" s="2"/>
-      <c r="R22" s="2"/>
-      <c r="S22" s="2"/>
-      <c r="T22" s="2"/>
-      <c r="U22" s="2"/>
-      <c r="V22" s="2"/>
-      <c r="W22" s="2"/>
-      <c r="X22" s="2"/>
-      <c r="Y22" s="2"/>
-      <c r="Z22" s="2"/>
+      <c r="A22" s="17"/>
+      <c r="B22" s="1"/>
+      <c r="C22" s="1"/>
+      <c r="D22" s="1"/>
+      <c r="E22" s="1"/>
+      <c r="F22" s="1"/>
+      <c r="G22" s="1"/>
+      <c r="H22" s="1"/>
+      <c r="I22" s="1"/>
+      <c r="J22" s="1"/>
+      <c r="K22" s="1"/>
+      <c r="L22" s="1"/>
+      <c r="M22" s="1"/>
+      <c r="N22" s="1"/>
+      <c r="O22" s="1"/>
+      <c r="P22" s="1"/>
+      <c r="Q22" s="1"/>
+      <c r="R22" s="1"/>
+      <c r="S22" s="1"/>
+      <c r="T22" s="1"/>
+      <c r="U22" s="1"/>
+      <c r="V22" s="1"/>
+      <c r="W22" s="1"/>
+      <c r="X22" s="1"/>
+      <c r="Y22" s="1"/>
+      <c r="Z22" s="16"/>
     </row>
     <row r="23" spans="1:26" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A23" s="17" t="s">
-        <v>7</v>
-      </c>
-      <c r="B23" s="2"/>
-      <c r="C23" s="2"/>
-      <c r="D23" s="2"/>
-      <c r="E23" s="2"/>
-      <c r="F23" s="2"/>
-      <c r="G23" s="2"/>
-      <c r="H23" s="2"/>
-      <c r="I23" s="2"/>
-      <c r="J23" s="2"/>
-      <c r="K23" s="2"/>
-      <c r="L23" s="2"/>
-      <c r="M23" s="2"/>
-      <c r="N23" s="2"/>
-      <c r="O23" s="2"/>
-      <c r="P23" s="2"/>
-      <c r="Q23" s="2"/>
-      <c r="R23" s="2"/>
-      <c r="S23" s="2"/>
-      <c r="T23" s="2"/>
-      <c r="U23" s="2"/>
-      <c r="V23" s="2"/>
-      <c r="W23" s="2"/>
-      <c r="X23" s="2"/>
-      <c r="Y23" s="2"/>
-      <c r="Z23" s="2"/>
+      <c r="A23" s="20" t="s">
+        <v>6</v>
+      </c>
+      <c r="B23" s="1"/>
+      <c r="C23" s="1"/>
+      <c r="D23" s="1"/>
+      <c r="E23" s="1"/>
+      <c r="F23" s="1"/>
+      <c r="G23" s="1"/>
+      <c r="H23" s="1"/>
+      <c r="I23" s="1"/>
+      <c r="J23" s="1"/>
+      <c r="K23" s="1"/>
+      <c r="L23" s="1"/>
+      <c r="M23" s="1"/>
+      <c r="N23" s="1"/>
+      <c r="O23" s="1"/>
+      <c r="P23" s="1"/>
+      <c r="Q23" s="1"/>
+      <c r="R23" s="1"/>
+      <c r="S23" s="1"/>
+      <c r="T23" s="1"/>
+      <c r="U23" s="1"/>
+      <c r="V23" s="1"/>
+      <c r="W23" s="1"/>
+      <c r="X23" s="1"/>
+      <c r="Y23" s="1"/>
+      <c r="Z23" s="16"/>
     </row>
     <row r="24" spans="1:26" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A24" s="13" t="s">
-        <v>0</v>
-      </c>
-      <c r="B24" s="10">
+      <c r="A24" s="17" t="s">
+        <v>0</v>
+      </c>
+      <c r="B24" s="8">
         <v>7</v>
       </c>
-      <c r="C24" s="3">
+      <c r="C24" s="2">
         <v>7</v>
       </c>
-      <c r="D24" s="3">
-        <v>7</v>
-      </c>
-      <c r="E24" s="3">
-        <v>7</v>
-      </c>
-      <c r="F24" s="3">
-        <v>7</v>
-      </c>
-      <c r="G24" s="3">
-        <v>7</v>
-      </c>
-      <c r="H24" s="3">
-        <v>7</v>
-      </c>
-      <c r="I24" s="3">
-        <v>7</v>
-      </c>
-      <c r="J24" s="3">
-        <v>7</v>
-      </c>
-      <c r="K24" s="3">
-        <v>7</v>
-      </c>
-      <c r="L24" s="3">
-        <v>7</v>
-      </c>
-      <c r="M24" s="3">
-        <v>7</v>
-      </c>
-      <c r="N24" s="3">
-        <v>7</v>
-      </c>
-      <c r="O24" s="3">
-        <v>7</v>
-      </c>
-      <c r="P24" s="3">
-        <v>7</v>
-      </c>
-      <c r="Q24" s="3">
-        <v>7</v>
-      </c>
-      <c r="R24" s="3">
-        <v>7</v>
-      </c>
-      <c r="S24" s="3">
-        <v>7</v>
-      </c>
-      <c r="T24" s="3">
-        <v>7</v>
-      </c>
-      <c r="U24" s="3">
-        <v>7</v>
-      </c>
-      <c r="V24" s="3">
-        <v>7</v>
-      </c>
-      <c r="W24" s="3">
-        <v>7</v>
-      </c>
-      <c r="X24" s="3">
-        <v>7</v>
-      </c>
-      <c r="Y24" s="3">
-        <v>7</v>
-      </c>
-      <c r="Z24" s="6">
-        <v>7</v>
+      <c r="D24" s="2">
+        <v>9</v>
+      </c>
+      <c r="E24" s="2">
+        <v>10</v>
+      </c>
+      <c r="F24" s="2">
+        <v>8</v>
+      </c>
+      <c r="G24" s="2">
+        <v>10</v>
+      </c>
+      <c r="H24" s="2">
+        <v>8</v>
+      </c>
+      <c r="I24" s="2">
+        <v>0</v>
+      </c>
+      <c r="J24" s="2">
+        <v>0</v>
+      </c>
+      <c r="K24" s="2">
+        <v>0</v>
+      </c>
+      <c r="L24" s="2">
+        <v>0</v>
+      </c>
+      <c r="M24" s="2">
+        <v>0</v>
+      </c>
+      <c r="N24" s="2">
+        <v>0</v>
+      </c>
+      <c r="O24" s="2">
+        <v>0</v>
+      </c>
+      <c r="P24" s="2">
+        <v>0</v>
+      </c>
+      <c r="Q24" s="2">
+        <v>0</v>
+      </c>
+      <c r="R24" s="2">
+        <v>0</v>
+      </c>
+      <c r="S24" s="2">
+        <v>0</v>
+      </c>
+      <c r="T24" s="2">
+        <v>0</v>
+      </c>
+      <c r="U24" s="2">
+        <v>0</v>
+      </c>
+      <c r="V24" s="2">
+        <v>0</v>
+      </c>
+      <c r="W24" s="2">
+        <v>0</v>
+      </c>
+      <c r="X24" s="2">
+        <v>0</v>
+      </c>
+      <c r="Y24" s="2">
+        <v>0</v>
+      </c>
+      <c r="Z24" s="5">
+        <v>0</v>
       </c>
     </row>
     <row r="25" spans="1:26" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A25" s="13" t="s">
+      <c r="A25" s="17" t="s">
         <v>1</v>
       </c>
-      <c r="B25" s="10">
+      <c r="B25" s="8">
         <v>7</v>
       </c>
-      <c r="C25" s="3">
+      <c r="C25" s="2">
         <v>7</v>
       </c>
-      <c r="D25" s="3">
+      <c r="D25" s="2">
+        <v>8</v>
+      </c>
+      <c r="E25" s="2">
+        <v>9</v>
+      </c>
+      <c r="F25" s="2">
         <v>7</v>
       </c>
-      <c r="E25" s="3">
-        <v>7</v>
-      </c>
-      <c r="F25" s="3">
-        <v>7</v>
-      </c>
-      <c r="G25" s="3">
-        <v>7</v>
-      </c>
-      <c r="H25" s="3">
-        <v>7</v>
-      </c>
-      <c r="I25" s="3">
-        <v>7</v>
-      </c>
-      <c r="J25" s="3">
-        <v>7</v>
-      </c>
-      <c r="K25" s="3">
-        <v>7</v>
-      </c>
-      <c r="L25" s="3">
-        <v>7</v>
-      </c>
-      <c r="M25" s="3">
-        <v>7</v>
-      </c>
-      <c r="N25" s="3">
-        <v>7</v>
-      </c>
-      <c r="O25" s="3">
-        <v>7</v>
-      </c>
-      <c r="P25" s="3">
-        <v>7</v>
-      </c>
-      <c r="Q25" s="3">
-        <v>7</v>
-      </c>
-      <c r="R25" s="3">
-        <v>7</v>
-      </c>
-      <c r="S25" s="3">
-        <v>7</v>
-      </c>
-      <c r="T25" s="3">
-        <v>7</v>
-      </c>
-      <c r="U25" s="3">
-        <v>7</v>
-      </c>
-      <c r="V25" s="3">
-        <v>7</v>
-      </c>
-      <c r="W25" s="3">
-        <v>7</v>
-      </c>
-      <c r="X25" s="3">
-        <v>7</v>
-      </c>
-      <c r="Y25" s="3">
-        <v>7</v>
-      </c>
-      <c r="Z25" s="6">
-        <v>7</v>
+      <c r="G25" s="2">
+        <v>9</v>
+      </c>
+      <c r="H25" s="2">
+        <v>9</v>
+      </c>
+      <c r="I25" s="2">
+        <v>0</v>
+      </c>
+      <c r="J25" s="2">
+        <v>0</v>
+      </c>
+      <c r="K25" s="2">
+        <v>0</v>
+      </c>
+      <c r="L25" s="2">
+        <v>0</v>
+      </c>
+      <c r="M25" s="2">
+        <v>0</v>
+      </c>
+      <c r="N25" s="2">
+        <v>0</v>
+      </c>
+      <c r="O25" s="2">
+        <v>0</v>
+      </c>
+      <c r="P25" s="2">
+        <v>0</v>
+      </c>
+      <c r="Q25" s="2">
+        <v>0</v>
+      </c>
+      <c r="R25" s="2">
+        <v>0</v>
+      </c>
+      <c r="S25" s="2">
+        <v>0</v>
+      </c>
+      <c r="T25" s="2">
+        <v>0</v>
+      </c>
+      <c r="U25" s="2">
+        <v>0</v>
+      </c>
+      <c r="V25" s="2">
+        <v>0</v>
+      </c>
+      <c r="W25" s="2">
+        <v>0</v>
+      </c>
+      <c r="X25" s="2">
+        <v>0</v>
+      </c>
+      <c r="Y25" s="2">
+        <v>0</v>
+      </c>
+      <c r="Z25" s="5">
+        <v>0</v>
       </c>
     </row>
     <row r="26" spans="1:26" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A26" s="13" t="s">
+      <c r="A26" s="17" t="s">
         <v>2</v>
       </c>
-      <c r="B26" s="10">
+      <c r="B26" s="8">
         <v>7</v>
       </c>
-      <c r="C26" s="3">
+      <c r="C26" s="2">
         <v>7</v>
       </c>
-      <c r="D26" s="3">
+      <c r="D26" s="2">
+        <v>9</v>
+      </c>
+      <c r="E26" s="2">
+        <v>8</v>
+      </c>
+      <c r="F26" s="2">
+        <v>9</v>
+      </c>
+      <c r="G26" s="2">
         <v>7</v>
       </c>
-      <c r="E26" s="3">
-        <v>7</v>
-      </c>
-      <c r="F26" s="3">
-        <v>7</v>
-      </c>
-      <c r="G26" s="3">
-        <v>7</v>
-      </c>
-      <c r="H26" s="3">
-        <v>7</v>
-      </c>
-      <c r="I26" s="3">
-        <v>7</v>
-      </c>
-      <c r="J26" s="3">
-        <v>7</v>
-      </c>
-      <c r="K26" s="3">
-        <v>7</v>
-      </c>
-      <c r="L26" s="3">
-        <v>7</v>
-      </c>
-      <c r="M26" s="3">
-        <v>7</v>
-      </c>
-      <c r="N26" s="3">
-        <v>7</v>
-      </c>
-      <c r="O26" s="3">
-        <v>7</v>
-      </c>
-      <c r="P26" s="3">
-        <v>7</v>
-      </c>
-      <c r="Q26" s="3">
-        <v>7</v>
-      </c>
-      <c r="R26" s="3">
-        <v>7</v>
-      </c>
-      <c r="S26" s="3">
-        <v>7</v>
-      </c>
-      <c r="T26" s="3">
-        <v>7</v>
-      </c>
-      <c r="U26" s="3">
-        <v>7</v>
-      </c>
-      <c r="V26" s="3">
-        <v>7</v>
-      </c>
-      <c r="W26" s="3">
-        <v>7</v>
-      </c>
-      <c r="X26" s="3">
-        <v>7</v>
-      </c>
-      <c r="Y26" s="3">
-        <v>7</v>
-      </c>
-      <c r="Z26" s="6">
-        <v>7</v>
+      <c r="H26" s="2">
+        <v>10</v>
+      </c>
+      <c r="I26" s="2">
+        <v>0</v>
+      </c>
+      <c r="J26" s="2">
+        <v>0</v>
+      </c>
+      <c r="K26" s="2">
+        <v>0</v>
+      </c>
+      <c r="L26" s="2">
+        <v>0</v>
+      </c>
+      <c r="M26" s="2">
+        <v>0</v>
+      </c>
+      <c r="N26" s="2">
+        <v>0</v>
+      </c>
+      <c r="O26" s="2">
+        <v>0</v>
+      </c>
+      <c r="P26" s="2">
+        <v>0</v>
+      </c>
+      <c r="Q26" s="2">
+        <v>0</v>
+      </c>
+      <c r="R26" s="2">
+        <v>0</v>
+      </c>
+      <c r="S26" s="2">
+        <v>0</v>
+      </c>
+      <c r="T26" s="2">
+        <v>0</v>
+      </c>
+      <c r="U26" s="2">
+        <v>0</v>
+      </c>
+      <c r="V26" s="2">
+        <v>0</v>
+      </c>
+      <c r="W26" s="2">
+        <v>0</v>
+      </c>
+      <c r="X26" s="2">
+        <v>0</v>
+      </c>
+      <c r="Y26" s="2">
+        <v>0</v>
+      </c>
+      <c r="Z26" s="5">
+        <v>0</v>
       </c>
     </row>
     <row r="27" spans="1:26" x14ac:dyDescent="0.25">
-      <c r="A27" s="13" t="s">
+      <c r="A27" s="17" t="s">
         <v>3</v>
       </c>
-      <c r="B27" s="10">
+      <c r="B27" s="8">
         <v>7</v>
       </c>
-      <c r="C27" s="3">
+      <c r="C27" s="2">
         <v>7</v>
       </c>
-      <c r="D27" s="3">
-        <v>7</v>
-      </c>
-      <c r="E27" s="3">
-        <v>7</v>
-      </c>
-      <c r="F27" s="3">
-        <v>7</v>
-      </c>
-      <c r="G27" s="3">
-        <v>7</v>
-      </c>
-      <c r="H27" s="3">
-        <v>7</v>
-      </c>
-      <c r="I27" s="3">
-        <v>7</v>
-      </c>
-      <c r="J27" s="3">
-        <v>7</v>
-      </c>
-      <c r="K27" s="3">
-        <v>7</v>
-      </c>
-      <c r="L27" s="3">
-        <v>7</v>
-      </c>
-      <c r="M27" s="3">
-        <v>7</v>
-      </c>
-      <c r="N27" s="3">
-        <v>7</v>
-      </c>
-      <c r="O27" s="3">
-        <v>7</v>
-      </c>
-      <c r="P27" s="3">
-        <v>7</v>
-      </c>
-      <c r="Q27" s="3">
-        <v>7</v>
-      </c>
-      <c r="R27" s="3">
-        <v>7</v>
-      </c>
-      <c r="S27" s="3">
-        <v>7</v>
-      </c>
-      <c r="T27" s="3">
-        <v>7</v>
-      </c>
-      <c r="U27" s="3">
-        <v>7</v>
-      </c>
-      <c r="V27" s="3">
-        <v>7</v>
-      </c>
-      <c r="W27" s="3">
-        <v>7</v>
-      </c>
-      <c r="X27" s="3">
-        <v>7</v>
-      </c>
-      <c r="Y27" s="3">
-        <v>7</v>
-      </c>
-      <c r="Z27" s="6">
-        <v>7</v>
+      <c r="D27" s="2">
+        <v>8</v>
+      </c>
+      <c r="E27" s="2">
+        <v>9</v>
+      </c>
+      <c r="F27" s="2">
+        <v>9</v>
+      </c>
+      <c r="G27" s="2">
+        <v>8</v>
+      </c>
+      <c r="H27" s="2">
+        <v>8</v>
+      </c>
+      <c r="I27" s="2">
+        <v>0</v>
+      </c>
+      <c r="J27" s="2">
+        <v>0</v>
+      </c>
+      <c r="K27" s="2">
+        <v>0</v>
+      </c>
+      <c r="L27" s="2">
+        <v>0</v>
+      </c>
+      <c r="M27" s="2">
+        <v>0</v>
+      </c>
+      <c r="N27" s="2">
+        <v>0</v>
+      </c>
+      <c r="O27" s="2">
+        <v>0</v>
+      </c>
+      <c r="P27" s="2">
+        <v>0</v>
+      </c>
+      <c r="Q27" s="2">
+        <v>0</v>
+      </c>
+      <c r="R27" s="2">
+        <v>0</v>
+      </c>
+      <c r="S27" s="2">
+        <v>0</v>
+      </c>
+      <c r="T27" s="2">
+        <v>0</v>
+      </c>
+      <c r="U27" s="2">
+        <v>0</v>
+      </c>
+      <c r="V27" s="2">
+        <v>0</v>
+      </c>
+      <c r="W27" s="2">
+        <v>0</v>
+      </c>
+      <c r="X27" s="2">
+        <v>0</v>
+      </c>
+      <c r="Y27" s="2">
+        <v>0</v>
+      </c>
+      <c r="Z27" s="5">
+        <v>0</v>
       </c>
     </row>
     <row r="28" spans="1:26" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A28" s="13"/>
-      <c r="B28" s="12">
+      <c r="A28" s="21" t="s">
+        <v>10</v>
+      </c>
+      <c r="B28" s="10">
         <f>AVERAGE(B24:B27)</f>
         <v>7</v>
       </c>
-      <c r="C28" s="5">
+      <c r="C28" s="4">
         <f>AVERAGE(C24:C27)</f>
         <v>7</v>
       </c>
-      <c r="D28" s="8">
+      <c r="D28" s="6">
         <f>AVERAGE(D24:D27)</f>
-        <v>7</v>
-      </c>
-      <c r="E28" s="8">
+        <v>8.5</v>
+      </c>
+      <c r="E28" s="6">
         <f t="shared" ref="E28:Z28" si="3">AVERAGE(E24:E27)</f>
-        <v>7</v>
-      </c>
-      <c r="F28" s="8">
+        <v>9</v>
+      </c>
+      <c r="F28" s="6">
         <f t="shared" si="3"/>
-        <v>7</v>
-      </c>
-      <c r="G28" s="8">
+        <v>8.25</v>
+      </c>
+      <c r="G28" s="6">
         <f t="shared" si="3"/>
-        <v>7</v>
-      </c>
-      <c r="H28" s="8">
+        <v>8.5</v>
+      </c>
+      <c r="H28" s="6">
         <f t="shared" si="3"/>
-        <v>7</v>
-      </c>
-      <c r="I28" s="8">
+        <v>8.75</v>
+      </c>
+      <c r="I28" s="6">
         <f t="shared" si="3"/>
-        <v>7</v>
-      </c>
-      <c r="J28" s="8">
+        <v>0</v>
+      </c>
+      <c r="J28" s="6">
         <f t="shared" si="3"/>
-        <v>7</v>
-      </c>
-      <c r="K28" s="8">
+        <v>0</v>
+      </c>
+      <c r="K28" s="6">
         <f t="shared" si="3"/>
-        <v>7</v>
-      </c>
-      <c r="L28" s="8">
+        <v>0</v>
+      </c>
+      <c r="L28" s="6">
         <f t="shared" si="3"/>
-        <v>7</v>
-      </c>
-      <c r="M28" s="8">
+        <v>0</v>
+      </c>
+      <c r="M28" s="6">
         <f t="shared" si="3"/>
-        <v>7</v>
-      </c>
-      <c r="N28" s="8">
+        <v>0</v>
+      </c>
+      <c r="N28" s="6">
         <f t="shared" si="3"/>
-        <v>7</v>
-      </c>
-      <c r="O28" s="8">
+        <v>0</v>
+      </c>
+      <c r="O28" s="6">
         <f t="shared" si="3"/>
-        <v>7</v>
-      </c>
-      <c r="P28" s="8">
+        <v>0</v>
+      </c>
+      <c r="P28" s="6">
         <f t="shared" si="3"/>
-        <v>7</v>
-      </c>
-      <c r="Q28" s="8">
+        <v>0</v>
+      </c>
+      <c r="Q28" s="6">
         <f t="shared" si="3"/>
-        <v>7</v>
-      </c>
-      <c r="R28" s="8">
+        <v>0</v>
+      </c>
+      <c r="R28" s="6">
         <f t="shared" si="3"/>
-        <v>7</v>
-      </c>
-      <c r="S28" s="8">
+        <v>0</v>
+      </c>
+      <c r="S28" s="6">
         <f t="shared" si="3"/>
-        <v>7</v>
-      </c>
-      <c r="T28" s="8">
+        <v>0</v>
+      </c>
+      <c r="T28" s="6">
         <f t="shared" si="3"/>
-        <v>7</v>
-      </c>
-      <c r="U28" s="8">
+        <v>0</v>
+      </c>
+      <c r="U28" s="6">
         <f t="shared" si="3"/>
-        <v>7</v>
-      </c>
-      <c r="V28" s="8">
+        <v>0</v>
+      </c>
+      <c r="V28" s="6">
         <f t="shared" si="3"/>
-        <v>7</v>
-      </c>
-      <c r="W28" s="8">
+        <v>0</v>
+      </c>
+      <c r="W28" s="6">
         <f t="shared" si="3"/>
-        <v>7</v>
-      </c>
-      <c r="X28" s="8">
+        <v>0</v>
+      </c>
+      <c r="X28" s="6">
         <f t="shared" si="3"/>
-        <v>7</v>
-      </c>
-      <c r="Y28" s="8">
+        <v>0</v>
+      </c>
+      <c r="Y28" s="6">
         <f t="shared" si="3"/>
-        <v>7</v>
-      </c>
-      <c r="Z28" s="9">
+        <v>0</v>
+      </c>
+      <c r="Z28" s="7">
         <f t="shared" si="3"/>
-        <v>7</v>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="32" spans="1:26" x14ac:dyDescent="0.25">
+      <c r="S32" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="36" spans="20:20" x14ac:dyDescent="0.25">
+      <c r="T36" t="s">
+        <v>9</v>
       </c>
     </row>
   </sheetData>

--- a/20-11-23_Statusbericht/20-11-20_Barometer.xlsx
+++ b/20-11-23_Statusbericht/20-11-20_Barometer.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="23328"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="22527"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Philipp\Documents\GitHub\bachelorprojekt2020\20-11-23_Statusbericht\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Dokumente\AAA_Studium_HAW_Mechatronik\WiSe20\Bachelorprojekt\bachelorprojekt2020\20-11-23_Statusbericht\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D193E7BB-30D7-40EE-8670-9986C60DD2C2}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7F183FAA-96B1-49E1-BE47-4A3BE9527B7D}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="25440" windowHeight="15390" xr2:uid="{BDADFF32-FBD9-4DE5-B950-468D92E439C4}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{BDADFF32-FBD9-4DE5-B950-468D92E439C4}"/>
   </bookViews>
   <sheets>
     <sheet name="Tabelle1" sheetId="1" r:id="rId1"/>
@@ -26,7 +26,6 @@
         <xcalcf:feature name="microsoft.com:Single"/>
         <xcalcf:feature name="microsoft.com:FV"/>
         <xcalcf:feature name="microsoft.com:CNMTM"/>
-        <xcalcf:feature name="microsoft.com:LET_WF"/>
       </xcalcf:calcFeatures>
     </ext>
   </extLst>
@@ -532,7 +531,7 @@
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="16381"/>
                 <c:pt idx="0">
-                  <c:v>9.25</c:v>
+                  <c:v>7</c:v>
                 </c:pt>
                 <c:pt idx="1">
                   <c:v>9</c:v>
@@ -2365,8 +2364,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{85923DA2-2FD1-4856-AB9C-336BEA5CAFF2}">
   <dimension ref="A1:Z36"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A4" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="W39" sqref="W39"/>
+    <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="V34" sqref="V34"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -2654,7 +2653,7 @@
         <v>10</v>
       </c>
       <c r="D5" s="3">
-        <v>9</v>
+        <v>0</v>
       </c>
       <c r="E5" s="3">
         <v>10</v>
@@ -2817,7 +2816,7 @@
       </c>
       <c r="D7" s="6">
         <f>AVERAGE(D3:D6)</f>
-        <v>9.25</v>
+        <v>7</v>
       </c>
       <c r="E7" s="6">
         <f t="shared" ref="E7:Z7" si="0">AVERAGE(E3:E6)</f>

--- a/20-11-23_Statusbericht/20-11-20_Barometer.xlsx
+++ b/20-11-23_Statusbericht/20-11-20_Barometer.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Dokumente\AAA_Studium_HAW_Mechatronik\WiSe20\Bachelorprojekt\bachelorprojekt2020\20-11-23_Statusbericht\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7F183FAA-96B1-49E1-BE47-4A3BE9527B7D}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{46EE8830-36E3-44F3-A6F6-C9426824FFEC}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{BDADFF32-FBD9-4DE5-B950-468D92E439C4}"/>
   </bookViews>
@@ -1968,98 +1968,103 @@
       <xdr:row>49</xdr:row>
       <xdr:rowOff>100853</xdr:rowOff>
     </xdr:to>
-    <xdr:graphicFrame macro="">
-      <xdr:nvGraphicFramePr>
-        <xdr:cNvPr id="3" name="Diagramm 2">
+    <xdr:grpSp>
+      <xdr:nvGrpSpPr>
+        <xdr:cNvPr id="4" name="Gruppieren 3">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{2218D692-9CA0-4687-84DA-C8B4C4BD72B4}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{CEBF1EAF-B4FE-458E-9087-590E9E24D537}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
-        <xdr:cNvGraphicFramePr/>
-      </xdr:nvGraphicFramePr>
-      <xdr:xfrm>
-        <a:off x="0" y="0"/>
-        <a:ext cx="0" cy="0"/>
-      </xdr:xfrm>
-      <a:graphic>
-        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
-          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1"/>
-        </a:graphicData>
-      </a:graphic>
-    </xdr:graphicFrame>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
-  <xdr:twoCellAnchor>
-    <xdr:from>
-      <xdr:col>6</xdr:col>
-      <xdr:colOff>331237</xdr:colOff>
-      <xdr:row>30</xdr:row>
-      <xdr:rowOff>19915</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>9</xdr:col>
-      <xdr:colOff>219177</xdr:colOff>
-      <xdr:row>34</xdr:row>
-      <xdr:rowOff>42327</xdr:rowOff>
-    </xdr:to>
-    <xdr:sp macro="" textlink="">
-      <xdr:nvSpPr>
-        <xdr:cNvPr id="2" name="Sprechblase: rechteckig 1">
-          <a:extLst>
-            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{7D34716B-09CC-44F8-A7DD-0512E7924E6C}"/>
-            </a:ext>
-          </a:extLst>
-        </xdr:cNvPr>
-        <xdr:cNvSpPr/>
-      </xdr:nvSpPr>
-      <xdr:spPr>
+        <xdr:cNvGrpSpPr/>
+      </xdr:nvGrpSpPr>
+      <xdr:grpSpPr>
         <a:xfrm>
-          <a:off x="4107619" y="5959033"/>
-          <a:ext cx="2173940" cy="784412"/>
+          <a:off x="1490382" y="5805767"/>
+          <a:ext cx="11261912" cy="3853704"/>
+          <a:chOff x="1490382" y="5805767"/>
+          <a:chExt cx="11261912" cy="3853704"/>
         </a:xfrm>
-        <a:prstGeom prst="wedgeRectCallout">
-          <a:avLst>
-            <a:gd name="adj1" fmla="val -154116"/>
-            <a:gd name="adj2" fmla="val -2284"/>
-          </a:avLst>
-        </a:prstGeom>
-      </xdr:spPr>
-      <xdr:style>
-        <a:lnRef idx="2">
-          <a:schemeClr val="accent1">
-            <a:shade val="50000"/>
-          </a:schemeClr>
-        </a:lnRef>
-        <a:fillRef idx="1">
-          <a:schemeClr val="accent1"/>
-        </a:fillRef>
-        <a:effectRef idx="0">
-          <a:schemeClr val="accent1"/>
-        </a:effectRef>
-        <a:fontRef idx="minor">
-          <a:schemeClr val="lt1"/>
-        </a:fontRef>
-      </xdr:style>
-      <xdr:txBody>
-        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
-        <a:lstStyle/>
-        <a:p>
-          <a:pPr algn="l"/>
-          <a:r>
-            <a:rPr lang="de-DE" sz="1100"/>
-            <a:t>Beim ersten Meeting herrschte eine hohe</a:t>
-          </a:r>
-          <a:r>
-            <a:rPr lang="de-DE" sz="1100" baseline="0"/>
-            <a:t> Motivation, gleichzeitig aber auch die geringste Strukturiertheit        </a:t>
-          </a:r>
-          <a:endParaRPr lang="de-DE" sz="1100"/>
-        </a:p>
-      </xdr:txBody>
-    </xdr:sp>
+      </xdr:grpSpPr>
+      <xdr:graphicFrame macro="">
+        <xdr:nvGraphicFramePr>
+          <xdr:cNvPr id="3" name="Diagramm 2">
+            <a:extLst>
+              <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+                <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{2218D692-9CA0-4687-84DA-C8B4C4BD72B4}"/>
+              </a:ext>
+            </a:extLst>
+          </xdr:cNvPr>
+          <xdr:cNvGraphicFramePr/>
+        </xdr:nvGraphicFramePr>
+        <xdr:xfrm>
+          <a:off x="1490382" y="5805767"/>
+          <a:ext cx="11261912" cy="3853704"/>
+        </xdr:xfrm>
+        <a:graphic>
+          <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+            <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1"/>
+          </a:graphicData>
+        </a:graphic>
+      </xdr:graphicFrame>
+      <xdr:sp macro="" textlink="">
+        <xdr:nvSpPr>
+          <xdr:cNvPr id="2" name="Sprechblase: rechteckig 1">
+            <a:extLst>
+              <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+                <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{7D34716B-09CC-44F8-A7DD-0512E7924E6C}"/>
+              </a:ext>
+            </a:extLst>
+          </xdr:cNvPr>
+          <xdr:cNvSpPr/>
+        </xdr:nvSpPr>
+        <xdr:spPr>
+          <a:xfrm>
+            <a:off x="4107619" y="5959033"/>
+            <a:ext cx="2173940" cy="784412"/>
+          </a:xfrm>
+          <a:prstGeom prst="wedgeRectCallout">
+            <a:avLst>
+              <a:gd name="adj1" fmla="val -154116"/>
+              <a:gd name="adj2" fmla="val -2284"/>
+            </a:avLst>
+          </a:prstGeom>
+        </xdr:spPr>
+        <xdr:style>
+          <a:lnRef idx="2">
+            <a:schemeClr val="accent1">
+              <a:shade val="50000"/>
+            </a:schemeClr>
+          </a:lnRef>
+          <a:fillRef idx="1">
+            <a:schemeClr val="accent1"/>
+          </a:fillRef>
+          <a:effectRef idx="0">
+            <a:schemeClr val="accent1"/>
+          </a:effectRef>
+          <a:fontRef idx="minor">
+            <a:schemeClr val="lt1"/>
+          </a:fontRef>
+        </xdr:style>
+        <xdr:txBody>
+          <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr algn="l"/>
+            <a:r>
+              <a:rPr lang="de-DE" sz="1100"/>
+              <a:t>Beim ersten Meeting herrschte eine hohe</a:t>
+            </a:r>
+            <a:r>
+              <a:rPr lang="de-DE" sz="1100" baseline="0"/>
+              <a:t> Motivation, gleichzeitig aber auch die geringste Strukturiertheit        </a:t>
+            </a:r>
+            <a:endParaRPr lang="de-DE" sz="1100"/>
+          </a:p>
+        </xdr:txBody>
+      </xdr:sp>
+    </xdr:grpSp>
     <xdr:clientData/>
   </xdr:twoCellAnchor>
 </xdr:wsDr>
@@ -2365,7 +2370,7 @@
   <dimension ref="A1:Z36"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="V34" sqref="V34"/>
+      <selection activeCell="W41" sqref="W41"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>

--- a/20-11-23_Statusbericht/20-11-20_Barometer.xlsx
+++ b/20-11-23_Statusbericht/20-11-20_Barometer.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="22527"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="23328"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Dokumente\AAA_Studium_HAW_Mechatronik\WiSe20\Bachelorprojekt\bachelorprojekt2020\20-11-23_Statusbericht\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Philipp\Documents\GitHub\bachelorprojekt2020\20-11-23_Statusbericht\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{46EE8830-36E3-44F3-A6F6-C9426824FFEC}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{ED66CE76-0AEB-47A2-A95F-AB7E6B7C24F2}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{BDADFF32-FBD9-4DE5-B950-468D92E439C4}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="25440" windowHeight="15390" xr2:uid="{BDADFF32-FBD9-4DE5-B950-468D92E439C4}"/>
   </bookViews>
   <sheets>
     <sheet name="Tabelle1" sheetId="1" r:id="rId1"/>
@@ -546,10 +546,10 @@
                   <c:v>8.5</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>0</c:v>
+                  <c:v>6.5</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>0</c:v>
+                  <c:v>5.25</c:v>
                 </c:pt>
                 <c:pt idx="7">
                   <c:v>0</c:v>
@@ -741,10 +741,10 @@
                   <c:v>8.5</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>0</c:v>
+                  <c:v>5</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>0</c:v>
+                  <c:v>6</c:v>
                 </c:pt>
                 <c:pt idx="7">
                   <c:v>0</c:v>
@@ -936,10 +936,10 @@
                   <c:v>8.5</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>0</c:v>
+                  <c:v>6.5</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>0</c:v>
+                  <c:v>6.75</c:v>
                 </c:pt>
                 <c:pt idx="7">
                   <c:v>0</c:v>
@@ -1131,10 +1131,10 @@
                   <c:v>8.75</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>0</c:v>
+                  <c:v>4.5</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>0</c:v>
+                  <c:v>4.5</c:v>
                 </c:pt>
                 <c:pt idx="7">
                   <c:v>0</c:v>
@@ -1981,7 +1981,7 @@
       </xdr:nvGrpSpPr>
       <xdr:grpSpPr>
         <a:xfrm>
-          <a:off x="1490382" y="5805767"/>
+          <a:off x="1485900" y="5772149"/>
           <a:ext cx="11261912" cy="3853704"/>
           <a:chOff x="1490382" y="5805767"/>
           <a:chExt cx="11261912" cy="3853704"/>
@@ -2369,8 +2369,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{85923DA2-2FD1-4856-AB9C-336BEA5CAFF2}">
   <dimension ref="A1:Z36"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="W41" sqref="W41"/>
+    <sheetView tabSelected="1" topLeftCell="A15" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="S36" sqref="S36"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -2513,10 +2513,10 @@
         <v>8</v>
       </c>
       <c r="I3" s="2">
-        <v>0</v>
+        <v>5</v>
       </c>
       <c r="J3" s="2">
-        <v>0</v>
+        <v>7</v>
       </c>
       <c r="K3" s="2">
         <v>0</v>
@@ -2593,10 +2593,10 @@
         <v>7</v>
       </c>
       <c r="I4" s="2">
-        <v>0</v>
+        <v>6</v>
       </c>
       <c r="J4" s="2">
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="K4" s="2">
         <v>0</v>
@@ -2673,10 +2673,10 @@
         <v>10</v>
       </c>
       <c r="I5" s="2">
-        <v>0</v>
+        <v>7</v>
       </c>
       <c r="J5" s="2">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="K5" s="2">
         <v>0</v>
@@ -2753,10 +2753,10 @@
         <v>9</v>
       </c>
       <c r="I6" s="2">
-        <v>0</v>
+        <v>8</v>
       </c>
       <c r="J6" s="2">
-        <v>0</v>
+        <v>8</v>
       </c>
       <c r="K6" s="2">
         <v>0</v>
@@ -2841,11 +2841,11 @@
       </c>
       <c r="I7" s="6">
         <f t="shared" si="0"/>
-        <v>0</v>
+        <v>6.5</v>
       </c>
       <c r="J7" s="6">
         <f t="shared" si="0"/>
-        <v>0</v>
+        <v>5.25</v>
       </c>
       <c r="K7" s="6">
         <f t="shared" si="0"/>
@@ -2996,10 +2996,10 @@
         <v>8</v>
       </c>
       <c r="I10" s="2">
-        <v>0</v>
+        <v>6</v>
       </c>
       <c r="J10" s="2">
-        <v>0</v>
+        <v>7</v>
       </c>
       <c r="K10" s="2">
         <v>0</v>
@@ -3076,10 +3076,10 @@
         <v>9</v>
       </c>
       <c r="I11" s="2">
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="J11" s="2">
-        <v>0</v>
+        <v>5</v>
       </c>
       <c r="K11" s="2">
         <v>0</v>
@@ -3156,10 +3156,10 @@
         <v>7</v>
       </c>
       <c r="I12" s="2">
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="J12" s="2">
-        <v>0</v>
+        <v>6</v>
       </c>
       <c r="K12" s="2">
         <v>0</v>
@@ -3236,10 +3236,10 @@
         <v>10</v>
       </c>
       <c r="I13" s="2">
-        <v>0</v>
+        <v>6</v>
       </c>
       <c r="J13" s="2">
-        <v>0</v>
+        <v>6</v>
       </c>
       <c r="K13" s="2">
         <v>0</v>
@@ -3324,11 +3324,11 @@
       </c>
       <c r="I14" s="6">
         <f t="shared" si="1"/>
-        <v>0</v>
+        <v>5</v>
       </c>
       <c r="J14" s="6">
         <f t="shared" si="1"/>
-        <v>0</v>
+        <v>6</v>
       </c>
       <c r="K14" s="6">
         <f t="shared" si="1"/>
@@ -3479,10 +3479,10 @@
         <v>9</v>
       </c>
       <c r="I17" s="2">
-        <v>0</v>
+        <v>6</v>
       </c>
       <c r="J17" s="2">
-        <v>0</v>
+        <v>6</v>
       </c>
       <c r="K17" s="2">
         <v>0</v>
@@ -3535,7 +3535,7 @@
     </row>
     <row r="18" spans="1:26" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A18" s="17" t="s">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="B18" s="8">
         <v>8</v>
@@ -3559,10 +3559,10 @@
         <v>8</v>
       </c>
       <c r="I18" s="2">
-        <v>0</v>
+        <v>7</v>
       </c>
       <c r="J18" s="2">
-        <v>0</v>
+        <v>7</v>
       </c>
       <c r="K18" s="2">
         <v>0</v>
@@ -3615,7 +3615,7 @@
     </row>
     <row r="19" spans="1:26" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A19" s="17" t="s">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="B19" s="8">
         <v>8</v>
@@ -3639,10 +3639,10 @@
         <v>10</v>
       </c>
       <c r="I19" s="2">
-        <v>0</v>
+        <v>7</v>
       </c>
       <c r="J19" s="2">
-        <v>0</v>
+        <v>7</v>
       </c>
       <c r="K19" s="2">
         <v>0</v>
@@ -3719,10 +3719,10 @@
         <v>7</v>
       </c>
       <c r="I20" s="2">
-        <v>0</v>
+        <v>6</v>
       </c>
       <c r="J20" s="2">
-        <v>0</v>
+        <v>7</v>
       </c>
       <c r="K20" s="2">
         <v>0</v>
@@ -3807,11 +3807,11 @@
       </c>
       <c r="I21" s="6">
         <f t="shared" si="2"/>
-        <v>0</v>
+        <v>6.5</v>
       </c>
       <c r="J21" s="6">
         <f t="shared" si="2"/>
-        <v>0</v>
+        <v>6.75</v>
       </c>
       <c r="K21" s="6">
         <f t="shared" si="2"/>
@@ -3962,10 +3962,10 @@
         <v>8</v>
       </c>
       <c r="I24" s="2">
-        <v>0</v>
+        <v>5</v>
       </c>
       <c r="J24" s="2">
-        <v>0</v>
+        <v>5</v>
       </c>
       <c r="K24" s="2">
         <v>0</v>
@@ -4042,10 +4042,10 @@
         <v>9</v>
       </c>
       <c r="I25" s="2">
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="J25" s="2">
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="K25" s="2">
         <v>0</v>
@@ -4122,10 +4122,10 @@
         <v>10</v>
       </c>
       <c r="I26" s="2">
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="J26" s="2">
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="K26" s="2">
         <v>0</v>
@@ -4202,10 +4202,10 @@
         <v>8</v>
       </c>
       <c r="I27" s="2">
-        <v>0</v>
+        <v>5</v>
       </c>
       <c r="J27" s="2">
-        <v>0</v>
+        <v>5</v>
       </c>
       <c r="K27" s="2">
         <v>0</v>
@@ -4290,11 +4290,11 @@
       </c>
       <c r="I28" s="6">
         <f t="shared" si="3"/>
-        <v>0</v>
+        <v>4.5</v>
       </c>
       <c r="J28" s="6">
         <f t="shared" si="3"/>
-        <v>0</v>
+        <v>4.5</v>
       </c>
       <c r="K28" s="6">
         <f t="shared" si="3"/>

--- a/20-11-23_Statusbericht/20-11-20_Barometer.xlsx
+++ b/20-11-23_Statusbericht/20-11-20_Barometer.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="23328"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="22527"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Philipp\Documents\GitHub\bachelorprojekt2020\20-11-23_Statusbericht\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Dokumente\AAA_Studium_HAW_Mechatronik\WiSe20\Bachelorprojekt\bachelorprojekt2020\20-11-23_Statusbericht\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{ED66CE76-0AEB-47A2-A95F-AB7E6B7C24F2}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E1F781B7-BF97-46E8-89B8-84D964C245B5}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="25440" windowHeight="15390" xr2:uid="{BDADFF32-FBD9-4DE5-B950-468D92E439C4}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{BDADFF32-FBD9-4DE5-B950-468D92E439C4}"/>
   </bookViews>
   <sheets>
     <sheet name="Tabelle1" sheetId="1" r:id="rId1"/>
@@ -299,7 +299,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="22">
+  <cellXfs count="23">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
@@ -322,6 +322,7 @@
     <xf numFmtId="0" fontId="0" fillId="6" borderId="2" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="7" borderId="2" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1"/>
+    <xf numFmtId="16" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Standard" xfId="0" builtinId="0"/>
@@ -467,7 +468,7 @@
                   <c:v>44168</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>44175</c:v>
+                  <c:v>44179</c:v>
                 </c:pt>
                 <c:pt idx="8">
                   <c:v>44182</c:v>
@@ -552,7 +553,7 @@
                   <c:v>5.25</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>0</c:v>
+                  <c:v>7.125</c:v>
                 </c:pt>
                 <c:pt idx="8">
                   <c:v>0</c:v>
@@ -662,7 +663,7 @@
                   <c:v>44168</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>44175</c:v>
+                  <c:v>44179</c:v>
                 </c:pt>
                 <c:pt idx="8">
                   <c:v>44182</c:v>
@@ -747,7 +748,7 @@
                   <c:v>6</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>0</c:v>
+                  <c:v>6.125</c:v>
                 </c:pt>
                 <c:pt idx="8">
                   <c:v>0</c:v>
@@ -857,7 +858,7 @@
                   <c:v>44168</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>44175</c:v>
+                  <c:v>44179</c:v>
                 </c:pt>
                 <c:pt idx="8">
                   <c:v>44182</c:v>
@@ -942,7 +943,7 @@
                   <c:v>6.75</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>0</c:v>
+                  <c:v>5.75</c:v>
                 </c:pt>
                 <c:pt idx="8">
                   <c:v>0</c:v>
@@ -1052,7 +1053,7 @@
                   <c:v>44168</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>44175</c:v>
+                  <c:v>44179</c:v>
                 </c:pt>
                 <c:pt idx="8">
                   <c:v>44182</c:v>
@@ -1137,7 +1138,7 @@
                   <c:v>4.5</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>0</c:v>
+                  <c:v>6.5</c:v>
                 </c:pt>
                 <c:pt idx="8">
                   <c:v>0</c:v>
@@ -2369,8 +2370,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{85923DA2-2FD1-4856-AB9C-336BEA5CAFF2}">
   <dimension ref="A1:Z36"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A15" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="S36" sqref="S36"/>
+    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="K34" sqref="K34"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -2409,7 +2410,7 @@
         <v>44168</v>
       </c>
       <c r="K1" s="13">
-        <v>44175</v>
+        <v>44179</v>
       </c>
       <c r="L1" s="13">
         <v>44182</v>
@@ -2599,7 +2600,7 @@
         <v>4</v>
       </c>
       <c r="K4" s="2">
-        <v>0</v>
+        <v>9</v>
       </c>
       <c r="L4" s="2">
         <v>0</v>
@@ -2679,7 +2680,7 @@
         <v>2</v>
       </c>
       <c r="K5" s="2">
-        <v>0</v>
+        <v>9.5</v>
       </c>
       <c r="L5" s="2">
         <v>0</v>
@@ -2759,7 +2760,7 @@
         <v>8</v>
       </c>
       <c r="K6" s="2">
-        <v>0</v>
+        <v>10</v>
       </c>
       <c r="L6" s="2">
         <v>0</v>
@@ -2849,7 +2850,7 @@
       </c>
       <c r="K7" s="6">
         <f t="shared" si="0"/>
-        <v>0</v>
+        <v>7.125</v>
       </c>
       <c r="L7" s="6">
         <f t="shared" si="0"/>
@@ -3082,7 +3083,7 @@
         <v>5</v>
       </c>
       <c r="K11" s="2">
-        <v>0</v>
+        <v>7</v>
       </c>
       <c r="L11" s="2">
         <v>0</v>
@@ -3162,7 +3163,7 @@
         <v>6</v>
       </c>
       <c r="K12" s="2">
-        <v>0</v>
+        <v>8.5</v>
       </c>
       <c r="L12" s="2">
         <v>0</v>
@@ -3242,7 +3243,7 @@
         <v>6</v>
       </c>
       <c r="K13" s="2">
-        <v>0</v>
+        <v>9</v>
       </c>
       <c r="L13" s="2">
         <v>0</v>
@@ -3332,7 +3333,7 @@
       </c>
       <c r="K14" s="6">
         <f t="shared" si="1"/>
-        <v>0</v>
+        <v>6.125</v>
       </c>
       <c r="L14" s="6">
         <f t="shared" si="1"/>
@@ -3406,7 +3407,7 @@
       <c r="H15" s="1"/>
       <c r="I15" s="1"/>
       <c r="J15" s="1"/>
-      <c r="K15" s="1"/>
+      <c r="K15" s="22"/>
       <c r="L15" s="1"/>
       <c r="M15" s="1"/>
       <c r="N15" s="1"/>
@@ -3565,7 +3566,7 @@
         <v>7</v>
       </c>
       <c r="K18" s="2">
-        <v>0</v>
+        <v>7</v>
       </c>
       <c r="L18" s="2">
         <v>0</v>
@@ -3645,7 +3646,7 @@
         <v>7</v>
       </c>
       <c r="K19" s="2">
-        <v>0</v>
+        <v>8</v>
       </c>
       <c r="L19" s="2">
         <v>0</v>
@@ -3725,7 +3726,7 @@
         <v>7</v>
       </c>
       <c r="K20" s="2">
-        <v>0</v>
+        <v>8</v>
       </c>
       <c r="L20" s="2">
         <v>0</v>
@@ -3815,7 +3816,7 @@
       </c>
       <c r="K21" s="6">
         <f t="shared" si="2"/>
-        <v>0</v>
+        <v>5.75</v>
       </c>
       <c r="L21" s="6">
         <f t="shared" si="2"/>
@@ -4048,7 +4049,7 @@
         <v>4</v>
       </c>
       <c r="K25" s="2">
-        <v>0</v>
+        <v>9</v>
       </c>
       <c r="L25" s="2">
         <v>0</v>
@@ -4128,7 +4129,7 @@
         <v>4</v>
       </c>
       <c r="K26" s="2">
-        <v>0</v>
+        <v>7.5</v>
       </c>
       <c r="L26" s="2">
         <v>0</v>
@@ -4208,7 +4209,7 @@
         <v>5</v>
       </c>
       <c r="K27" s="2">
-        <v>0</v>
+        <v>9.5</v>
       </c>
       <c r="L27" s="2">
         <v>0</v>
@@ -4298,7 +4299,7 @@
       </c>
       <c r="K28" s="6">
         <f t="shared" si="3"/>
-        <v>0</v>
+        <v>6.5</v>
       </c>
       <c r="L28" s="6">
         <f t="shared" si="3"/>
